--- a/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
@@ -4011,1290 +4011,1290 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58">
-        <v>57.34</v>
+        <v>327.47</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>10</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H58">
-        <v>2176318</v>
+        <v>625921</v>
       </c>
       <c r="I58">
-        <v>33.37495567</v>
+        <v>22.68298721</v>
       </c>
       <c r="J58">
-        <v>46.652408</v>
+        <v>51.77487293</v>
       </c>
       <c r="K58">
-        <v>45.88051269</v>
+        <v>53.30095324</v>
       </c>
       <c r="L58">
-        <v>-4.86882353</v>
+        <v>5.95835294</v>
       </c>
       <c r="M58">
-        <v>0.47310321</v>
+        <v>-1.12620773</v>
       </c>
       <c r="N58">
-        <v>49.28666666333334</v>
+        <v>265.4794444466666</v>
       </c>
       <c r="O58">
-        <v>69.81999999666668</v>
+        <v>344.2027777800001</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59">
-        <v>22.2</v>
+        <v>57.34</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H59">
-        <v>3328542</v>
+        <v>2176318</v>
       </c>
       <c r="I59">
-        <v>20.20548216</v>
+        <v>33.37495567</v>
       </c>
       <c r="J59">
-        <v>58.21852345</v>
+        <v>46.652408</v>
       </c>
       <c r="K59">
-        <v>53.79942982</v>
+        <v>45.88051269</v>
       </c>
       <c r="L59">
-        <v>-0.7714411799999999</v>
+        <v>-4.86882353</v>
       </c>
       <c r="M59">
-        <v>3.68986455</v>
+        <v>0.47310321</v>
       </c>
       <c r="N59">
-        <v>18.94999999666667</v>
+        <v>45.66222222</v>
       </c>
       <c r="O59">
-        <v>23.25666666333333</v>
+        <v>73.89555555333334</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D60">
-        <v>32.56</v>
+        <v>22.2</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>9</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H60">
-        <v>594000</v>
+        <v>3328542</v>
       </c>
       <c r="I60">
-        <v>33.26035623</v>
+        <v>20.20548216</v>
       </c>
       <c r="J60">
-        <v>46.52146598</v>
+        <v>58.21852345</v>
       </c>
       <c r="K60">
-        <v>45.23769851</v>
+        <v>53.79942982</v>
       </c>
       <c r="L60">
-        <v>-3.61908824</v>
+        <v>-0.7714411799999999</v>
       </c>
       <c r="M60">
-        <v>0.99255583</v>
+        <v>3.68986455</v>
       </c>
       <c r="N60">
-        <v>24.19666667</v>
+        <v>18.05722222</v>
       </c>
       <c r="O60">
-        <v>39.23666667</v>
+        <v>23.97888888666667</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D61">
-        <v>107.64</v>
+        <v>32.56</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F61">
         <v>9</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H61">
-        <v>60600</v>
+        <v>594000</v>
       </c>
       <c r="I61">
-        <v>40.70511176</v>
+        <v>33.26035623</v>
       </c>
       <c r="J61">
-        <v>29.82573331</v>
+        <v>46.52146598</v>
       </c>
       <c r="K61">
-        <v>29.92926991</v>
+        <v>45.23769851</v>
       </c>
       <c r="L61">
-        <v>-13.53188235</v>
+        <v>-3.61908824</v>
       </c>
       <c r="M61">
-        <v>-0.09281604</v>
+        <v>0.99255583</v>
       </c>
       <c r="N61">
-        <v>111.0733333366667</v>
+        <v>21.58611111333333</v>
       </c>
       <c r="O61">
-        <v>128.3400000033333</v>
+        <v>42.26611111333333</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>112.23</v>
+        <v>162.98</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <v>16</v>
       </c>
       <c r="H62">
-        <v>3979673</v>
+        <v>326151</v>
       </c>
       <c r="I62">
-        <v>36.51746959</v>
+        <v>35.21039781</v>
       </c>
       <c r="J62">
-        <v>63.17018815</v>
+        <v>55.599041</v>
       </c>
       <c r="K62">
-        <v>60.11768835</v>
+        <v>49.20311355</v>
       </c>
       <c r="L62">
-        <v>4.36417647</v>
+        <v>-2.53444118</v>
       </c>
       <c r="M62">
-        <v>1.92534738</v>
+        <v>3.0410318</v>
       </c>
       <c r="N62">
-        <v>86.15666666333334</v>
+        <v>131.99</v>
       </c>
       <c r="O62">
-        <v>108.0899999966667</v>
+        <v>172.965</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D63">
-        <v>46.59</v>
+        <v>107.64</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F63">
         <v>9</v>
       </c>
       <c r="G63">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>3658820</v>
+        <v>60600</v>
       </c>
       <c r="I63">
-        <v>26.84280237</v>
+        <v>40.70511176</v>
       </c>
       <c r="J63">
-        <v>51.40245842</v>
+        <v>29.82573331</v>
       </c>
       <c r="K63">
-        <v>45.76082394</v>
+        <v>29.92926991</v>
       </c>
       <c r="L63">
-        <v>-1.2375</v>
+        <v>-13.53188235</v>
       </c>
       <c r="M63">
-        <v>2.9158383</v>
+        <v>-0.09281604</v>
       </c>
       <c r="N63">
-        <v>38.29666666333333</v>
+        <v>108.03277778</v>
       </c>
       <c r="O63">
-        <v>49.82999999666666</v>
+        <v>131.7744444466667</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64">
-        <v>81.87</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
         <v>8</v>
       </c>
-      <c r="F64">
-        <v>9</v>
-      </c>
       <c r="G64">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H64">
-        <v>320960</v>
+        <v>3390669</v>
       </c>
       <c r="I64">
-        <v>35.17659429</v>
+        <v>37.77414887</v>
       </c>
       <c r="J64">
-        <v>48.3106418</v>
+        <v>57.08266884</v>
       </c>
       <c r="K64">
-        <v>48.51424283</v>
+        <v>54.6140654</v>
       </c>
       <c r="L64">
-        <v>-1.20376471</v>
+        <v>0.05923529</v>
       </c>
       <c r="M64">
-        <v>-0.17071089</v>
+        <v>2.04350692</v>
       </c>
       <c r="N64">
-        <v>60.81333333666667</v>
+        <v>48.51111111333333</v>
       </c>
       <c r="O64">
-        <v>92.12000000333335</v>
+        <v>87.19444444666665</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D65">
-        <v>29.31</v>
+        <v>112.23</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>9</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H65">
-        <v>497500</v>
+        <v>3979673</v>
       </c>
       <c r="I65">
-        <v>29.37613654</v>
+        <v>36.51746959</v>
       </c>
       <c r="J65">
-        <v>47.2952708</v>
+        <v>63.17018815</v>
       </c>
       <c r="K65">
-        <v>46.75335459</v>
+        <v>60.11768835</v>
       </c>
       <c r="L65">
-        <v>-2.08826471</v>
+        <v>4.36417647</v>
       </c>
       <c r="M65">
-        <v>0.37671233</v>
+        <v>1.92534738</v>
       </c>
       <c r="N65">
-        <v>22.57666666666667</v>
+        <v>82.36055555333333</v>
       </c>
       <c r="O65">
-        <v>39.44333333333334</v>
+        <v>112.5188888866667</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66">
-        <v>5.26</v>
+        <v>294.91</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H66">
-        <v>141792931</v>
+        <v>349754</v>
       </c>
       <c r="I66">
-        <v>43.6593375</v>
+        <v>30.75468917</v>
       </c>
       <c r="J66">
-        <v>60.77262878</v>
+        <v>45.52846938</v>
       </c>
       <c r="K66">
-        <v>55.21274955</v>
+        <v>44.11890051</v>
       </c>
       <c r="L66">
-        <v>0.8335</v>
+        <v>-9.00752941</v>
       </c>
       <c r="M66">
-        <v>10.50420168</v>
+        <v>0.49752939</v>
       </c>
       <c r="N66">
-        <v>2.82666667</v>
+        <v>258.46222222</v>
       </c>
       <c r="O66">
-        <v>3.78666667</v>
+        <v>318.74222222</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67">
-        <v>234.23</v>
+        <v>46.59</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F67">
         <v>9</v>
       </c>
       <c r="G67">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H67">
-        <v>315428</v>
+        <v>3658820</v>
       </c>
       <c r="I67">
-        <v>25.63311933</v>
+        <v>26.84280237</v>
       </c>
       <c r="J67">
-        <v>62.41612696</v>
+        <v>51.40245842</v>
       </c>
       <c r="K67">
-        <v>55.25609846</v>
+        <v>45.76082394</v>
       </c>
       <c r="L67">
-        <v>-6.69938235</v>
+        <v>-1.2375</v>
       </c>
       <c r="M67">
-        <v>6.20267513</v>
+        <v>2.9158383</v>
       </c>
       <c r="N67">
-        <v>174.0099999966667</v>
+        <v>36.20722222</v>
       </c>
       <c r="O67">
-        <v>237.5966666633334</v>
+        <v>52.06555555333333</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68">
-        <v>26.99</v>
+        <v>32.58</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>10</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H68">
-        <v>298282</v>
+        <v>928880</v>
       </c>
       <c r="I68">
-        <v>26.48968546</v>
+        <v>30.80966643</v>
       </c>
       <c r="J68">
-        <v>49.79820921</v>
+        <v>61.99508581</v>
       </c>
       <c r="K68">
-        <v>43.44605617</v>
+        <v>63.51961814</v>
       </c>
       <c r="L68">
-        <v>-1.76935294</v>
+        <v>2.09461765</v>
       </c>
       <c r="M68">
-        <v>3.01526718</v>
+        <v>-0.70100579</v>
       </c>
       <c r="N68">
-        <v>24.98666667</v>
+        <v>22.71611111333334</v>
       </c>
       <c r="O68">
-        <v>29.62666667</v>
+        <v>31.25944444666667</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
         <v>74</v>
       </c>
       <c r="D69">
-        <v>2096.1</v>
+        <v>35.49</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69">
-        <v>66614</v>
+        <v>713013</v>
       </c>
       <c r="I69">
-        <v>34.38403991</v>
+        <v>25.66703741</v>
       </c>
       <c r="J69">
-        <v>60.835074</v>
+        <v>61.03898751</v>
       </c>
       <c r="K69">
-        <v>62.80281943</v>
+        <v>59.64939354</v>
       </c>
       <c r="L69">
-        <v>128.27667647</v>
+        <v>0.40952941</v>
       </c>
       <c r="M69">
-        <v>-0.9418581</v>
+        <v>0.68085106</v>
       </c>
       <c r="N69">
-        <v>1500.576666666667</v>
+        <v>28.97222222</v>
       </c>
       <c r="O69">
-        <v>1903.243333333333</v>
+        <v>37.77222222</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
       </c>
       <c r="D70">
-        <v>161.36</v>
+        <v>18.92</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>14</v>
       </c>
       <c r="H70">
-        <v>694657</v>
+        <v>5959000</v>
       </c>
       <c r="I70">
-        <v>24.58368314</v>
+        <v>38.89901361</v>
       </c>
       <c r="J70">
-        <v>56.92725934</v>
+        <v>55.68507052</v>
       </c>
       <c r="K70">
-        <v>57.89858856</v>
+        <v>53.40630368</v>
       </c>
       <c r="L70">
-        <v>-1.16838235</v>
+        <v>-0.06311765</v>
       </c>
       <c r="M70">
-        <v>-0.41964947</v>
+        <v>1.72043011</v>
       </c>
       <c r="N70">
-        <v>130.93</v>
+        <v>12.63888888666667</v>
       </c>
       <c r="O70">
-        <v>172.73</v>
+        <v>20.39388888666667</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
       </c>
       <c r="D71">
-        <v>76.72</v>
+        <v>81.87</v>
       </c>
       <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
         <v>9</v>
       </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
       <c r="G71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H71">
-        <v>1015100</v>
+        <v>320960</v>
       </c>
       <c r="I71">
-        <v>33.05232349</v>
+        <v>35.17659429</v>
       </c>
       <c r="J71">
-        <v>47.35163554</v>
+        <v>48.3106418</v>
       </c>
       <c r="K71">
-        <v>47.99769915</v>
+        <v>48.51424283</v>
       </c>
       <c r="L71">
-        <v>-1.81808824</v>
+        <v>-1.20376471</v>
       </c>
       <c r="M71">
-        <v>-0.33775006</v>
+        <v>-0.17071089</v>
       </c>
       <c r="N71">
-        <v>59.24666666333334</v>
+        <v>55.56111111333333</v>
       </c>
       <c r="O71">
-        <v>87.37999999666665</v>
+        <v>98.60777778000001</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
       <c r="D72">
-        <v>321.13</v>
+        <v>31.9</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>931522</v>
+        <v>3627095</v>
       </c>
       <c r="I72">
-        <v>28.91786339</v>
+        <v>45.98139901</v>
       </c>
       <c r="J72">
-        <v>52.28342278</v>
+        <v>73.60522890999999</v>
       </c>
       <c r="K72">
-        <v>54.800816</v>
+        <v>74.85914375</v>
       </c>
       <c r="L72">
-        <v>15.45894118</v>
+        <v>5.00941176</v>
       </c>
       <c r="M72">
-        <v>-2.18397807</v>
+        <v>-0.56109726</v>
       </c>
       <c r="N72">
-        <v>242.1699999966667</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="O72">
-        <v>312.2366666633333</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73">
-        <v>112.45</v>
+        <v>29.31</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <v>9</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H73">
-        <v>10443776</v>
+        <v>497500</v>
       </c>
       <c r="I73">
-        <v>35.88790844</v>
+        <v>29.37613654</v>
       </c>
       <c r="J73">
-        <v>47.82182198</v>
+        <v>47.2952708</v>
       </c>
       <c r="K73">
-        <v>44.45507661</v>
+        <v>46.75335459</v>
       </c>
       <c r="L73">
-        <v>-3.71352941</v>
+        <v>-2.08826471</v>
       </c>
       <c r="M73">
-        <v>2.07879448</v>
+        <v>0.37671233</v>
       </c>
       <c r="N73">
-        <v>97.23333333666666</v>
+        <v>19.53666666666667</v>
       </c>
       <c r="O73">
-        <v>117.9000000033333</v>
+        <v>42.72833333333333</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D74">
-        <v>22.58</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H74">
-        <v>20516035</v>
+        <v>96500</v>
       </c>
       <c r="I74">
-        <v>44.3246722</v>
+        <v>29.48681024</v>
       </c>
       <c r="J74">
-        <v>58.48018876</v>
+        <v>45.14939687</v>
       </c>
       <c r="K74">
-        <v>53.56003111</v>
+        <v>42.86492752</v>
       </c>
       <c r="L74">
-        <v>1.70491176</v>
+        <v>-6.33144118</v>
       </c>
       <c r="M74">
-        <v>6.91287879</v>
+        <v>1.24435769</v>
       </c>
       <c r="N74">
-        <v>12.82666667</v>
+        <v>68.47833333333334</v>
       </c>
       <c r="O74">
-        <v>20.18666667</v>
+        <v>102.5783333333333</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
         <v>74</v>
       </c>
       <c r="D75">
-        <v>6.67</v>
+        <v>504.56</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H75">
-        <v>12954000</v>
+        <v>76900</v>
       </c>
       <c r="I75">
-        <v>37.936249</v>
+        <v>39.52375246</v>
       </c>
       <c r="J75">
-        <v>56.09387909</v>
+        <v>64.83670339</v>
       </c>
       <c r="K75">
-        <v>52.37441218</v>
+        <v>60.58953429</v>
       </c>
       <c r="L75">
-        <v>0.23741176</v>
+        <v>-2.84664706</v>
       </c>
       <c r="M75">
-        <v>5.20504732</v>
+        <v>2.40922284</v>
       </c>
       <c r="N75">
-        <v>4.326666663333333</v>
+        <v>392.3333333333333</v>
       </c>
       <c r="O75">
-        <v>6.379999996666666</v>
+        <v>543.5833333333334</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76">
-        <v>114.94</v>
+        <v>117.09</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F76">
         <v>9</v>
       </c>
       <c r="G76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H76">
-        <v>428527</v>
+        <v>6034660</v>
       </c>
       <c r="I76">
-        <v>27.02808778</v>
+        <v>29.48824908</v>
       </c>
       <c r="J76">
-        <v>55.79456959</v>
+        <v>50.44823187</v>
       </c>
       <c r="K76">
-        <v>55.67203346</v>
+        <v>53.06512263</v>
       </c>
       <c r="L76">
-        <v>-1.02961765</v>
+        <v>-3.98797059</v>
       </c>
       <c r="M76">
-        <v>0.06965001</v>
+        <v>-1.23154787</v>
       </c>
       <c r="N76">
-        <v>100.4700000033333</v>
+        <v>95.22611111333333</v>
       </c>
       <c r="O76">
-        <v>117.1233333366667</v>
+        <v>138.2911111133333</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77">
-        <v>150.47</v>
+        <v>72</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>9</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H77">
-        <v>973705</v>
+        <v>468924</v>
       </c>
       <c r="I77">
-        <v>23.84833734</v>
+        <v>29.18670717</v>
       </c>
       <c r="J77">
-        <v>40.76352554</v>
+        <v>59.79717324</v>
       </c>
       <c r="K77">
-        <v>42.03878849</v>
+        <v>57.49574359</v>
       </c>
       <c r="L77">
-        <v>-11.46008824</v>
+        <v>1.44661765</v>
       </c>
       <c r="M77">
-        <v>-1.00657895</v>
+        <v>1.68055359</v>
       </c>
       <c r="N77">
-        <v>143.28333333</v>
+        <v>44.85833333333334</v>
       </c>
       <c r="O77">
-        <v>182.48333333</v>
+        <v>81.65333333333334</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D78">
-        <v>73.52</v>
+        <v>138.87</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H78">
-        <v>5990864</v>
+        <v>121041</v>
       </c>
       <c r="I78">
-        <v>39.97381435</v>
+        <v>30.72898748</v>
       </c>
       <c r="J78">
-        <v>59.97793254</v>
+        <v>59.936334</v>
       </c>
       <c r="K78">
-        <v>56.30950113</v>
+        <v>63.49662888</v>
       </c>
       <c r="L78">
-        <v>4.86917647</v>
+        <v>10.99611765</v>
       </c>
       <c r="M78">
-        <v>2.94035284</v>
+        <v>-1.60833215</v>
       </c>
       <c r="N78">
-        <v>50.57999999666666</v>
+        <v>99.41333333333334</v>
       </c>
       <c r="O78">
-        <v>68.84666666333334</v>
+        <v>127.7383333333333</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D79">
-        <v>423.56</v>
+        <v>73.02</v>
       </c>
       <c r="E79">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F79">
         <v>9</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H79">
-        <v>216382</v>
+        <v>208778</v>
       </c>
       <c r="I79">
-        <v>27.74146474</v>
+        <v>38.10900978</v>
       </c>
       <c r="J79">
-        <v>39.27691706</v>
+        <v>54.94969916</v>
       </c>
       <c r="K79">
-        <v>40.01908347</v>
+        <v>57.24784945</v>
       </c>
       <c r="L79">
-        <v>-23.32394118</v>
+        <v>2.236</v>
       </c>
       <c r="M79">
-        <v>-0.35054699</v>
+        <v>-1.05691057</v>
       </c>
       <c r="N79">
-        <v>407.9066666633333</v>
+        <v>52.39333333333334</v>
       </c>
       <c r="O79">
-        <v>497.2399999966667</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80">
-        <v>99.72</v>
+        <v>5.26</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>10</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H80">
-        <v>407098</v>
+        <v>141792931</v>
       </c>
       <c r="I80">
-        <v>34.89582653</v>
+        <v>43.6593375</v>
       </c>
       <c r="J80">
-        <v>48.42108606</v>
+        <v>60.77262878</v>
       </c>
       <c r="K80">
-        <v>47.38575872</v>
+        <v>55.21274955</v>
       </c>
       <c r="L80">
-        <v>-4.32164706</v>
+        <v>0.8335</v>
       </c>
       <c r="M80">
-        <v>0.68659128</v>
+        <v>10.50420168</v>
       </c>
       <c r="N80">
-        <v>85.58333333666667</v>
+        <v>2.64277778</v>
       </c>
       <c r="O80">
-        <v>115.8500000033333</v>
+        <v>3.96277778</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5302,55 +5302,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D81">
-        <v>327.47</v>
+        <v>234.23</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H81">
-        <v>625921</v>
+        <v>315428</v>
       </c>
       <c r="I81">
-        <v>22.68298721</v>
+        <v>25.63311933</v>
       </c>
       <c r="J81">
-        <v>51.77487293</v>
+        <v>62.41612696</v>
       </c>
       <c r="K81">
-        <v>53.30095324</v>
+        <v>55.25609846</v>
       </c>
       <c r="L81">
-        <v>5.95835294</v>
+        <v>-6.69938235</v>
       </c>
       <c r="M81">
-        <v>-1.12620773</v>
+        <v>6.20267513</v>
       </c>
       <c r="N81">
-        <v>265.4794444466666</v>
+        <v>162.7805555533333</v>
       </c>
       <c r="O81">
-        <v>344.2027777800001</v>
+        <v>250.21222222</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5358,55 +5358,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82">
-        <v>57.34</v>
+        <v>94.75</v>
       </c>
       <c r="E82">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>10</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H82">
-        <v>2176318</v>
+        <v>117126</v>
       </c>
       <c r="I82">
-        <v>33.37495567</v>
+        <v>31.29669174</v>
       </c>
       <c r="J82">
-        <v>46.652408</v>
+        <v>62.19030815</v>
       </c>
       <c r="K82">
-        <v>45.88051269</v>
+        <v>53.23082122</v>
       </c>
       <c r="L82">
-        <v>-4.86882353</v>
+        <v>-0.11847059</v>
       </c>
       <c r="M82">
-        <v>0.47310321</v>
+        <v>7.46285585</v>
       </c>
       <c r="N82">
-        <v>45.66222222</v>
+        <v>59.70222222</v>
       </c>
       <c r="O82">
-        <v>73.89555555333334</v>
+        <v>99.94388888666667</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5414,55 +5414,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D83">
-        <v>22.2</v>
+        <v>26.99</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
         <v>9</v>
       </c>
-      <c r="G83">
-        <v>16</v>
-      </c>
       <c r="H83">
-        <v>3328542</v>
+        <v>298282</v>
       </c>
       <c r="I83">
-        <v>20.20548216</v>
+        <v>26.48968546</v>
       </c>
       <c r="J83">
-        <v>58.21852345</v>
+        <v>49.79820921</v>
       </c>
       <c r="K83">
-        <v>53.79942982</v>
+        <v>43.44605617</v>
       </c>
       <c r="L83">
-        <v>-0.7714411799999999</v>
+        <v>-1.76935294</v>
       </c>
       <c r="M83">
-        <v>3.68986455</v>
+        <v>3.01526718</v>
       </c>
       <c r="N83">
-        <v>18.05722222</v>
+        <v>24.14944444666666</v>
       </c>
       <c r="O83">
-        <v>23.97888888666667</v>
+        <v>30.52944444666667</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5470,55 +5470,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
         <v>74</v>
       </c>
       <c r="D84">
-        <v>32.56</v>
+        <v>786.98</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <v>9</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H84">
-        <v>594000</v>
+        <v>299457</v>
       </c>
       <c r="I84">
-        <v>33.26035623</v>
+        <v>32.8367717</v>
       </c>
       <c r="J84">
-        <v>46.52146598</v>
+        <v>57.06409568</v>
       </c>
       <c r="K84">
-        <v>45.23769851</v>
+        <v>56.11642469</v>
       </c>
       <c r="L84">
-        <v>-3.61908824</v>
+        <v>2.5065</v>
       </c>
       <c r="M84">
-        <v>0.99255583</v>
+        <v>0.46211193</v>
       </c>
       <c r="N84">
-        <v>21.58611111333333</v>
+        <v>586.54777778</v>
       </c>
       <c r="O84">
-        <v>42.26611111333333</v>
+        <v>894.54777778</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5526,55 +5526,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
         <v>74</v>
       </c>
       <c r="D85">
-        <v>162.98</v>
+        <v>2096.1</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G85">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H85">
-        <v>326151</v>
+        <v>66614</v>
       </c>
       <c r="I85">
-        <v>35.21039781</v>
+        <v>34.38403991</v>
       </c>
       <c r="J85">
-        <v>55.599041</v>
+        <v>60.835074</v>
       </c>
       <c r="K85">
-        <v>49.20311355</v>
+        <v>62.80281943</v>
       </c>
       <c r="L85">
-        <v>-2.53444118</v>
+        <v>128.27667647</v>
       </c>
       <c r="M85">
-        <v>3.0410318</v>
+        <v>-0.9418581</v>
       </c>
       <c r="N85">
-        <v>131.99</v>
+        <v>1425.561666666666</v>
       </c>
       <c r="O85">
-        <v>172.965</v>
+        <v>1979.228333333333</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5582,55 +5582,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D86">
-        <v>107.64</v>
+        <v>161.36</v>
       </c>
       <c r="E86">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H86">
-        <v>60600</v>
+        <v>694657</v>
       </c>
       <c r="I86">
-        <v>40.70511176</v>
+        <v>24.58368314</v>
       </c>
       <c r="J86">
-        <v>29.82573331</v>
+        <v>56.92725934</v>
       </c>
       <c r="K86">
-        <v>29.92926991</v>
+        <v>57.89858856</v>
       </c>
       <c r="L86">
-        <v>-13.53188235</v>
+        <v>-1.16838235</v>
       </c>
       <c r="M86">
-        <v>-0.09281604</v>
+        <v>-0.41964947</v>
       </c>
       <c r="N86">
-        <v>108.03277778</v>
+        <v>123.3433333333333</v>
       </c>
       <c r="O86">
-        <v>131.7744444466667</v>
+        <v>180.8183333333334</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5638,55 +5638,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C87" t="s">
         <v>74</v>
       </c>
       <c r="D87">
-        <v>77.40000000000001</v>
+        <v>38.92</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H87">
-        <v>3390669</v>
+        <v>4080137</v>
       </c>
       <c r="I87">
-        <v>37.77414887</v>
+        <v>41.07734124</v>
       </c>
       <c r="J87">
-        <v>57.08266884</v>
+        <v>48.97097391</v>
       </c>
       <c r="K87">
-        <v>54.6140654</v>
+        <v>46.83784349</v>
       </c>
       <c r="L87">
-        <v>0.05923529</v>
+        <v>-1.82117647</v>
       </c>
       <c r="M87">
-        <v>2.04350692</v>
+        <v>1.09090909</v>
       </c>
       <c r="N87">
-        <v>48.51111111333333</v>
+        <v>34.66722222</v>
       </c>
       <c r="O87">
-        <v>87.19444444666665</v>
+        <v>42.25722222</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5694,55 +5694,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D88">
-        <v>112.23</v>
+        <v>581.27</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G88">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H88">
-        <v>3979673</v>
+        <v>58054</v>
       </c>
       <c r="I88">
-        <v>36.51746959</v>
+        <v>34.2121288</v>
       </c>
       <c r="J88">
-        <v>63.17018815</v>
+        <v>49.52702903</v>
       </c>
       <c r="K88">
-        <v>60.11768835</v>
+        <v>48.59160606</v>
       </c>
       <c r="L88">
-        <v>4.36417647</v>
+        <v>4.98164706</v>
       </c>
       <c r="M88">
-        <v>1.92534738</v>
+        <v>0.40766268</v>
       </c>
       <c r="N88">
-        <v>82.36055555333333</v>
+        <v>422.2866666666667</v>
       </c>
       <c r="O88">
-        <v>112.5188888866667</v>
+        <v>667.4216666666666</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5750,13 +5750,13 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
         <v>75</v>
       </c>
       <c r="D89">
-        <v>294.91</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="E89">
         <v>8</v>
@@ -5768,37 +5768,37 @@
         <v>9</v>
       </c>
       <c r="H89">
-        <v>349754</v>
+        <v>139111</v>
       </c>
       <c r="I89">
-        <v>30.75468917</v>
+        <v>30.00646845</v>
       </c>
       <c r="J89">
-        <v>45.52846938</v>
+        <v>47.8768291</v>
       </c>
       <c r="K89">
-        <v>44.11890051</v>
+        <v>47.40350075</v>
       </c>
       <c r="L89">
-        <v>-9.00752941</v>
+        <v>-2.34123529</v>
       </c>
       <c r="M89">
-        <v>0.49752939</v>
+        <v>0.28792241</v>
       </c>
       <c r="N89">
-        <v>258.46222222</v>
+        <v>51.93833333333333</v>
       </c>
       <c r="O89">
-        <v>318.74222222</v>
+        <v>76.96333333333332</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5806,55 +5806,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D90">
-        <v>46.59</v>
+        <v>76.72</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H90">
-        <v>3658820</v>
+        <v>1015100</v>
       </c>
       <c r="I90">
-        <v>26.84280237</v>
+        <v>33.05232349</v>
       </c>
       <c r="J90">
-        <v>51.40245842</v>
+        <v>47.35163554</v>
       </c>
       <c r="K90">
-        <v>45.76082394</v>
+        <v>47.99769915</v>
       </c>
       <c r="L90">
-        <v>-1.2375</v>
+        <v>-1.81808824</v>
       </c>
       <c r="M90">
-        <v>2.9158383</v>
+        <v>-0.33775006</v>
       </c>
       <c r="N90">
-        <v>36.20722222</v>
+        <v>54.38222222</v>
       </c>
       <c r="O90">
-        <v>52.06555555333333</v>
+        <v>93.06555555333334</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5862,55 +5862,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
         <v>74</v>
       </c>
       <c r="D91">
-        <v>32.58</v>
+        <v>321.13</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F91">
         <v>10</v>
       </c>
       <c r="G91">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>928880</v>
+        <v>931522</v>
       </c>
       <c r="I91">
-        <v>30.80966643</v>
+        <v>28.91786339</v>
       </c>
       <c r="J91">
-        <v>61.99508581</v>
+        <v>52.28342278</v>
       </c>
       <c r="K91">
-        <v>63.51961814</v>
+        <v>54.800816</v>
       </c>
       <c r="L91">
-        <v>2.09461765</v>
+        <v>15.45894118</v>
       </c>
       <c r="M91">
-        <v>-0.70100579</v>
+        <v>-2.18397807</v>
       </c>
       <c r="N91">
-        <v>22.71611111333334</v>
+        <v>229.9455555533333</v>
       </c>
       <c r="O91">
-        <v>31.25944444666667</v>
+        <v>326.28722222</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5918,55 +5918,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D92">
-        <v>35.49</v>
+        <v>112.45</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>9</v>
       </c>
       <c r="G92">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>713013</v>
+        <v>10443776</v>
       </c>
       <c r="I92">
-        <v>25.66703741</v>
+        <v>35.88790844</v>
       </c>
       <c r="J92">
-        <v>61.03898751</v>
+        <v>47.82182198</v>
       </c>
       <c r="K92">
-        <v>59.64939354</v>
+        <v>44.45507661</v>
       </c>
       <c r="L92">
-        <v>0.40952941</v>
+        <v>-3.71352941</v>
       </c>
       <c r="M92">
-        <v>0.68085106</v>
+        <v>2.07879448</v>
       </c>
       <c r="N92">
-        <v>28.97222222</v>
+        <v>93.46111111333333</v>
       </c>
       <c r="O92">
-        <v>37.77222222</v>
+        <v>121.87777778</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5974,55 +5974,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
         <v>74</v>
       </c>
       <c r="D93">
-        <v>18.92</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>5959000</v>
+        <v>997685</v>
       </c>
       <c r="I93">
-        <v>38.89901361</v>
+        <v>27.054274</v>
       </c>
       <c r="J93">
-        <v>55.68507052</v>
+        <v>60.85705906</v>
       </c>
       <c r="K93">
-        <v>53.40630368</v>
+        <v>58.85726501</v>
       </c>
       <c r="L93">
-        <v>-0.06311765</v>
+        <v>2.46252941</v>
       </c>
       <c r="M93">
-        <v>1.72043011</v>
+        <v>1.9012945</v>
       </c>
       <c r="N93">
-        <v>12.63888888666667</v>
+        <v>51.69833333333333</v>
       </c>
       <c r="O93">
-        <v>20.39388888666667</v>
+        <v>85.65166666666666</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6030,55 +6030,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94">
-        <v>81.87</v>
+        <v>22.58</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>9</v>
       </c>
       <c r="G94">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H94">
-        <v>320960</v>
+        <v>20516035</v>
       </c>
       <c r="I94">
-        <v>35.17659429</v>
+        <v>44.3246722</v>
       </c>
       <c r="J94">
-        <v>48.3106418</v>
+        <v>58.48018876</v>
       </c>
       <c r="K94">
-        <v>48.51424283</v>
+        <v>53.56003111</v>
       </c>
       <c r="L94">
-        <v>-1.20376471</v>
+        <v>1.70491176</v>
       </c>
       <c r="M94">
-        <v>-0.17071089</v>
+        <v>6.91287879</v>
       </c>
       <c r="N94">
-        <v>55.56111111333333</v>
+        <v>11.54944444666667</v>
       </c>
       <c r="O94">
-        <v>98.60777778000001</v>
+        <v>21.66944444666666</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6086,55 +6086,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
         <v>74</v>
       </c>
       <c r="D95">
-        <v>31.9</v>
+        <v>6.67</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G95">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H95">
-        <v>3627095</v>
+        <v>12954000</v>
       </c>
       <c r="I95">
-        <v>45.98139901</v>
+        <v>37.936249</v>
       </c>
       <c r="J95">
-        <v>73.60522890999999</v>
+        <v>56.09387909</v>
       </c>
       <c r="K95">
-        <v>74.85914375</v>
+        <v>52.37441218</v>
       </c>
       <c r="L95">
-        <v>5.00941176</v>
+        <v>0.23741176</v>
       </c>
       <c r="M95">
-        <v>-0.56109726</v>
+        <v>5.20504732</v>
       </c>
       <c r="N95">
-        <v>16.66666666666667</v>
+        <v>3.945555553333333</v>
       </c>
       <c r="O95">
-        <v>27.66666666666667</v>
+        <v>6.768888886666666</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6142,55 +6142,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
         <v>74</v>
       </c>
       <c r="D96">
-        <v>29.31</v>
+        <v>114.94</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>9</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H96">
-        <v>497500</v>
+        <v>428527</v>
       </c>
       <c r="I96">
-        <v>29.37613654</v>
+        <v>27.02808778</v>
       </c>
       <c r="J96">
-        <v>47.2952708</v>
+        <v>55.79456959</v>
       </c>
       <c r="K96">
-        <v>46.75335459</v>
+        <v>55.67203346</v>
       </c>
       <c r="L96">
-        <v>-2.08826471</v>
+        <v>-1.02961765</v>
       </c>
       <c r="M96">
-        <v>0.37671233</v>
+        <v>0.06965001</v>
       </c>
       <c r="N96">
-        <v>19.53666666666667</v>
+        <v>97.23111111333333</v>
       </c>
       <c r="O96">
-        <v>42.72833333333333</v>
+        <v>120.1294444466667</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6198,55 +6198,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D97">
-        <v>82.98999999999999</v>
+        <v>115.03</v>
       </c>
       <c r="E97">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H97">
-        <v>96500</v>
+        <v>13683173</v>
       </c>
       <c r="I97">
-        <v>29.48681024</v>
+        <v>41.50983748</v>
       </c>
       <c r="J97">
-        <v>45.14939687</v>
+        <v>58.54429478</v>
       </c>
       <c r="K97">
-        <v>42.86492752</v>
+        <v>54.04941738</v>
       </c>
       <c r="L97">
-        <v>-6.33144118</v>
+        <v>9.839088240000001</v>
       </c>
       <c r="M97">
-        <v>1.24435769</v>
+        <v>3.59329971</v>
       </c>
       <c r="N97">
-        <v>68.47833333333334</v>
+        <v>75.39833333333333</v>
       </c>
       <c r="O97">
-        <v>102.5783333333333</v>
+        <v>103.1366666666667</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6254,55 +6254,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D98">
-        <v>504.56</v>
+        <v>176.71</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F98">
+        <v>8</v>
+      </c>
+      <c r="G98">
         <v>10</v>
       </c>
-      <c r="G98">
-        <v>15</v>
-      </c>
       <c r="H98">
-        <v>76900</v>
+        <v>4231939</v>
       </c>
       <c r="I98">
-        <v>39.52375246</v>
+        <v>38.3728351</v>
       </c>
       <c r="J98">
-        <v>64.83670339</v>
+        <v>46.92864142</v>
       </c>
       <c r="K98">
-        <v>60.58953429</v>
+        <v>44.0579153</v>
       </c>
       <c r="L98">
-        <v>-2.84664706</v>
+        <v>-5.93344118</v>
       </c>
       <c r="M98">
-        <v>2.40922284</v>
+        <v>2.14450867</v>
       </c>
       <c r="N98">
-        <v>392.3333333333333</v>
+        <v>125.4805555533333</v>
       </c>
       <c r="O98">
-        <v>543.5833333333334</v>
+        <v>207.0455555533333</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6310,55 +6310,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D99">
-        <v>117.09</v>
+        <v>51.48</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H99">
-        <v>6034660</v>
+        <v>3573337</v>
       </c>
       <c r="I99">
-        <v>29.48824908</v>
+        <v>34.98168023</v>
       </c>
       <c r="J99">
-        <v>50.44823187</v>
+        <v>42.64445665</v>
       </c>
       <c r="K99">
-        <v>53.06512263</v>
+        <v>44.47371661</v>
       </c>
       <c r="L99">
-        <v>-3.98797059</v>
+        <v>-4.92044118</v>
       </c>
       <c r="M99">
-        <v>-1.23154787</v>
+        <v>-1.96153114</v>
       </c>
       <c r="N99">
-        <v>95.22611111333333</v>
+        <v>33.29944444666666</v>
       </c>
       <c r="O99">
-        <v>138.2911111133333</v>
+        <v>71.15777777999999</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="R99" s="3" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6366,55 +6366,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D100">
-        <v>72</v>
+        <v>150.47</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F100">
         <v>9</v>
       </c>
       <c r="G100">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H100">
-        <v>468924</v>
+        <v>973705</v>
       </c>
       <c r="I100">
-        <v>29.18670717</v>
+        <v>23.84833734</v>
       </c>
       <c r="J100">
-        <v>59.79717324</v>
+        <v>40.76352554</v>
       </c>
       <c r="K100">
-        <v>57.49574359</v>
+        <v>42.03878849</v>
       </c>
       <c r="L100">
-        <v>1.44661765</v>
+        <v>-11.46008824</v>
       </c>
       <c r="M100">
-        <v>1.68055359</v>
+        <v>-1.00657895</v>
       </c>
       <c r="N100">
-        <v>44.85833333333334</v>
+        <v>136.1305555533333</v>
       </c>
       <c r="O100">
-        <v>81.65333333333334</v>
+        <v>190.0305555533333</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6422,55 +6422,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D101">
-        <v>138.87</v>
+        <v>73.52</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G101">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H101">
-        <v>121041</v>
+        <v>5990864</v>
       </c>
       <c r="I101">
-        <v>30.72898748</v>
+        <v>39.97381435</v>
       </c>
       <c r="J101">
-        <v>59.936334</v>
+        <v>59.97793254</v>
       </c>
       <c r="K101">
-        <v>63.49662888</v>
+        <v>56.30950113</v>
       </c>
       <c r="L101">
-        <v>10.99611765</v>
+        <v>4.86917647</v>
       </c>
       <c r="M101">
-        <v>-1.60833215</v>
+        <v>2.94035284</v>
       </c>
       <c r="N101">
-        <v>99.41333333333334</v>
+        <v>47.43222222</v>
       </c>
       <c r="O101">
-        <v>127.7383333333333</v>
+        <v>72.54888888666666</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6478,55 +6478,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D102">
-        <v>73.02</v>
+        <v>423.56</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F102">
         <v>9</v>
       </c>
       <c r="G102">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>208778</v>
+        <v>216382</v>
       </c>
       <c r="I102">
-        <v>38.10900978</v>
+        <v>27.74146474</v>
       </c>
       <c r="J102">
-        <v>54.94969916</v>
+        <v>39.27691706</v>
       </c>
       <c r="K102">
-        <v>57.24784945</v>
+        <v>40.01908347</v>
       </c>
       <c r="L102">
-        <v>2.236</v>
+        <v>-23.32394118</v>
       </c>
       <c r="M102">
-        <v>-1.05691057</v>
+        <v>-0.35054699</v>
       </c>
       <c r="N102">
-        <v>52.39333333333334</v>
+        <v>391.8355555533333</v>
       </c>
       <c r="O102">
-        <v>76.95999999999999</v>
+        <v>514.6688888866667</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="R102" s="3" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6534,55 +6534,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D103">
-        <v>5.26</v>
+        <v>99.72</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F103">
         <v>10</v>
       </c>
       <c r="G103">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H103">
-        <v>141792931</v>
+        <v>407098</v>
       </c>
       <c r="I103">
-        <v>43.6593375</v>
+        <v>34.89582653</v>
       </c>
       <c r="J103">
-        <v>60.77262878</v>
+        <v>48.42108606</v>
       </c>
       <c r="K103">
-        <v>55.21274955</v>
+        <v>47.38575872</v>
       </c>
       <c r="L103">
-        <v>0.8335</v>
+        <v>-4.32164706</v>
       </c>
       <c r="M103">
-        <v>10.50420168</v>
+        <v>0.68659128</v>
       </c>
       <c r="N103">
-        <v>2.64277778</v>
+        <v>80.33611111333333</v>
       </c>
       <c r="O103">
-        <v>3.96277778</v>
+        <v>121.95277778</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6590,1348 +6590,1348 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D104">
-        <v>234.23</v>
+        <v>23.63</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G104">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H104">
-        <v>315428</v>
+        <v>6034568</v>
       </c>
       <c r="I104">
-        <v>25.63311933</v>
+        <v>20.33666822</v>
       </c>
       <c r="J104">
-        <v>62.41612696</v>
+        <v>37.6927908</v>
       </c>
       <c r="K104">
-        <v>55.25609846</v>
+        <v>37.30614611</v>
       </c>
       <c r="L104">
-        <v>-6.69938235</v>
+        <v>-1.98711765</v>
       </c>
       <c r="M104">
-        <v>6.20267513</v>
+        <v>0.16956337</v>
       </c>
       <c r="N104">
-        <v>162.7805555533333</v>
+        <v>21.45611111333333</v>
       </c>
       <c r="O104">
-        <v>250.21222222</v>
+        <v>29.87111111333333</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B105" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D105">
-        <v>94.75</v>
+        <v>57.34</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F105">
         <v>10</v>
       </c>
       <c r="G105">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H105">
-        <v>117126</v>
+        <v>2176318</v>
       </c>
       <c r="I105">
-        <v>31.29669174</v>
+        <v>33.37495567</v>
       </c>
       <c r="J105">
-        <v>62.19030815</v>
+        <v>46.652408</v>
       </c>
       <c r="K105">
-        <v>53.23082122</v>
+        <v>45.88051269</v>
       </c>
       <c r="L105">
-        <v>-0.11847059</v>
+        <v>-4.86882353</v>
       </c>
       <c r="M105">
-        <v>7.46285585</v>
+        <v>0.47310321</v>
       </c>
       <c r="N105">
-        <v>59.70222222</v>
+        <v>49.28666666333334</v>
       </c>
       <c r="O105">
-        <v>99.94388888666667</v>
+        <v>69.81999999666668</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="R105" s="3" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D106">
-        <v>26.99</v>
+        <v>22.2</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G106">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H106">
-        <v>298282</v>
+        <v>3328542</v>
       </c>
       <c r="I106">
-        <v>26.48968546</v>
+        <v>20.20548216</v>
       </c>
       <c r="J106">
-        <v>49.79820921</v>
+        <v>58.21852345</v>
       </c>
       <c r="K106">
-        <v>43.44605617</v>
+        <v>53.79942982</v>
       </c>
       <c r="L106">
-        <v>-1.76935294</v>
+        <v>-0.7714411799999999</v>
       </c>
       <c r="M106">
-        <v>3.01526718</v>
+        <v>3.68986455</v>
       </c>
       <c r="N106">
-        <v>24.14944444666666</v>
+        <v>18.94999999666667</v>
       </c>
       <c r="O106">
-        <v>30.52944444666667</v>
+        <v>23.25666666333333</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
         <v>74</v>
       </c>
       <c r="D107">
-        <v>786.98</v>
+        <v>32.56</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F107">
         <v>9</v>
       </c>
       <c r="G107">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H107">
-        <v>299457</v>
+        <v>594000</v>
       </c>
       <c r="I107">
-        <v>32.8367717</v>
+        <v>33.26035623</v>
       </c>
       <c r="J107">
-        <v>57.06409568</v>
+        <v>46.52146598</v>
       </c>
       <c r="K107">
-        <v>56.11642469</v>
+        <v>45.23769851</v>
       </c>
       <c r="L107">
-        <v>2.5065</v>
+        <v>-3.61908824</v>
       </c>
       <c r="M107">
-        <v>0.46211193</v>
+        <v>0.99255583</v>
       </c>
       <c r="N107">
-        <v>586.54777778</v>
+        <v>24.19666667</v>
       </c>
       <c r="O107">
-        <v>894.54777778</v>
+        <v>39.23666667</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B108" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D108">
-        <v>2096.1</v>
+        <v>107.64</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G108">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H108">
-        <v>66614</v>
+        <v>60600</v>
       </c>
       <c r="I108">
-        <v>34.38403991</v>
+        <v>40.70511176</v>
       </c>
       <c r="J108">
-        <v>60.835074</v>
+        <v>29.82573331</v>
       </c>
       <c r="K108">
-        <v>62.80281943</v>
+        <v>29.92926991</v>
       </c>
       <c r="L108">
-        <v>128.27667647</v>
+        <v>-13.53188235</v>
       </c>
       <c r="M108">
-        <v>-0.9418581</v>
+        <v>-0.09281604</v>
       </c>
       <c r="N108">
-        <v>1425.561666666666</v>
+        <v>111.0733333366667</v>
       </c>
       <c r="O108">
-        <v>1979.228333333333</v>
+        <v>128.3400000033333</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D109">
-        <v>161.36</v>
+        <v>112.23</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G109">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H109">
-        <v>694657</v>
+        <v>3979673</v>
       </c>
       <c r="I109">
-        <v>24.58368314</v>
+        <v>36.51746959</v>
       </c>
       <c r="J109">
-        <v>56.92725934</v>
+        <v>63.17018815</v>
       </c>
       <c r="K109">
-        <v>57.89858856</v>
+        <v>60.11768835</v>
       </c>
       <c r="L109">
-        <v>-1.16838235</v>
+        <v>4.36417647</v>
       </c>
       <c r="M109">
-        <v>-0.41964947</v>
+        <v>1.92534738</v>
       </c>
       <c r="N109">
-        <v>123.3433333333333</v>
+        <v>86.15666666333334</v>
       </c>
       <c r="O109">
-        <v>180.8183333333334</v>
+        <v>108.0899999966667</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
         <v>74</v>
       </c>
       <c r="D110">
-        <v>38.92</v>
+        <v>46.59</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G110">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H110">
-        <v>4080137</v>
+        <v>3658820</v>
       </c>
       <c r="I110">
-        <v>41.07734124</v>
+        <v>26.84280237</v>
       </c>
       <c r="J110">
-        <v>48.97097391</v>
+        <v>51.40245842</v>
       </c>
       <c r="K110">
-        <v>46.83784349</v>
+        <v>45.76082394</v>
       </c>
       <c r="L110">
-        <v>-1.82117647</v>
+        <v>-1.2375</v>
       </c>
       <c r="M110">
-        <v>1.09090909</v>
+        <v>2.9158383</v>
       </c>
       <c r="N110">
-        <v>34.66722222</v>
+        <v>38.29666666333333</v>
       </c>
       <c r="O110">
-        <v>42.25722222</v>
+        <v>49.82999999666666</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D111">
-        <v>581.27</v>
+        <v>81.87</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G111">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H111">
-        <v>58054</v>
+        <v>320960</v>
       </c>
       <c r="I111">
-        <v>34.2121288</v>
+        <v>35.17659429</v>
       </c>
       <c r="J111">
-        <v>49.52702903</v>
+        <v>48.3106418</v>
       </c>
       <c r="K111">
-        <v>48.59160606</v>
+        <v>48.51424283</v>
       </c>
       <c r="L111">
-        <v>4.98164706</v>
+        <v>-1.20376471</v>
       </c>
       <c r="M111">
-        <v>0.40766268</v>
+        <v>-0.17071089</v>
       </c>
       <c r="N111">
-        <v>422.2866666666667</v>
+        <v>60.81333333666667</v>
       </c>
       <c r="O111">
-        <v>667.4216666666666</v>
+        <v>92.12000000333335</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D112">
-        <v>66.18000000000001</v>
+        <v>29.31</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112">
         <v>9</v>
       </c>
       <c r="G112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H112">
-        <v>139111</v>
+        <v>497500</v>
       </c>
       <c r="I112">
-        <v>30.00646845</v>
+        <v>29.37613654</v>
       </c>
       <c r="J112">
-        <v>47.8768291</v>
+        <v>47.2952708</v>
       </c>
       <c r="K112">
-        <v>47.40350075</v>
+        <v>46.75335459</v>
       </c>
       <c r="L112">
-        <v>-2.34123529</v>
+        <v>-2.08826471</v>
       </c>
       <c r="M112">
-        <v>0.28792241</v>
+        <v>0.37671233</v>
       </c>
       <c r="N112">
-        <v>51.93833333333333</v>
+        <v>22.57666666666667</v>
       </c>
       <c r="O112">
-        <v>76.96333333333332</v>
+        <v>39.44333333333334</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B113" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D113">
-        <v>76.72</v>
+        <v>5.26</v>
       </c>
       <c r="E113">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F113">
         <v>10</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H113">
-        <v>1015100</v>
+        <v>141792931</v>
       </c>
       <c r="I113">
-        <v>33.05232349</v>
+        <v>43.6593375</v>
       </c>
       <c r="J113">
-        <v>47.35163554</v>
+        <v>60.77262878</v>
       </c>
       <c r="K113">
-        <v>47.99769915</v>
+        <v>55.21274955</v>
       </c>
       <c r="L113">
-        <v>-1.81808824</v>
+        <v>0.8335</v>
       </c>
       <c r="M113">
-        <v>-0.33775006</v>
+        <v>10.50420168</v>
       </c>
       <c r="N113">
-        <v>54.38222222</v>
+        <v>2.82666667</v>
       </c>
       <c r="O113">
-        <v>93.06555555333334</v>
+        <v>3.78666667</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D114">
-        <v>321.13</v>
+        <v>234.23</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H114">
-        <v>931522</v>
+        <v>315428</v>
       </c>
       <c r="I114">
-        <v>28.91786339</v>
+        <v>25.63311933</v>
       </c>
       <c r="J114">
-        <v>52.28342278</v>
+        <v>62.41612696</v>
       </c>
       <c r="K114">
-        <v>54.800816</v>
+        <v>55.25609846</v>
       </c>
       <c r="L114">
-        <v>15.45894118</v>
+        <v>-6.69938235</v>
       </c>
       <c r="M114">
-        <v>-2.18397807</v>
+        <v>6.20267513</v>
       </c>
       <c r="N114">
-        <v>229.9455555533333</v>
+        <v>174.0099999966667</v>
       </c>
       <c r="O114">
-        <v>326.28722222</v>
+        <v>237.5966666633334</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B115" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
         <v>75</v>
       </c>
       <c r="D115">
-        <v>112.45</v>
+        <v>26.99</v>
       </c>
       <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
         <v>9</v>
       </c>
-      <c r="F115">
-        <v>9</v>
-      </c>
-      <c r="G115">
-        <v>8</v>
-      </c>
       <c r="H115">
-        <v>10443776</v>
+        <v>298282</v>
       </c>
       <c r="I115">
-        <v>35.88790844</v>
+        <v>26.48968546</v>
       </c>
       <c r="J115">
-        <v>47.82182198</v>
+        <v>49.79820921</v>
       </c>
       <c r="K115">
-        <v>44.45507661</v>
+        <v>43.44605617</v>
       </c>
       <c r="L115">
-        <v>-3.71352941</v>
+        <v>-1.76935294</v>
       </c>
       <c r="M115">
-        <v>2.07879448</v>
+        <v>3.01526718</v>
       </c>
       <c r="N115">
-        <v>93.46111111333333</v>
+        <v>24.98666667</v>
       </c>
       <c r="O115">
-        <v>121.87777778</v>
+        <v>29.62666667</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C116" t="s">
         <v>74</v>
       </c>
       <c r="D116">
-        <v>75.56999999999999</v>
+        <v>2096.1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>10</v>
       </c>
       <c r="G116">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H116">
-        <v>997685</v>
+        <v>66614</v>
       </c>
       <c r="I116">
-        <v>27.054274</v>
+        <v>34.38403991</v>
       </c>
       <c r="J116">
-        <v>60.85705906</v>
+        <v>60.835074</v>
       </c>
       <c r="K116">
-        <v>58.85726501</v>
+        <v>62.80281943</v>
       </c>
       <c r="L116">
-        <v>2.46252941</v>
+        <v>128.27667647</v>
       </c>
       <c r="M116">
-        <v>1.9012945</v>
+        <v>-0.9418581</v>
       </c>
       <c r="N116">
-        <v>51.69833333333333</v>
+        <v>1500.576666666667</v>
       </c>
       <c r="O116">
-        <v>85.65166666666666</v>
+        <v>1903.243333333333</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="R116" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
         <v>74</v>
       </c>
       <c r="D117">
-        <v>22.58</v>
+        <v>161.36</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
       <c r="F117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G117">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117">
-        <v>20516035</v>
+        <v>694657</v>
       </c>
       <c r="I117">
-        <v>44.3246722</v>
+        <v>24.58368314</v>
       </c>
       <c r="J117">
-        <v>58.48018876</v>
+        <v>56.92725934</v>
       </c>
       <c r="K117">
-        <v>53.56003111</v>
+        <v>57.89858856</v>
       </c>
       <c r="L117">
-        <v>1.70491176</v>
+        <v>-1.16838235</v>
       </c>
       <c r="M117">
-        <v>6.91287879</v>
+        <v>-0.41964947</v>
       </c>
       <c r="N117">
-        <v>11.54944444666667</v>
+        <v>130.93</v>
       </c>
       <c r="O117">
-        <v>21.66944444666666</v>
+        <v>172.73</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D118">
-        <v>6.67</v>
+        <v>76.72</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F118">
         <v>10</v>
       </c>
       <c r="G118">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H118">
-        <v>12954000</v>
+        <v>1015100</v>
       </c>
       <c r="I118">
-        <v>37.936249</v>
+        <v>33.05232349</v>
       </c>
       <c r="J118">
-        <v>56.09387909</v>
+        <v>47.35163554</v>
       </c>
       <c r="K118">
-        <v>52.37441218</v>
+        <v>47.99769915</v>
       </c>
       <c r="L118">
-        <v>0.23741176</v>
+        <v>-1.81808824</v>
       </c>
       <c r="M118">
-        <v>5.20504732</v>
+        <v>-0.33775006</v>
       </c>
       <c r="N118">
-        <v>3.945555553333333</v>
+        <v>59.24666666333334</v>
       </c>
       <c r="O118">
-        <v>6.768888886666666</v>
+        <v>87.37999999666665</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C119" t="s">
         <v>74</v>
       </c>
       <c r="D119">
-        <v>114.94</v>
+        <v>321.13</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H119">
-        <v>428527</v>
+        <v>931522</v>
       </c>
       <c r="I119">
-        <v>27.02808778</v>
+        <v>28.91786339</v>
       </c>
       <c r="J119">
-        <v>55.79456959</v>
+        <v>52.28342278</v>
       </c>
       <c r="K119">
-        <v>55.67203346</v>
+        <v>54.800816</v>
       </c>
       <c r="L119">
-        <v>-1.02961765</v>
+        <v>15.45894118</v>
       </c>
       <c r="M119">
-        <v>0.06965001</v>
+        <v>-2.18397807</v>
       </c>
       <c r="N119">
-        <v>97.23111111333333</v>
+        <v>242.1699999966667</v>
       </c>
       <c r="O119">
-        <v>120.1294444466667</v>
+        <v>312.2366666633333</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B120" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D120">
-        <v>115.03</v>
+        <v>112.45</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F120">
+        <v>9</v>
+      </c>
+      <c r="G120">
         <v>8</v>
       </c>
-      <c r="G120">
-        <v>15</v>
-      </c>
       <c r="H120">
-        <v>13683173</v>
+        <v>10443776</v>
       </c>
       <c r="I120">
-        <v>41.50983748</v>
+        <v>35.88790844</v>
       </c>
       <c r="J120">
-        <v>58.54429478</v>
+        <v>47.82182198</v>
       </c>
       <c r="K120">
-        <v>54.04941738</v>
+        <v>44.45507661</v>
       </c>
       <c r="L120">
-        <v>9.839088240000001</v>
+        <v>-3.71352941</v>
       </c>
       <c r="M120">
-        <v>3.59329971</v>
+        <v>2.07879448</v>
       </c>
       <c r="N120">
-        <v>75.39833333333333</v>
+        <v>97.23333333666666</v>
       </c>
       <c r="O120">
-        <v>103.1366666666667</v>
+        <v>117.9000000033333</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="R120" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121">
-        <v>176.71</v>
+        <v>22.58</v>
       </c>
       <c r="E121">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H121">
-        <v>4231939</v>
+        <v>20516035</v>
       </c>
       <c r="I121">
-        <v>38.3728351</v>
+        <v>44.3246722</v>
       </c>
       <c r="J121">
-        <v>46.92864142</v>
+        <v>58.48018876</v>
       </c>
       <c r="K121">
-        <v>44.0579153</v>
+        <v>53.56003111</v>
       </c>
       <c r="L121">
-        <v>-5.93344118</v>
+        <v>1.70491176</v>
       </c>
       <c r="M121">
-        <v>2.14450867</v>
+        <v>6.91287879</v>
       </c>
       <c r="N121">
-        <v>125.4805555533333</v>
+        <v>12.82666667</v>
       </c>
       <c r="O121">
-        <v>207.0455555533333</v>
+        <v>20.18666667</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B122" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C122" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D122">
-        <v>51.48</v>
+        <v>6.67</v>
       </c>
       <c r="E122">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F122">
         <v>10</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H122">
-        <v>3573337</v>
+        <v>12954000</v>
       </c>
       <c r="I122">
-        <v>34.98168023</v>
+        <v>37.936249</v>
       </c>
       <c r="J122">
-        <v>42.64445665</v>
+        <v>56.09387909</v>
       </c>
       <c r="K122">
-        <v>44.47371661</v>
+        <v>52.37441218</v>
       </c>
       <c r="L122">
-        <v>-4.92044118</v>
+        <v>0.23741176</v>
       </c>
       <c r="M122">
-        <v>-1.96153114</v>
+        <v>5.20504732</v>
       </c>
       <c r="N122">
-        <v>33.29944444666666</v>
+        <v>4.326666663333333</v>
       </c>
       <c r="O122">
-        <v>71.15777777999999</v>
+        <v>6.379999996666666</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C123" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D123">
-        <v>150.47</v>
+        <v>114.94</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F123">
         <v>9</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H123">
-        <v>973705</v>
+        <v>428527</v>
       </c>
       <c r="I123">
-        <v>23.84833734</v>
+        <v>27.02808778</v>
       </c>
       <c r="J123">
-        <v>40.76352554</v>
+        <v>55.79456959</v>
       </c>
       <c r="K123">
-        <v>42.03878849</v>
+        <v>55.67203346</v>
       </c>
       <c r="L123">
-        <v>-11.46008824</v>
+        <v>-1.02961765</v>
       </c>
       <c r="M123">
-        <v>-1.00657895</v>
+        <v>0.06965001</v>
       </c>
       <c r="N123">
-        <v>136.1305555533333</v>
+        <v>100.4700000033333</v>
       </c>
       <c r="O123">
-        <v>190.0305555533333</v>
+        <v>117.1233333366667</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D124">
-        <v>73.52</v>
+        <v>150.47</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F124">
         <v>9</v>
       </c>
       <c r="G124">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H124">
-        <v>5990864</v>
+        <v>973705</v>
       </c>
       <c r="I124">
-        <v>39.97381435</v>
+        <v>23.84833734</v>
       </c>
       <c r="J124">
-        <v>59.97793254</v>
+        <v>40.76352554</v>
       </c>
       <c r="K124">
-        <v>56.30950113</v>
+        <v>42.03878849</v>
       </c>
       <c r="L124">
-        <v>4.86917647</v>
+        <v>-11.46008824</v>
       </c>
       <c r="M124">
-        <v>2.94035284</v>
+        <v>-1.00657895</v>
       </c>
       <c r="N124">
-        <v>47.43222222</v>
+        <v>143.28333333</v>
       </c>
       <c r="O124">
-        <v>72.54888888666666</v>
+        <v>182.48333333</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D125">
-        <v>423.56</v>
+        <v>73.52</v>
       </c>
       <c r="E125">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>9</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H125">
-        <v>216382</v>
+        <v>5990864</v>
       </c>
       <c r="I125">
-        <v>27.74146474</v>
+        <v>39.97381435</v>
       </c>
       <c r="J125">
-        <v>39.27691706</v>
+        <v>59.97793254</v>
       </c>
       <c r="K125">
-        <v>40.01908347</v>
+        <v>56.30950113</v>
       </c>
       <c r="L125">
-        <v>-23.32394118</v>
+        <v>4.86917647</v>
       </c>
       <c r="M125">
-        <v>-0.35054699</v>
+        <v>2.94035284</v>
       </c>
       <c r="N125">
-        <v>391.8355555533333</v>
+        <v>50.57999999666666</v>
       </c>
       <c r="O125">
-        <v>514.6688888866667</v>
+        <v>68.84666666333334</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R125" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C126" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D126">
-        <v>99.72</v>
+        <v>423.56</v>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G126">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>407098</v>
+        <v>216382</v>
       </c>
       <c r="I126">
-        <v>34.89582653</v>
+        <v>27.74146474</v>
       </c>
       <c r="J126">
-        <v>48.42108606</v>
+        <v>39.27691706</v>
       </c>
       <c r="K126">
-        <v>47.38575872</v>
+        <v>40.01908347</v>
       </c>
       <c r="L126">
-        <v>-4.32164706</v>
+        <v>-23.32394118</v>
       </c>
       <c r="M126">
-        <v>0.68659128</v>
+        <v>-0.35054699</v>
       </c>
       <c r="N126">
-        <v>80.33611111333333</v>
+        <v>407.9066666633333</v>
       </c>
       <c r="O126">
-        <v>121.95277778</v>
+        <v>497.2399999966667</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D127">
-        <v>23.63</v>
+        <v>99.72</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
         <v>8</v>
       </c>
-      <c r="G127">
-        <v>6</v>
-      </c>
       <c r="H127">
-        <v>6034568</v>
+        <v>407098</v>
       </c>
       <c r="I127">
-        <v>20.33666822</v>
+        <v>34.89582653</v>
       </c>
       <c r="J127">
-        <v>37.6927908</v>
+        <v>48.42108606</v>
       </c>
       <c r="K127">
-        <v>37.30614611</v>
+        <v>47.38575872</v>
       </c>
       <c r="L127">
-        <v>-1.98711765</v>
+        <v>-4.32164706</v>
       </c>
       <c r="M127">
-        <v>0.16956337</v>
+        <v>0.68659128</v>
       </c>
       <c r="N127">
-        <v>21.45611111333333</v>
+        <v>85.58333333666667</v>
       </c>
       <c r="O127">
-        <v>29.87111111333333</v>
+        <v>115.8500000033333</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B129" t="s">
         <v>21</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B132" t="s">
         <v>25</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B133" t="s">
         <v>27</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B134" t="s">
         <v>28</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B135" t="s">
         <v>29</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B136" t="s">
         <v>30</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B137" t="s">
         <v>31</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B138" t="s">
         <v>32</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B139" t="s">
         <v>33</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B140" t="s">
         <v>34</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B141" t="s">
         <v>35</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B142" t="s">
         <v>36</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B143" t="s">
         <v>37</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B144" t="s">
         <v>38</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B146" t="s">
         <v>40</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B147" t="s">
         <v>41</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B148" t="s">
         <v>42</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B149" t="s">
         <v>43</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B150" t="s">
         <v>45</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B151" t="s">
         <v>46</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B152" t="s">
         <v>47</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B153" t="s">
         <v>49</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B154" t="s">
         <v>50</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B155" t="s">
         <v>51</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B156" t="s">
         <v>52</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B157" t="s">
         <v>53</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B158" t="s">
         <v>54</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B159" t="s">
         <v>55</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B160" t="s">
         <v>56</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B161" t="s">
         <v>57</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B162" t="s">
         <v>58</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B163" t="s">
         <v>59</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B164" t="s">
         <v>60</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B165" t="s">
         <v>61</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B166" t="s">
         <v>62</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B167" t="s">
         <v>66</v>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B168" t="s">
         <v>67</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B169" t="s">
         <v>68</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B170" t="s">
         <v>69</v>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B171" t="s">
         <v>70</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B172" t="s">
         <v>71</v>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B173" t="s">
         <v>72</v>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B174" t="s">
         <v>73</v>
@@ -11258,7 +11258,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -11297,10 +11297,10 @@
         <v>1.92534738</v>
       </c>
       <c r="N4">
-        <v>86.15666666333334</v>
+        <v>82.36055555333333</v>
       </c>
       <c r="O4">
-        <v>108.0899999966667</v>
+        <v>112.5188888866667</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>90</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -11353,10 +11353,10 @@
         <v>2.94035284</v>
       </c>
       <c r="N5">
-        <v>50.57999999666666</v>
+        <v>47.43222222</v>
       </c>
       <c r="O5">
-        <v>68.84666666333334</v>
+        <v>72.54888888666666</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>131</v>
@@ -11370,7 +11370,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11409,10 +11409,10 @@
         <v>1.92534738</v>
       </c>
       <c r="N6">
-        <v>82.36055555333333</v>
+        <v>86.15666666333334</v>
       </c>
       <c r="O6">
-        <v>112.5188888866667</v>
+        <v>108.0899999966667</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>90</v>
@@ -11426,7 +11426,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -11465,10 +11465,10 @@
         <v>2.94035284</v>
       </c>
       <c r="N7">
-        <v>47.43222222</v>
+        <v>50.57999999666666</v>
       </c>
       <c r="O7">
-        <v>72.54888888666666</v>
+        <v>68.84666666333334</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>131</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -11994,170 +11994,170 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
       </c>
       <c r="D8">
-        <v>5.26</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>15</v>
       </c>
       <c r="H8">
-        <v>141792931</v>
+        <v>3390669</v>
       </c>
       <c r="I8">
-        <v>43.6593375</v>
+        <v>37.77414887</v>
       </c>
       <c r="J8">
-        <v>60.77262878</v>
+        <v>57.08266884</v>
       </c>
       <c r="K8">
-        <v>55.21274955</v>
+        <v>54.6140654</v>
       </c>
       <c r="L8">
-        <v>0.8335</v>
+        <v>0.05923529</v>
       </c>
       <c r="M8">
-        <v>10.50420168</v>
+        <v>2.04350692</v>
       </c>
       <c r="N8">
-        <v>2.82666667</v>
+        <v>48.51111111333333</v>
       </c>
       <c r="O8">
-        <v>3.78666667</v>
+        <v>87.19444444666665</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
       </c>
       <c r="D9">
-        <v>22.58</v>
+        <v>31.9</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
-        <v>20516035</v>
+        <v>3627095</v>
       </c>
       <c r="I9">
-        <v>44.3246722</v>
+        <v>45.98139901</v>
       </c>
       <c r="J9">
-        <v>58.48018876</v>
+        <v>73.60522890999999</v>
       </c>
       <c r="K9">
-        <v>53.56003111</v>
+        <v>74.85914375</v>
       </c>
       <c r="L9">
-        <v>1.70491176</v>
+        <v>5.00941176</v>
       </c>
       <c r="M9">
-        <v>6.91287879</v>
+        <v>-0.56109726</v>
       </c>
       <c r="N9">
-        <v>12.82666667</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="O9">
-        <v>20.18666667</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>45291.88708108796</v>
+        <v>45292.00214696759</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
       </c>
       <c r="D10">
-        <v>6.67</v>
+        <v>5.26</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>12954000</v>
+        <v>141792931</v>
       </c>
       <c r="I10">
-        <v>37.936249</v>
+        <v>43.6593375</v>
       </c>
       <c r="J10">
-        <v>56.09387909</v>
+        <v>60.77262878</v>
       </c>
       <c r="K10">
-        <v>52.37441218</v>
+        <v>55.21274955</v>
       </c>
       <c r="L10">
-        <v>0.23741176</v>
+        <v>0.8335</v>
       </c>
       <c r="M10">
-        <v>5.20504732</v>
+        <v>10.50420168</v>
       </c>
       <c r="N10">
-        <v>4.326666663333333</v>
+        <v>2.64277778</v>
       </c>
       <c r="O10">
-        <v>6.379999996666666</v>
+        <v>3.96277778</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -12165,55 +12165,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11">
-        <v>77.40000000000001</v>
+        <v>22.58</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>15</v>
       </c>
       <c r="H11">
-        <v>3390669</v>
+        <v>20516035</v>
       </c>
       <c r="I11">
-        <v>37.77414887</v>
+        <v>44.3246722</v>
       </c>
       <c r="J11">
-        <v>57.08266884</v>
+        <v>58.48018876</v>
       </c>
       <c r="K11">
-        <v>54.6140654</v>
+        <v>53.56003111</v>
       </c>
       <c r="L11">
-        <v>0.05923529</v>
+        <v>1.70491176</v>
       </c>
       <c r="M11">
-        <v>2.04350692</v>
+        <v>6.91287879</v>
       </c>
       <c r="N11">
-        <v>48.51111111333333</v>
+        <v>11.54944444666667</v>
       </c>
       <c r="O11">
-        <v>87.19444444666665</v>
+        <v>21.66944444666666</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -12221,55 +12221,55 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12">
-        <v>31.9</v>
+        <v>6.67</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>3627095</v>
+        <v>12954000</v>
       </c>
       <c r="I12">
-        <v>45.98139901</v>
+        <v>37.936249</v>
       </c>
       <c r="J12">
-        <v>73.60522890999999</v>
+        <v>56.09387909</v>
       </c>
       <c r="K12">
-        <v>74.85914375</v>
+        <v>52.37441218</v>
       </c>
       <c r="L12">
-        <v>5.00941176</v>
+        <v>0.23741176</v>
       </c>
       <c r="M12">
-        <v>-0.56109726</v>
+        <v>5.20504732</v>
       </c>
       <c r="N12">
-        <v>16.66666666666667</v>
+        <v>3.945555553333333</v>
       </c>
       <c r="O12">
-        <v>27.66666666666667</v>
+        <v>6.768888886666666</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -12277,228 +12277,228 @@
         <v>45292.00214696759</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13">
-        <v>5.26</v>
+        <v>115.03</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>15</v>
       </c>
       <c r="H13">
-        <v>141792931</v>
+        <v>13683173</v>
       </c>
       <c r="I13">
-        <v>43.6593375</v>
+        <v>41.50983748</v>
       </c>
       <c r="J13">
-        <v>60.77262878</v>
+        <v>58.54429478</v>
       </c>
       <c r="K13">
-        <v>55.21274955</v>
+        <v>54.04941738</v>
       </c>
       <c r="L13">
-        <v>0.8335</v>
+        <v>9.839088240000001</v>
       </c>
       <c r="M13">
-        <v>10.50420168</v>
+        <v>3.59329971</v>
       </c>
       <c r="N13">
-        <v>2.64277778</v>
+        <v>75.39833333333333</v>
       </c>
       <c r="O13">
-        <v>3.96277778</v>
+        <v>103.1366666666667</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14">
-        <v>22.58</v>
+        <v>5.26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
       <c r="H14">
-        <v>20516035</v>
+        <v>141792931</v>
       </c>
       <c r="I14">
-        <v>44.3246722</v>
+        <v>43.6593375</v>
       </c>
       <c r="J14">
-        <v>58.48018876</v>
+        <v>60.77262878</v>
       </c>
       <c r="K14">
-        <v>53.56003111</v>
+        <v>55.21274955</v>
       </c>
       <c r="L14">
-        <v>1.70491176</v>
+        <v>0.8335</v>
       </c>
       <c r="M14">
-        <v>6.91287879</v>
+        <v>10.50420168</v>
       </c>
       <c r="N14">
-        <v>11.54944444666667</v>
+        <v>2.82666667</v>
       </c>
       <c r="O14">
-        <v>21.66944444666666</v>
+        <v>3.78666667</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15">
-        <v>6.67</v>
+        <v>22.58</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>12954000</v>
+        <v>20516035</v>
       </c>
       <c r="I15">
-        <v>37.936249</v>
+        <v>44.3246722</v>
       </c>
       <c r="J15">
-        <v>56.09387909</v>
+        <v>58.48018876</v>
       </c>
       <c r="K15">
-        <v>52.37441218</v>
+        <v>53.56003111</v>
       </c>
       <c r="L15">
-        <v>0.23741176</v>
+        <v>1.70491176</v>
       </c>
       <c r="M15">
-        <v>5.20504732</v>
+        <v>6.91287879</v>
       </c>
       <c r="N15">
-        <v>3.945555553333333</v>
+        <v>12.82666667</v>
       </c>
       <c r="O15">
-        <v>6.768888886666666</v>
+        <v>20.18666667</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2">
-        <v>45292.00214696759</v>
+        <v>45295.00282266203</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16">
-        <v>115.03</v>
+        <v>6.67</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>13683173</v>
+        <v>12954000</v>
       </c>
       <c r="I16">
-        <v>41.50983748</v>
+        <v>37.936249</v>
       </c>
       <c r="J16">
-        <v>58.54429478</v>
+        <v>56.09387909</v>
       </c>
       <c r="K16">
-        <v>54.04941738</v>
+        <v>52.37441218</v>
       </c>
       <c r="L16">
-        <v>9.839088240000001</v>
+        <v>0.23741176</v>
       </c>
       <c r="M16">
-        <v>3.59329971</v>
+        <v>5.20504732</v>
       </c>
       <c r="N16">
-        <v>75.39833333333333</v>
+        <v>4.326666663333333</v>
       </c>
       <c r="O16">
-        <v>103.1366666666667</v>
+        <v>6.379999996666666</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -12610,7 +12610,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -12666,7 +12666,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -13141,7 +13141,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>45294.93707415391</v>
+        <v>45295.00465182518</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>

--- a/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -676,38 +676,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>700</v>
+        <v>616</v>
       </c>
       <c r="I2" t="n">
-        <v>11.20552866367226</v>
+        <v>10.31021067164274</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>50.62888517828265</v>
+        <v>44.02442756124596</v>
       </c>
       <c r="K2" t="n">
-        <v>48.43382149904546</v>
+        <v>43.91788806198672</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>2.322029411764646</v>
+        <v>1.558970588235255</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9771986970684101</v>
+        <v>0.04444444444445139</v>
       </c>
       <c r="N2" t="n">
         <v>80.09111111111112</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -742,38 +742,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>139.67</v>
+        <v>125.28</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2913</v>
+        <v>45198</v>
       </c>
       <c r="I3" t="n">
-        <v>30.72135838375099</v>
+        <v>32.76872583667819</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>41.12034845580315</v>
+        <v>30.37775913319594</v>
       </c>
       <c r="K3" t="n">
-        <v>41.06096086311417</v>
+        <v>40.04736740137073</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>-14.51064705882374</v>
+        <v>-13.99835294117668</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03581148832544259</v>
+        <v>-9.49938597124901</v>
       </c>
       <c r="N3" t="n">
         <v>93.12555555555555</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -808,38 +808,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44.82</v>
+        <v>43.81</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>4525</v>
+        <v>8749</v>
       </c>
       <c r="I4" t="n">
-        <v>49.88192507007588</v>
+        <v>43.20108551771042</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>50.40431815808277</v>
+        <v>44.08503228640882</v>
       </c>
       <c r="K4" t="n">
-        <v>56.2263742891266</v>
+        <v>46.31294756481805</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>1.194323529411783</v>
+        <v>0.07426470588237066</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.904136572554164</v>
+        <v>-0.8374830239927512</v>
       </c>
       <c r="N4" t="n">
         <v>38.25444444444445</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -874,38 +874,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.85</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1140725</v>
+        <v>5016478</v>
       </c>
       <c r="I5" t="n">
-        <v>18.93046333298803</v>
+        <v>17.02841560676567</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>47.13772760557217</v>
+        <v>48.34544104365271</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43353824718448</v>
+        <v>44.12636989881826</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>-0.4343235294118521</v>
+        <v>-0.2012352941177369</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.203610832497503</v>
+        <v>1.336073997944491</v>
       </c>
       <c r="N5" t="n">
         <v>8.707222222222223</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -940,38 +940,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>20.23</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>358817</v>
+        <v>224183</v>
       </c>
       <c r="I6" t="n">
-        <v>27.2210353274634</v>
+        <v>30.73140543580916</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>62.5078693564665</v>
+        <v>64.31171952233328</v>
       </c>
       <c r="K6" t="n">
-        <v>61.42791023814851</v>
+        <v>59.77654959241123</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>0.620176470588266</v>
+        <v>0.8938235294117938</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5025125628140775</v>
+        <v>1.914357682619642</v>
       </c>
       <c r="N6" t="n">
         <v>16.52944444444445</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>279.1</v>
+        <v>277.67</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>908274</v>
+        <v>586102</v>
       </c>
       <c r="I7" t="n">
-        <v>41.32332811533374</v>
+        <v>45.96840354445689</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>78.87711623057453</v>
+        <v>75.96599585177277</v>
       </c>
       <c r="K7" t="n">
-        <v>80.11543011784794</v>
+        <v>79.14158399414431</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>38.28150000000002</v>
+        <v>43.25955882352952</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.3783552255853805</v>
+        <v>-0.8321428571428514</v>
       </c>
       <c r="N7" t="n">
         <v>194.6172222222222</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1076,34 +1076,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32.38</v>
+        <v>31.95</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>4386470</v>
+        <v>1697677</v>
       </c>
       <c r="I8" t="n">
-        <v>22.26420101437821</v>
+        <v>24.98440791809918</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>66.01589769476091</v>
+        <v>61.21963527856168</v>
       </c>
       <c r="K8" t="n">
-        <v>64.98614094342874</v>
+        <v>64.70382229713717</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>2.157323529411695</v>
+        <v>2.844176470588174</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8722741433021841</v>
+        <v>-1.510480887792844</v>
       </c>
       <c r="N8" t="n">
         <v>26.43444444444445</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1142,34 +1142,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1199.96</v>
+        <v>1189.71</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>20013</v>
+        <v>5679</v>
       </c>
       <c r="I9" t="n">
-        <v>39.70197445823739</v>
+        <v>45.39593336067106</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>31.99644152000536</v>
+        <v>30.08438758838442</v>
       </c>
       <c r="K9" t="n">
-        <v>31.85418897630061</v>
+        <v>28.61709904124322</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>-47.02820588235136</v>
+        <v>-59.5661764705867</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02083836927257421</v>
+        <v>0.1894800666969835</v>
       </c>
       <c r="N9" t="n">
         <v>1061.721666666667</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1208,34 +1208,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>97.19</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>15452</v>
+        <v>9976</v>
       </c>
       <c r="I10" t="n">
-        <v>11.3120693032715</v>
+        <v>12.53222608281006</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>31.96356023545188</v>
+        <v>37.69939387654627</v>
       </c>
       <c r="K10" t="n">
-        <v>34.50228928489086</v>
+        <v>40.66640686111315</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>-3.738470588235216</v>
+        <v>-4.51161764705877</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.129196337741607</v>
+        <v>-1.099899091826427</v>
       </c>
       <c r="N10" t="n">
         <v>94.97222222222221</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1270,38 +1270,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>121.44</v>
+        <v>118.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>36407</v>
+        <v>21857</v>
       </c>
       <c r="I11" t="n">
-        <v>16.4544062041104</v>
+        <v>14.91398732271113</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>54.04458316802572</v>
+        <v>46.32608790503614</v>
       </c>
       <c r="K11" t="n">
-        <v>45.64772607298141</v>
+        <v>47.57385194845528</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1740588235294211</v>
+        <v>0.02867647058825185</v>
       </c>
       <c r="M11" t="n">
-        <v>2.610899873257291</v>
+        <v>-0.4117993108664551</v>
       </c>
       <c r="N11" t="n">
         <v>108.5983333333334</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1336,38 +1336,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>315.95</v>
+        <v>312.41</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
         <v>9</v>
       </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
       <c r="H12" t="n">
-        <v>1866</v>
+        <v>265</v>
       </c>
       <c r="I12" t="n">
-        <v>25.86130301370914</v>
+        <v>22.9393221422809</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>52.70037332441326</v>
+        <v>50.10627042764323</v>
       </c>
       <c r="K12" t="n">
-        <v>50.64287259947386</v>
+        <v>51.63959218797292</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>13.8296764705882</v>
+        <v>7.1487647058824</v>
       </c>
       <c r="M12" t="n">
-        <v>1.175227360061488</v>
+        <v>-0.8222222222222143</v>
       </c>
       <c r="N12" t="n">
         <v>251.2394444444444</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1406,34 +1406,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72.41</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
         <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>311224</v>
+        <v>1029315</v>
       </c>
       <c r="I13" t="n">
-        <v>14.68616172932446</v>
+        <v>20.31190401707754</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>53.68319145497356</v>
+        <v>62.74527517100422</v>
       </c>
       <c r="K13" t="n">
-        <v>50.21899280010499</v>
+        <v>61.44243158837864</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.8478529411765408</v>
+        <v>2.090647058823606</v>
       </c>
       <c r="M13" t="n">
-        <v>1.685156579132149</v>
+        <v>0.769128762763557</v>
       </c>
       <c r="N13" t="n">
         <v>67.55555555555556</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1472,34 +1472,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26.17</v>
+        <v>25.49</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>2827878</v>
+        <v>5599157</v>
       </c>
       <c r="I14" t="n">
-        <v>15.42721621761943</v>
+        <v>16.97528834220062</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>57.56493294203431</v>
+        <v>51.00091281209864</v>
       </c>
       <c r="K14" t="n">
-        <v>60.86614891489521</v>
+        <v>56.60698881510402</v>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4645588235294014</v>
+        <v>0.9227941176470438</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.319758672699841</v>
+        <v>-2.337164750957866</v>
       </c>
       <c r="N14" t="n">
         <v>22.30833333333334</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1538,34 +1538,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>177.24</v>
+        <v>178.75</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>89186</v>
+        <v>118668</v>
       </c>
       <c r="I15" t="n">
-        <v>25.20479659699038</v>
+        <v>26.97168692097832</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>67.64193728035914</v>
+        <v>66.43928143411412</v>
       </c>
       <c r="K15" t="n">
-        <v>67.54884934819131</v>
+        <v>70.81171884051835</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>11.48167647058824</v>
+        <v>14.27126470588234</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06210128154463594</v>
+        <v>-1.237637438532521</v>
       </c>
       <c r="N15" t="n">
         <v>135.0205555555556</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1604,34 +1604,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>86.83</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15</v>
-      </c>
-      <c r="H16" t="n">
-        <v>633</v>
-      </c>
       <c r="I16" t="n">
-        <v>13.3338388066428</v>
+        <v>16.00982630511794</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>69.441245408442</v>
+        <v>73.84670241497483</v>
       </c>
       <c r="K16" t="n">
-        <v>63.19843874051438</v>
+        <v>73.84670241497484</v>
       </c>
       <c r="L16" s="8" t="n">
-        <v>4.52511764705875</v>
+        <v>11.91858823529405</v>
       </c>
       <c r="M16" t="n">
-        <v>8.578216831311741</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>60.57388888888888</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1666,38 +1666,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2691.52</v>
+        <v>2670.93</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>40646</v>
+        <v>11593</v>
       </c>
       <c r="I17" t="n">
-        <v>17.42218525244065</v>
+        <v>16.02204428480296</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>49.9956058121101</v>
+        <v>47.09431240523677</v>
       </c>
       <c r="K17" t="n">
-        <v>54.16419366116593</v>
+        <v>47.07712887498585</v>
       </c>
       <c r="L17" s="8" t="n">
-        <v>-16.21082352941403</v>
+        <v>-13.04997058823756</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.076154072331674</v>
+        <v>0.00411858530337771</v>
       </c>
       <c r="N17" t="n">
         <v>2412.076666666667</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1732,38 +1732,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>246.44</v>
+        <v>255.02</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>38513</v>
+        <v>44489</v>
       </c>
       <c r="I18" t="n">
-        <v>17.55398787028813</v>
+        <v>14.7509210204534</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>54.90578655590475</v>
+        <v>63.55298266266505</v>
       </c>
       <c r="K18" t="n">
-        <v>56.80370629550401</v>
+        <v>61.22588421011068</v>
       </c>
       <c r="L18" s="8" t="n">
-        <v>5.927794117647096</v>
+        <v>9.375794117647104</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.5488297013720798</v>
+        <v>0.9580364212193253</v>
       </c>
       <c r="N18" t="n">
         <v>214.9372222222222</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1798,38 +1798,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14.25</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>31939</v>
+        <v>66527</v>
       </c>
       <c r="I19" t="n">
-        <v>18.40735727775137</v>
+        <v>20.59248510920501</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>62.21992325739325</v>
+        <v>55.06311559956592</v>
       </c>
       <c r="K19" t="n">
-        <v>58.53830151825207</v>
+        <v>55.06311559956592</v>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.463970588235286</v>
+        <v>0.4313823529411671</v>
       </c>
       <c r="M19" t="n">
-        <v>1.423487544483981</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>12.53222222222222</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1864,38 +1864,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>919.0700000000001</v>
+        <v>910.45</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>124806</v>
+        <v>70321</v>
       </c>
       <c r="I20" t="n">
-        <v>20.69847704734548</v>
+        <v>20.81187897231441</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>56.3704687858403</v>
+        <v>51.5434482072546</v>
       </c>
       <c r="K20" t="n">
-        <v>59.50904610761791</v>
+        <v>57.36016186382696</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v>7.735470588234989</v>
+        <v>16.70129411764685</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.7623119864381831</v>
+        <v>-1.453651989435852</v>
       </c>
       <c r="N20" t="n">
         <v>838.4505555555555</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1934,34 +1934,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>116.73</v>
+        <v>116.06</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>206320</v>
+        <v>168359</v>
       </c>
       <c r="I21" t="n">
-        <v>36.10296286200732</v>
+        <v>37.321931890146</v>
       </c>
       <c r="J21" s="8" t="n">
-        <v>55.78323058831502</v>
+        <v>53.20552127078303</v>
       </c>
       <c r="K21" t="n">
-        <v>56.07302062761704</v>
+        <v>56.54715548848657</v>
       </c>
       <c r="L21" s="8" t="n">
-        <v>3.342588235294016</v>
+        <v>2.703323529411662</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.08559445347940967</v>
+        <v>-0.8796652147920412</v>
       </c>
       <c r="N21" t="n">
         <v>96.84166666666668</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1996,38 +1996,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74.23999999999999</v>
+        <v>78.13</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>17446</v>
+        <v>243272</v>
       </c>
       <c r="I22" t="n">
-        <v>20.26355953065515</v>
+        <v>21.21899254831918</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>47.41118030693596</v>
+        <v>59.61951472937514</v>
       </c>
       <c r="K22" t="n">
-        <v>52.90838101752315</v>
+        <v>52.72079572331086</v>
       </c>
       <c r="L22" s="8" t="n">
-        <v>-1.877499999999998</v>
+        <v>0.2789999999999822</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.096795463536863</v>
+        <v>3.16915357190016</v>
       </c>
       <c r="N22" t="n">
         <v>63.93444444444444</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2066,34 +2066,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>122.3</v>
+        <v>120.82</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>2425734</v>
+        <v>2447648</v>
       </c>
       <c r="I23" t="n">
-        <v>17.28944354118344</v>
+        <v>17.79431331633835</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>56.10748857830011</v>
+        <v>51.44602482716887</v>
       </c>
       <c r="K23" t="n">
-        <v>58.45946638662381</v>
+        <v>57.89757356806936</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v>3.054764705882249</v>
+        <v>3.2974705882352</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.7788414733084601</v>
+        <v>-2.10662777507698</v>
       </c>
       <c r="N23" t="n">
         <v>104.405</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2132,34 +2132,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>132.95</v>
+        <v>133.13</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
-        <v>5330385</v>
+        <v>3920835</v>
       </c>
       <c r="I24" t="n">
-        <v>19.45499916890654</v>
+        <v>16.83098798182668</v>
       </c>
       <c r="J24" s="8" t="n">
-        <v>50.5809785892452</v>
+        <v>50.63045725658272</v>
       </c>
       <c r="K24" t="n">
-        <v>55.0510247546388</v>
+        <v>52.88804817439503</v>
       </c>
       <c r="L24" s="8" t="n">
-        <v>3.131352941176573</v>
+        <v>1.973558823529515</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.715088341834865</v>
+        <v>-0.797317436661694</v>
       </c>
       <c r="N24" t="n">
         <v>112.6672222222222</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2198,34 +2198,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>631.7</v>
+        <v>611.15</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>21611</v>
+        <v>172411</v>
       </c>
       <c r="I25" t="n">
-        <v>28.51480099955074</v>
+        <v>26.87638166927452</v>
       </c>
       <c r="J25" s="8" t="n">
-        <v>47.49262762421079</v>
+        <v>37.44034964211425</v>
       </c>
       <c r="K25" t="n">
-        <v>49.64708962342647</v>
+        <v>47.06625156846526</v>
       </c>
       <c r="L25" s="8" t="n">
-        <v>1.559176470587545</v>
+        <v>-7.686529411765491</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.4554121558801724</v>
+        <v>-2.888786487216573</v>
       </c>
       <c r="N25" t="n">
         <v>582.9072222222222</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2264,34 +2264,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>121.77</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" t="n">
-        <v>2274</v>
+        <v>10983</v>
       </c>
       <c r="I26" t="n">
-        <v>11.70426841791826</v>
+        <v>13.29597082712348</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>63.58792057912257</v>
+        <v>83.98278735582539</v>
       </c>
       <c r="K26" t="n">
-        <v>62.65741483715708</v>
+        <v>77.64620276819375</v>
       </c>
       <c r="L26" s="8" t="n">
-        <v>0.1679117647061759</v>
+        <v>7.654588235294412</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5126143330988091</v>
+        <v>9.495548961424335</v>
       </c>
       <c r="N26" t="n">
         <v>84.15111111111112</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2330,34 +2330,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>550.95</v>
+        <v>665.92</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" t="n">
-        <v>30476</v>
+        <v>227283</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45645752413649</v>
+        <v>37.20957533611482</v>
       </c>
       <c r="J27" s="8" t="n">
-        <v>70.40391571480677</v>
+        <v>85.53275775253466</v>
       </c>
       <c r="K27" t="n">
-        <v>63.18176633853079</v>
+        <v>82.90426397979073</v>
       </c>
       <c r="L27" s="8" t="n">
-        <v>5.479470588235756</v>
+        <v>63.90150000000062</v>
       </c>
       <c r="M27" t="n">
-        <v>4.777209364243197</v>
+        <v>5.089399845345369</v>
       </c>
       <c r="N27" t="n">
         <v>418.4155555555555</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2392,38 +2392,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28.01</v>
+        <v>27.92</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>128993</v>
+        <v>231923</v>
       </c>
       <c r="I28" t="n">
-        <v>15.89561910954289</v>
+        <v>14.11124628344195</v>
       </c>
       <c r="J28" s="8" t="n">
-        <v>48.80605468246868</v>
+        <v>46.49553733187583</v>
       </c>
       <c r="K28" t="n">
-        <v>51.52880225673365</v>
+        <v>50.10278007230873</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v>-0.06482352941163683</v>
+        <v>-0.1164705882351704</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.391180654338547</v>
+        <v>-0.5343783398646191</v>
       </c>
       <c r="N28" t="n">
         <v>26.79222222222223</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2462,34 +2462,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>6116</v>
+        <v>15906</v>
       </c>
       <c r="I29" t="n">
-        <v>21.81644543880937</v>
+        <v>24.59580430098427</v>
       </c>
       <c r="J29" s="8" t="n">
-        <v>67.34266840603418</v>
+        <v>56.9578228376124</v>
       </c>
       <c r="K29" t="n">
-        <v>65.43710452006023</v>
+        <v>60.08914027669686</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v>0.3163529411764756</v>
+        <v>0.4724705882352929</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6630500301386343</v>
+        <v>-0.6060606060606146</v>
       </c>
       <c r="N29" t="n">
         <v>14.98944444444445</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2528,34 +2528,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>606.9400000000001</v>
+        <v>679.55</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
         <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>10522</v>
+        <v>999980</v>
       </c>
       <c r="I30" t="n">
-        <v>37.26736855759031</v>
+        <v>43.50505576760017</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>80.95731699409272</v>
+        <v>81.64171160372202</v>
       </c>
       <c r="K30" t="n">
-        <v>80.71882059985671</v>
+        <v>88.13494446260752</v>
       </c>
       <c r="L30" s="8" t="n">
-        <v>130.5452647058821</v>
+        <v>147.250852941176</v>
       </c>
       <c r="M30" t="n">
-        <v>0.333928453349219</v>
+        <v>-2.397161898196032</v>
       </c>
       <c r="N30" t="n">
         <v>359.2011111111112</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2594,34 +2594,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>168.21</v>
+        <v>167.68</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" t="n">
-        <v>454529</v>
+        <v>343917</v>
       </c>
       <c r="I31" t="n">
-        <v>34.67554974444499</v>
+        <v>34.45297992055669</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>62.2693189609876</v>
+        <v>59.08768870734961</v>
       </c>
       <c r="K31" t="n">
-        <v>64.328713528344</v>
+        <v>62.12765718104404</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v>8.737558823529383</v>
+        <v>6.197911764705822</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.4026289300728157</v>
+        <v>-0.5869449220371025</v>
       </c>
       <c r="N31" t="n">
         <v>148.2594444444445</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2660,34 +2660,34 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>68.06</v>
+        <v>68.28</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>150136</v>
+        <v>118390</v>
       </c>
       <c r="I32" t="n">
-        <v>25.27008308756814</v>
+        <v>22.57557286226506</v>
       </c>
       <c r="J32" s="8" t="n">
-        <v>28.35686641109956</v>
+        <v>32.97182474853152</v>
       </c>
       <c r="K32" t="n">
-        <v>30.98201356601359</v>
+        <v>36.79022118626042</v>
       </c>
       <c r="L32" s="8" t="n">
-        <v>-4.764235294117682</v>
+        <v>-6.402500000000046</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.860129776496023</v>
+        <v>-2.289639381797359</v>
       </c>
       <c r="N32" t="n">
         <v>65.24388888888889</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2722,38 +2722,38 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>89.62</v>
+        <v>95.02</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H33" t="n">
-        <v>3174977</v>
+        <v>7374844</v>
       </c>
       <c r="I33" t="n">
-        <v>33.52616834150986</v>
+        <v>37.21791669539879</v>
       </c>
       <c r="J33" s="8" t="n">
-        <v>65.90461972421701</v>
+        <v>72.01405378178835</v>
       </c>
       <c r="K33" t="n">
-        <v>70.80083856666994</v>
+        <v>74.16751254660768</v>
       </c>
       <c r="L33" s="8" t="n">
-        <v>9.330705882352973</v>
+        <v>10.21114705882356</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.656973554263131</v>
+        <v>-0.7209278027374336</v>
       </c>
       <c r="N33" t="n">
         <v>64.42222222222223</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2788,38 +2788,38 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>240.1</v>
+        <v>237.99</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
         <v>8</v>
       </c>
-      <c r="G34" t="n">
-        <v>16</v>
-      </c>
       <c r="H34" t="n">
-        <v>3371691</v>
+        <v>569043</v>
       </c>
       <c r="I34" t="n">
-        <v>29.40209889287268</v>
+        <v>28.3289958800762</v>
       </c>
       <c r="J34" s="8" t="n">
-        <v>54.14600052963536</v>
+        <v>51.42893932756226</v>
       </c>
       <c r="K34" t="n">
-        <v>56.50159344253959</v>
+        <v>52.03850215953036</v>
       </c>
       <c r="L34" s="8" t="n">
-        <v>4.008411764705727</v>
+        <v>2.089764705882203</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.785123966942151</v>
+        <v>-0.1887267237040717</v>
       </c>
       <c r="N34" t="n">
         <v>200.1077777777778</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2854,38 +2854,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>80.91</v>
+        <v>78.27</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" t="n">
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2331</v>
+        <v>3265</v>
       </c>
       <c r="I35" t="n">
-        <v>16.5007501022987</v>
+        <v>21.72301699836359</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>38.6523914702249</v>
+        <v>35.4153989510756</v>
       </c>
       <c r="K35" t="n">
-        <v>38.69430760393675</v>
+        <v>38.68158105313027</v>
       </c>
       <c r="L35" s="8" t="n">
-        <v>-3.923441176470789</v>
+        <v>-5.146323529411973</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.02471271469172152</v>
+        <v>-2.089066800100077</v>
       </c>
       <c r="N35" t="n">
         <v>69.45444444444446</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2920,44 +2920,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15.01</v>
+        <v>16.47</v>
       </c>
       <c r="E36" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
         <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H36" t="n">
-        <v>500</v>
+        <v>2415</v>
       </c>
       <c r="I36" t="n">
-        <v>13.24721948444426</v>
+        <v>12.33829702709834</v>
       </c>
       <c r="J36" s="8" t="n">
-        <v>44.3193830149925</v>
+        <v>53.52924551049797</v>
       </c>
       <c r="K36" t="n">
-        <v>50.33323818726117</v>
+        <v>45.27999751403829</v>
       </c>
       <c r="L36" s="8" t="n">
-        <v>-0.4628529411764752</v>
+        <v>-0.4084117647058871</v>
       </c>
       <c r="M36" t="n">
-        <v>-6.246096189881334</v>
+        <v>9.43521594684384</v>
       </c>
       <c r="N36" t="n">
-        <v>11.39833333333333</v>
+        <v>11.18055555555556</v>
       </c>
       <c r="O36" t="n">
-        <v>20.10666666666667</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2986,38 +2986,38 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>351.6</v>
+        <v>349.69</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37" t="n">
         <v>8</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>3302</v>
+        <v>7270</v>
       </c>
       <c r="I37" t="n">
-        <v>12.11677910198606</v>
+        <v>14.99819040264111</v>
       </c>
       <c r="J37" s="8" t="n">
-        <v>48.50576752848428</v>
+        <v>45.66638905540498</v>
       </c>
       <c r="K37" t="n">
-        <v>47.96483735854805</v>
+        <v>46.14819282235061</v>
       </c>
       <c r="L37" s="8" t="n">
-        <v>-1.991735294118257</v>
+        <v>-2.385676470588749</v>
       </c>
       <c r="M37" t="n">
-        <v>0.09964412811388548</v>
+        <v>-0.08571673476385364</v>
       </c>
       <c r="N37" t="n">
         <v>324.2377777777778</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>88.23</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
@@ -3068,22 +3068,22 @@
         <v>14</v>
       </c>
       <c r="H38" t="n">
-        <v>1267291</v>
+        <v>550115</v>
       </c>
       <c r="I38" t="n">
-        <v>27.78680423279017</v>
+        <v>27.80052063545756</v>
       </c>
       <c r="J38" s="8" t="n">
-        <v>59.06694046369357</v>
+        <v>56.58005880182097</v>
       </c>
       <c r="K38" t="n">
-        <v>56.57724992205137</v>
+        <v>60.33427835050772</v>
       </c>
       <c r="L38" s="8" t="n">
-        <v>2.305676470588224</v>
+        <v>3.150882352941139</v>
       </c>
       <c r="M38" t="n">
-        <v>1.495456114114802</v>
+        <v>-1.490029128388974</v>
       </c>
       <c r="N38" t="n">
         <v>73.03666666666668</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3118,38 +3118,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>53.47</v>
+        <v>50.54</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
         <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>504825</v>
+        <v>234766</v>
       </c>
       <c r="I39" t="n">
-        <v>29.91513572684819</v>
+        <v>25.02223926367896</v>
       </c>
       <c r="J39" s="8" t="n">
-        <v>65.92275402777936</v>
+        <v>48.4905882592903</v>
       </c>
       <c r="K39" t="n">
-        <v>65.34134638561386</v>
+        <v>56.299536361525</v>
       </c>
       <c r="L39" s="8" t="n">
-        <v>2.644705882352994</v>
+        <v>2.017558823529448</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3001313074470017</v>
+        <v>-2.770296267795302</v>
       </c>
       <c r="N39" t="n">
         <v>45.13</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3188,34 +3188,34 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>57.19</v>
+        <v>55.09</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
-        <v>9181268</v>
+        <v>2522929</v>
       </c>
       <c r="I40" t="n">
-        <v>53.95082987169141</v>
+        <v>54.57212869177462</v>
       </c>
       <c r="J40" s="8" t="n">
-        <v>78.47793654067831</v>
+        <v>69.36352074681317</v>
       </c>
       <c r="K40" t="n">
-        <v>77.6660701319083</v>
+        <v>72.17193666552606</v>
       </c>
       <c r="L40" s="8" t="n">
-        <v>10.70908823529412</v>
+        <v>9.898764705882357</v>
       </c>
       <c r="M40" t="n">
-        <v>1.167521669909776</v>
+        <v>-1.148394042705892</v>
       </c>
       <c r="N40" t="n">
         <v>39.06888888888889</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3254,34 +3254,34 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>163.75</v>
+        <v>158.4</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>2720120</v>
+        <v>5305104</v>
       </c>
       <c r="I41" t="n">
-        <v>60.83413571005218</v>
+        <v>58.88081084235238</v>
       </c>
       <c r="J41" s="8" t="n">
-        <v>72.15644881163787</v>
+        <v>57.31227694172289</v>
       </c>
       <c r="K41" t="n">
-        <v>76.4086234047726</v>
+        <v>66.43923316434918</v>
       </c>
       <c r="L41" s="8" t="n">
-        <v>17.59658823529423</v>
+        <v>13.86532352941188</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.8777239709443031</v>
+        <v>-2.300622956886443</v>
       </c>
       <c r="N41" t="n">
         <v>125.8144444444445</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3316,38 +3316,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>63</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>14882</v>
+        <v>3263</v>
       </c>
       <c r="I42" t="n">
-        <v>31.67459185285498</v>
+        <v>32.42199464985684</v>
       </c>
       <c r="J42" s="8" t="n">
-        <v>41.16405863443945</v>
+        <v>51.63949036724788</v>
       </c>
       <c r="K42" t="n">
-        <v>36.02253818524969</v>
+        <v>46.47156607623579</v>
       </c>
       <c r="L42" s="8" t="n">
-        <v>-1.998176470588255</v>
+        <v>-1.342441176470601</v>
       </c>
       <c r="M42" t="n">
-        <v>1.514663229133093</v>
+        <v>1.718749999999991</v>
       </c>
       <c r="N42" t="n">
         <v>58.085</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3389,28 +3389,28 @@
         <v>50.51</v>
       </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
-        <v>368</v>
-      </c>
       <c r="I43" t="n">
-        <v>23.18326858264501</v>
+        <v>22.55703789568202</v>
       </c>
       <c r="J43" s="8" t="n">
-        <v>33.89236105027328</v>
+        <v>36.16835577410773</v>
       </c>
       <c r="K43" t="n">
-        <v>33.89236105027328</v>
+        <v>36.16835577410773</v>
       </c>
       <c r="L43" s="8" t="n">
-        <v>-6.214588235293874</v>
+        <v>-6.553999999999753</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3448,38 +3448,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>36.46</v>
+        <v>38.04</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H44" t="n">
-        <v>253781</v>
+        <v>2327639</v>
       </c>
       <c r="I44" t="n">
-        <v>17.98004884538983</v>
+        <v>18.47217707758277</v>
       </c>
       <c r="J44" s="8" t="n">
-        <v>35.46744577738875</v>
+        <v>51.48890610247088</v>
       </c>
       <c r="K44" t="n">
-        <v>37.47722511111159</v>
+        <v>34.87122253078255</v>
       </c>
       <c r="L44" s="8" t="n">
-        <v>-1.879735294117651</v>
+        <v>-1.513529411764708</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.870038064165308</v>
+        <v>4.649243466299856</v>
       </c>
       <c r="N44" t="n">
         <v>34.94722222222223</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>208.25</v>
+        <v>212.76</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
@@ -3530,22 +3530,22 @@
         <v>14</v>
       </c>
       <c r="H45" t="n">
-        <v>1279243</v>
+        <v>1094158</v>
       </c>
       <c r="I45" t="n">
-        <v>40.42938419220756</v>
+        <v>45.18365101546745</v>
       </c>
       <c r="J45" s="8" t="n">
-        <v>65.26789235490779</v>
+        <v>64.74785426384507</v>
       </c>
       <c r="K45" t="n">
-        <v>68.83282114864073</v>
+        <v>70.68997228129695</v>
       </c>
       <c r="L45" s="8" t="n">
-        <v>15.3867941176473</v>
+        <v>18.72626470588261</v>
       </c>
       <c r="M45" t="n">
-        <v>-1.410784452965957</v>
+        <v>-2.300592368094788</v>
       </c>
       <c r="N45" t="n">
         <v>162.2638888888889</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3580,38 +3580,38 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>450</v>
+        <v>430.02</v>
       </c>
       <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="n">
         <v>6</v>
       </c>
-      <c r="F46" t="n">
-        <v>9</v>
-      </c>
-      <c r="G46" t="n">
-        <v>11</v>
-      </c>
       <c r="H46" t="n">
-        <v>1124</v>
+        <v>3531</v>
       </c>
       <c r="I46" t="n">
-        <v>28.16945198888917</v>
+        <v>24.80034541338028</v>
       </c>
       <c r="J46" s="8" t="n">
-        <v>50.69245851391066</v>
+        <v>43.66474251117698</v>
       </c>
       <c r="K46" t="n">
-        <v>50.69245851391066</v>
+        <v>47.97199637955811</v>
       </c>
       <c r="L46" s="8" t="n">
-        <v>7.525558823529707</v>
+        <v>-8.931411764705558</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-2.908105667193497</v>
       </c>
       <c r="N46" t="n">
         <v>371.305</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3646,38 +3646,38 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>276.23</v>
+        <v>294.97</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H47" t="n">
-        <v>168466</v>
+        <v>806911</v>
       </c>
       <c r="I47" t="n">
-        <v>21.69090929831804</v>
+        <v>19.53040739516161</v>
       </c>
       <c r="J47" s="8" t="n">
-        <v>36.0504815886347</v>
+        <v>54.68474858228961</v>
       </c>
       <c r="K47" t="n">
-        <v>37.14371220583286</v>
+        <v>52.05729873081059</v>
       </c>
       <c r="L47" s="8" t="n">
-        <v>-20.13720588235282</v>
+        <v>-12.23649999999986</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.5544155236346487</v>
+        <v>1.110615980529945</v>
       </c>
       <c r="N47" t="n">
         <v>250.3466666666667</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3712,38 +3712,38 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>202.58</v>
+        <v>223.66</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H48" t="n">
-        <v>701</v>
+        <v>8053</v>
       </c>
       <c r="I48" t="n">
-        <v>31.09993391502903</v>
+        <v>37.21462405968684</v>
       </c>
       <c r="J48" s="8" t="n">
-        <v>58.85164480948127</v>
+        <v>73.71286351800468</v>
       </c>
       <c r="K48" t="n">
-        <v>61.41657617402862</v>
+        <v>63.72679446614029</v>
       </c>
       <c r="L48" s="8" t="n">
-        <v>11.36802941176489</v>
+        <v>15.06461764705904</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.9340310039610722</v>
+        <v>7.590917837213778</v>
       </c>
       <c r="N48" t="n">
         <v>169.24</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3782,34 +3782,34 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25.55</v>
+        <v>25.32</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
         <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>441770</v>
+        <v>514292</v>
       </c>
       <c r="I49" t="n">
-        <v>26.84245556363932</v>
+        <v>25.53321479488029</v>
       </c>
       <c r="J49" s="8" t="n">
-        <v>57.38993532342748</v>
+        <v>54.48698797847746</v>
       </c>
       <c r="K49" t="n">
-        <v>59.69165473547896</v>
+        <v>54.73457238592672</v>
       </c>
       <c r="L49" s="8" t="n">
-        <v>0.8536764705882298</v>
+        <v>0.6018235294117602</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.7766990291262109</v>
+        <v>-0.07892659826361316</v>
       </c>
       <c r="N49" t="n">
         <v>20.40888888888889</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3844,38 +3844,38 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>24.43</v>
+        <v>24.6</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H50" t="n">
-        <v>7494723</v>
+        <v>1110713</v>
       </c>
       <c r="I50" t="n">
-        <v>21.41545058035097</v>
+        <v>28.07645628925059</v>
       </c>
       <c r="J50" s="8" t="n">
-        <v>68.35174371739222</v>
+        <v>64.61014530611683</v>
       </c>
       <c r="K50" t="n">
-        <v>59.4906937240937</v>
+        <v>70.7378735992385</v>
       </c>
       <c r="L50" s="8" t="n">
-        <v>0.958941176470578</v>
+        <v>2.024617647058811</v>
       </c>
       <c r="M50" t="n">
-        <v>5.666089965397918</v>
+        <v>-2.147971360381858</v>
       </c>
       <c r="N50" t="n">
         <v>18.55666666666666</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3910,38 +3910,38 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>73.68000000000001</v>
+        <v>74.14</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>9711</v>
+        <v>12088</v>
       </c>
       <c r="I51" t="n">
-        <v>10.394625932987</v>
+        <v>12.93252690177482</v>
       </c>
       <c r="J51" s="8" t="n">
-        <v>47.86559206178082</v>
+        <v>49.7569378194056</v>
       </c>
       <c r="K51" t="n">
-        <v>56.92895725932085</v>
+        <v>54.75730307633658</v>
       </c>
       <c r="L51" s="8" t="n">
-        <v>3.168323529411751</v>
+        <v>1.918558823529395</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.796833773087059</v>
+        <v>-1.82733050847457</v>
       </c>
       <c r="N51" t="n">
         <v>68.18388888888889</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3980,34 +3980,34 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>302.11</v>
+        <v>309.95</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
         <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>22681</v>
+        <v>20569</v>
       </c>
       <c r="I52" t="n">
-        <v>21.12786450606814</v>
+        <v>19.26912944610719</v>
       </c>
       <c r="J52" s="8" t="n">
-        <v>61.90356220174922</v>
+        <v>65.30205081560976</v>
       </c>
       <c r="K52" t="n">
-        <v>71.48609180421218</v>
+        <v>64.83398111909142</v>
       </c>
       <c r="L52" s="8" t="n">
-        <v>28.90955882352927</v>
+        <v>27.61770588235282</v>
       </c>
       <c r="M52" t="n">
-        <v>-3.759039215061645</v>
+        <v>0.3334196555742499</v>
       </c>
       <c r="N52" t="n">
         <v>237.8538888888889</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4042,38 +4042,38 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21.28</v>
+        <v>21.41</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H53" t="n">
-        <v>4369</v>
+        <v>1210</v>
       </c>
       <c r="I53" t="n">
-        <v>33.1880019046616</v>
+        <v>35.23178294594154</v>
       </c>
       <c r="J53" s="8" t="n">
-        <v>56.56609429588207</v>
+        <v>56.19272900872645</v>
       </c>
       <c r="K53" t="n">
-        <v>54.97093460488754</v>
+        <v>52.33576090093192</v>
       </c>
       <c r="L53" s="8" t="n">
-        <v>1.127117647058832</v>
+        <v>0.8957941176470641</v>
       </c>
       <c r="M53" t="n">
-        <v>1.333333333333339</v>
+        <v>3.429951690821261</v>
       </c>
       <c r="N53" t="n">
         <v>18.54444444444444</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4108,38 +4108,38 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>231.08</v>
+        <v>248.9</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>14527</v>
+        <v>75285</v>
       </c>
       <c r="I54" t="n">
-        <v>20.92388443299374</v>
+        <v>24.16820387471022</v>
       </c>
       <c r="J54" s="8" t="n">
-        <v>61.50948681509392</v>
+        <v>72.80503369869618</v>
       </c>
       <c r="K54" t="n">
-        <v>60.16601048250197</v>
+        <v>65.48525047014263</v>
       </c>
       <c r="L54" s="8" t="n">
-        <v>15.16326470588231</v>
+        <v>16.99705882352933</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7630924868094012</v>
+        <v>5.274288372879921</v>
       </c>
       <c r="N54" t="n">
         <v>184.2577777777778</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4178,34 +4178,34 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>914.91</v>
+        <v>1134.42</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G55" t="n">
         <v>17</v>
       </c>
       <c r="H55" t="n">
-        <v>2393128</v>
+        <v>3094488</v>
       </c>
       <c r="I55" t="n">
-        <v>40.13004560983328</v>
+        <v>47.62913771462846</v>
       </c>
       <c r="J55" s="8" t="n">
-        <v>73.28009079010508</v>
+        <v>86.47512910795623</v>
       </c>
       <c r="K55" t="n">
-        <v>64.22940186491485</v>
+        <v>84.97628066349709</v>
       </c>
       <c r="L55" s="8" t="n">
-        <v>59.55776470588251</v>
+        <v>156.6078235294119</v>
       </c>
       <c r="M55" t="n">
-        <v>7.66813768755516</v>
+        <v>3.715555230485116</v>
       </c>
       <c r="N55" t="n">
         <v>690.2177777777778</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4244,34 +4244,34 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>651.54</v>
+        <v>820.38</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H56" t="n">
-        <v>31117</v>
+        <v>42391</v>
       </c>
       <c r="I56" t="n">
-        <v>49.45147913425153</v>
+        <v>55.30570143575707</v>
       </c>
       <c r="J56" s="8" t="n">
-        <v>75.14806944791576</v>
+        <v>87.39602976146601</v>
       </c>
       <c r="K56" t="n">
-        <v>74.48189875202074</v>
+        <v>83.84149446254513</v>
       </c>
       <c r="L56" s="8" t="n">
-        <v>70.96494117647126</v>
+        <v>139.7482941176477</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8279298658289216</v>
+        <v>9.499339304066945</v>
       </c>
       <c r="N56" t="n">
         <v>443.6761111111111</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4306,38 +4306,38 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H57" t="n">
-        <v>23000</v>
+        <v>770</v>
       </c>
       <c r="I57" t="n">
-        <v>19.07603380333722</v>
+        <v>21.01730263903267</v>
       </c>
       <c r="J57" s="8" t="n">
-        <v>49.50387810406151</v>
+        <v>54.58289771910588</v>
       </c>
       <c r="K57" t="n">
-        <v>51.94209062222341</v>
+        <v>58.12892733473154</v>
       </c>
       <c r="L57" s="8" t="n">
-        <v>-0.1053235294117725</v>
+        <v>0.1075588235294038</v>
       </c>
       <c r="M57" t="n">
-        <v>-4.153354632587856</v>
+        <v>-4.885057471264366</v>
       </c>
       <c r="N57" t="n">
         <v>2.464444444444445</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4376,34 +4376,34 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>502.85</v>
+        <v>502.32</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H58" t="n">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="I58" t="n">
-        <v>17.13446158493346</v>
+        <v>18.47912477634082</v>
       </c>
       <c r="J58" s="8" t="n">
-        <v>54.2031501026358</v>
+        <v>52.0444676701776</v>
       </c>
       <c r="K58" t="n">
-        <v>56.16273520514682</v>
+        <v>60.41080559325339</v>
       </c>
       <c r="L58" s="8" t="n">
-        <v>11.71864705882348</v>
+        <v>9.91626470588227</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.6578687423446173</v>
+        <v>-2.751050277815418</v>
       </c>
       <c r="N58" t="n">
         <v>421.3244444444445</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4442,40 +4442,40 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>133.21</v>
+        <v>130.06</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="I59" t="n">
-        <v>14.18174251744658</v>
+        <v>13.74515278582335</v>
       </c>
       <c r="J59" s="8" t="n">
-        <v>49.24791652882811</v>
+        <v>43.95518810887903</v>
       </c>
       <c r="K59" t="n">
-        <v>49.24791652882811</v>
+        <v>48.87341950916313</v>
       </c>
       <c r="L59" s="8" t="n">
-        <v>1.074088235294084</v>
+        <v>1.909911764705896</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>-2.364687335785606</v>
       </c>
       <c r="N59" t="n">
-        <v>120.2483333333333</v>
+        <v>120.1666666666667</v>
       </c>
       <c r="O59" t="n">
-        <v>153.2483333333334</v>
+        <v>153.1666666666667</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4508,34 +4508,34 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>46.99</v>
+        <v>47.06</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60" t="n">
-        <v>12553</v>
+        <v>2213</v>
       </c>
       <c r="I60" t="n">
-        <v>14.30682941659746</v>
+        <v>15.16510843919488</v>
       </c>
       <c r="J60" s="8" t="n">
-        <v>65.33711332928188</v>
+        <v>63.14481731418156</v>
       </c>
       <c r="K60" t="n">
-        <v>60.72702574840098</v>
+        <v>63.1156453776501</v>
       </c>
       <c r="L60" s="8" t="n">
-        <v>3.372382352941244</v>
+        <v>4.473441176470658</v>
       </c>
       <c r="M60" t="n">
-        <v>3.502202643171814</v>
+        <v>0.02125398512222129</v>
       </c>
       <c r="N60" t="n">
         <v>36.06444444444444</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4574,34 +4574,34 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>35.03</v>
+        <v>35.99</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
       </c>
       <c r="G61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="n">
-        <v>184607</v>
+        <v>96057</v>
       </c>
       <c r="I61" t="n">
-        <v>21.99784412597159</v>
+        <v>17.87467285322772</v>
       </c>
       <c r="J61" s="8" t="n">
-        <v>51.60651205168466</v>
+        <v>55.02225401474146</v>
       </c>
       <c r="K61" t="n">
-        <v>56.72866659933171</v>
+        <v>57.73205116956275</v>
       </c>
       <c r="L61" s="8" t="n">
-        <v>-0.8674705882352995</v>
+        <v>-0.2206764705882449</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.883282506237868</v>
+        <v>-1.424267324020805</v>
       </c>
       <c r="N61" t="n">
         <v>29.44166666666667</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4640,34 +4640,34 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="E62" t="n">
         <v>14</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>22357559</v>
+        <v>20107488</v>
       </c>
       <c r="I62" t="n">
-        <v>13.35971675094581</v>
+        <v>14.14047160946565</v>
       </c>
       <c r="J62" s="8" t="n">
-        <v>42.12588548868175</v>
+        <v>41.27865559757308</v>
       </c>
       <c r="K62" t="n">
-        <v>45.57240332620749</v>
+        <v>38.72897597043073</v>
       </c>
       <c r="L62" s="8" t="n">
-        <v>-0.059852941176471</v>
+        <v>-0.05591176470588288</v>
       </c>
       <c r="M62" t="n">
-        <v>-1.562500000000001</v>
+        <v>0.8064516129032264</v>
       </c>
       <c r="N62" t="n">
         <v>1.113333333333333</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4702,38 +4702,38 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7.64</v>
+        <v>7.3</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>224151</v>
+        <v>689006</v>
       </c>
       <c r="I63" t="n">
-        <v>15.37141511027079</v>
+        <v>13.2892166124399</v>
       </c>
       <c r="J63" s="8" t="n">
-        <v>48.33883709021066</v>
+        <v>41.08611992772749</v>
       </c>
       <c r="K63" t="n">
-        <v>50.40967895711452</v>
+        <v>43.39935313816192</v>
       </c>
       <c r="L63" s="8" t="n">
-        <v>-0.3507058823529476</v>
+        <v>-0.3140000000000072</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.164294954721872</v>
+        <v>-1.484480431848857</v>
       </c>
       <c r="N63" t="n">
         <v>6.54111111111111</v>
@@ -4779,7 +4779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4893,38 +4893,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>20.23</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>358817</v>
+        <v>224183</v>
       </c>
       <c r="I2" t="n">
-        <v>27.2210353274634</v>
+        <v>30.73140543580916</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>62.5078693564665</v>
+        <v>64.31171952233328</v>
       </c>
       <c r="K2" t="n">
-        <v>61.42791023814851</v>
+        <v>59.77654959241123</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>0.620176470588266</v>
+        <v>0.8938235294117938</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5025125628140775</v>
+        <v>1.914357682619642</v>
       </c>
       <c r="N2" t="n">
         <v>16.52944444444445</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4963,34 +4963,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>279.1</v>
+        <v>277.67</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>908274</v>
+        <v>586102</v>
       </c>
       <c r="I3" t="n">
-        <v>41.32332811533374</v>
+        <v>45.96840354445689</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>78.87711623057453</v>
+        <v>75.96599585177277</v>
       </c>
       <c r="K3" t="n">
-        <v>80.11543011784794</v>
+        <v>79.14158399414431</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>38.28150000000002</v>
+        <v>43.25955882352952</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3783552255853805</v>
+        <v>-0.8321428571428514</v>
       </c>
       <c r="N3" t="n">
         <v>194.6172222222222</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -5029,34 +5029,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32.38</v>
+        <v>31.95</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>4386470</v>
+        <v>1697677</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26420101437821</v>
+        <v>24.98440791809918</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>66.01589769476091</v>
+        <v>61.21963527856168</v>
       </c>
       <c r="K4" t="n">
-        <v>64.98614094342874</v>
+        <v>64.70382229713717</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>2.157323529411695</v>
+        <v>2.844176470588174</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8722741433021841</v>
+        <v>-1.510480887792844</v>
       </c>
       <c r="N4" t="n">
         <v>26.43444444444445</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -5095,34 +5095,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.41</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>311224</v>
+        <v>1029315</v>
       </c>
       <c r="I5" t="n">
-        <v>14.68616172932446</v>
+        <v>20.31190401707754</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>53.68319145497356</v>
+        <v>62.74527517100422</v>
       </c>
       <c r="K5" t="n">
-        <v>50.21899280010499</v>
+        <v>61.44243158837864</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>0.8478529411765408</v>
+        <v>2.090647058823606</v>
       </c>
       <c r="M5" t="n">
-        <v>1.685156579132149</v>
+        <v>0.769128762763557</v>
       </c>
       <c r="N5" t="n">
         <v>67.55555555555556</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -5161,34 +5161,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26.17</v>
+        <v>25.49</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>2827878</v>
+        <v>5599157</v>
       </c>
       <c r="I6" t="n">
-        <v>15.42721621761943</v>
+        <v>16.97528834220062</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>57.56493294203431</v>
+        <v>51.00091281209864</v>
       </c>
       <c r="K6" t="n">
-        <v>60.86614891489521</v>
+        <v>56.60698881510402</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>0.4645588235294014</v>
+        <v>0.9227941176470438</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.319758672699841</v>
+        <v>-2.337164750957866</v>
       </c>
       <c r="N6" t="n">
         <v>22.30833333333334</v>
@@ -5214,11 +5214,11 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LUCK</t>
+          <t>PIOC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5227,60 +5227,60 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>919.0700000000001</v>
+        <v>178.75</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>124806</v>
+        <v>118668</v>
       </c>
       <c r="I7" t="n">
-        <v>20.69847704734548</v>
+        <v>26.97168692097832</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>56.3704687858403</v>
+        <v>66.43928143411412</v>
       </c>
       <c r="K7" t="n">
-        <v>59.50904610761791</v>
+        <v>70.81171884051835</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>7.735470588234989</v>
+        <v>14.27126470588234</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.7623119864381831</v>
+        <v>-1.237637438532521</v>
       </c>
       <c r="N7" t="n">
-        <v>838.4505555555555</v>
+        <v>135.0205555555556</v>
       </c>
       <c r="O7" t="n">
-        <v>1003.450555555556</v>
+        <v>188.9938888888889</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALUCK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LUCK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LUCK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -5293,34 +5293,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>116.73</v>
+        <v>116.06</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>206320</v>
+        <v>168359</v>
       </c>
       <c r="I8" t="n">
-        <v>36.10296286200732</v>
+        <v>37.321931890146</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>55.78323058831502</v>
+        <v>53.20552127078303</v>
       </c>
       <c r="K8" t="n">
-        <v>56.07302062761704</v>
+        <v>56.54715548848657</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>3.342588235294016</v>
+        <v>2.703323529411662</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.08559445347940967</v>
+        <v>-0.8796652147920412</v>
       </c>
       <c r="N8" t="n">
         <v>96.84166666666668</v>
@@ -5346,77 +5346,77 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>BERG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>122.3</v>
+        <v>78.13</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>2425734</v>
+        <v>243272</v>
       </c>
       <c r="I9" t="n">
-        <v>17.28944354118344</v>
+        <v>21.21899254831918</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>56.10748857830011</v>
+        <v>59.61951472937514</v>
       </c>
       <c r="K9" t="n">
-        <v>58.45946638662381</v>
+        <v>52.72079572331086</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>3.054764705882249</v>
+        <v>0.2789999999999822</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.7788414733084601</v>
+        <v>3.16915357190016</v>
       </c>
       <c r="N9" t="n">
-        <v>104.405</v>
+        <v>63.93444444444444</v>
       </c>
       <c r="O9" t="n">
-        <v>128.99</v>
+        <v>82.83611111111111</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABERG</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-BERG/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-BERG/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OGDC</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5425,64 +5425,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>132.95</v>
+        <v>120.82</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>5330385</v>
+        <v>2447648</v>
       </c>
       <c r="I10" t="n">
-        <v>19.45499916890654</v>
+        <v>17.79431331633835</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>50.5809785892452</v>
+        <v>51.44602482716887</v>
       </c>
       <c r="K10" t="n">
-        <v>55.0510247546388</v>
+        <v>57.89757356806936</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>3.131352941176573</v>
+        <v>3.2974705882352</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.715088341834865</v>
+        <v>-2.10662777507698</v>
       </c>
       <c r="N10" t="n">
-        <v>112.6672222222222</v>
+        <v>104.405</v>
       </c>
       <c r="O10" t="n">
-        <v>149.4988888888889</v>
+        <v>128.99</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EFERT</t>
+          <t>OGDC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5491,130 +5491,130 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>168.21</v>
+        <v>133.13</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>454529</v>
+        <v>3920835</v>
       </c>
       <c r="I11" t="n">
-        <v>34.67554974444499</v>
+        <v>16.83098798182668</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>62.2693189609876</v>
+        <v>50.63045725658272</v>
       </c>
       <c r="K11" t="n">
-        <v>64.328713528344</v>
+        <v>52.88804817439503</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>8.737558823529383</v>
+        <v>1.973558823529515</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.4026289300728157</v>
+        <v>-0.797317436661694</v>
       </c>
       <c r="N11" t="n">
-        <v>148.2594444444445</v>
+        <v>112.6672222222222</v>
       </c>
       <c r="O11" t="n">
-        <v>180.0127777777778</v>
+        <v>149.4988888888889</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AIRLINK</t>
+          <t>ATLH</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>89.62</v>
+        <v>665.92</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>3174977</v>
+        <v>227283</v>
       </c>
       <c r="I12" t="n">
-        <v>33.52616834150986</v>
+        <v>37.20957533611482</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>65.90461972421701</v>
+        <v>85.53275775253466</v>
       </c>
       <c r="K12" t="n">
-        <v>70.80083856666994</v>
+        <v>82.90426397979073</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>9.330705882352973</v>
+        <v>63.90150000000062</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.656973554263131</v>
+        <v>5.089399845345369</v>
       </c>
       <c r="N12" t="n">
-        <v>64.42222222222223</v>
+        <v>418.4155555555555</v>
       </c>
       <c r="O12" t="n">
-        <v>103.3438888888889</v>
+        <v>555.9155555555554</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAIRLINK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AATLH</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ATLH/financials-overview/</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ATLH/technicals/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEBL</t>
+          <t>PHDL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5623,64 +5623,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>240.1</v>
+        <v>679.55</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>3371691</v>
+        <v>999980</v>
       </c>
       <c r="I13" t="n">
-        <v>29.40209889287268</v>
+        <v>43.50505576760017</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>54.14600052963536</v>
+        <v>81.64171160372202</v>
       </c>
       <c r="K13" t="n">
-        <v>56.50159344253959</v>
+        <v>88.13494446260752</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>4.008411764705727</v>
+        <v>147.250852941176</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.785123966942151</v>
+        <v>-2.397161898196032</v>
       </c>
       <c r="N13" t="n">
-        <v>200.1077777777778</v>
+        <v>359.2011111111112</v>
       </c>
       <c r="O13" t="n">
-        <v>281.4894444444444</v>
+        <v>714.6844444444445</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>EFERT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5689,196 +5689,196 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>88.23</v>
+        <v>167.68</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>1267291</v>
+        <v>343917</v>
       </c>
       <c r="I14" t="n">
-        <v>27.78680423279017</v>
+        <v>34.45297992055669</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>59.06694046369357</v>
+        <v>59.08768870734961</v>
       </c>
       <c r="K14" t="n">
-        <v>56.57724992205137</v>
+        <v>62.12765718104404</v>
       </c>
       <c r="L14" s="8" t="n">
-        <v>2.305676470588224</v>
+        <v>6.197911764705822</v>
       </c>
       <c r="M14" t="n">
-        <v>1.495456114114802</v>
+        <v>-0.5869449220371025</v>
       </c>
       <c r="N14" t="n">
-        <v>73.03666666666668</v>
+        <v>148.2594444444445</v>
       </c>
       <c r="O14" t="n">
-        <v>95.11000000000003</v>
+        <v>180.0127777777778</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FATIMA</t>
+          <t>AIRLINK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53.47</v>
+        <v>95.02</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>504825</v>
+        <v>7374844</v>
       </c>
       <c r="I15" t="n">
-        <v>29.91513572684819</v>
+        <v>37.21791669539879</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>65.92275402777936</v>
+        <v>72.01405378178835</v>
       </c>
       <c r="K15" t="n">
-        <v>65.34134638561386</v>
+        <v>74.16751254660768</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>2.644705882352994</v>
+        <v>10.21114705882356</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3001313074470017</v>
+        <v>-0.7209278027374336</v>
       </c>
       <c r="N15" t="n">
-        <v>45.13</v>
+        <v>64.42222222222223</v>
       </c>
       <c r="O15" t="n">
-        <v>56.13</v>
+        <v>103.3438888888889</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFATIMA</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAIRLINK</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FATIMA/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/financials-overview/</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FATIMA/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FABL</t>
+          <t>MEBL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57.19</v>
+        <v>237.99</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>9181268</v>
+        <v>569043</v>
       </c>
       <c r="I16" t="n">
-        <v>53.95082987169141</v>
+        <v>28.3289958800762</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>78.47793654067831</v>
+        <v>51.42893932756226</v>
       </c>
       <c r="K16" t="n">
-        <v>77.6660701319083</v>
+        <v>52.03850215953036</v>
       </c>
       <c r="L16" s="8" t="n">
-        <v>10.70908823529412</v>
+        <v>2.089764705882203</v>
       </c>
       <c r="M16" t="n">
-        <v>1.167521669909776</v>
+        <v>-0.1887267237040717</v>
       </c>
       <c r="N16" t="n">
-        <v>39.06888888888889</v>
+        <v>200.1077777777778</v>
       </c>
       <c r="O16" t="n">
-        <v>59.12555555555556</v>
+        <v>281.4894444444444</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HUBC</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5887,64 +5887,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>163.75</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>2720120</v>
+        <v>550115</v>
       </c>
       <c r="I17" t="n">
-        <v>60.83413571005218</v>
+        <v>27.80052063545756</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>72.15644881163787</v>
+        <v>56.58005880182097</v>
       </c>
       <c r="K17" t="n">
-        <v>76.4086234047726</v>
+        <v>60.33427835050772</v>
       </c>
       <c r="L17" s="8" t="n">
-        <v>17.59658823529423</v>
+        <v>3.150882352941139</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.8777239709443031</v>
+        <v>-1.490029128388974</v>
       </c>
       <c r="N17" t="n">
-        <v>125.8144444444445</v>
+        <v>73.03666666666668</v>
       </c>
       <c r="O17" t="n">
-        <v>187.9644444444445</v>
+        <v>95.11000000000003</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INIL</t>
+          <t>FABL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5953,64 +5953,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>208.25</v>
+        <v>55.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>1279243</v>
+        <v>2522929</v>
       </c>
       <c r="I18" t="n">
-        <v>40.42938419220756</v>
+        <v>54.57212869177462</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>65.26789235490779</v>
+        <v>69.36352074681317</v>
       </c>
       <c r="K18" t="n">
-        <v>68.83282114864073</v>
+        <v>72.17193666552606</v>
       </c>
       <c r="L18" s="8" t="n">
-        <v>15.3867941176473</v>
+        <v>9.898764705882357</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.410784452965957</v>
+        <v>-1.148394042705892</v>
       </c>
       <c r="N18" t="n">
-        <v>162.2638888888889</v>
+        <v>39.06888888888889</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1155555555556</v>
+        <v>59.12555555555556</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LPL</t>
+          <t>HUBC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6019,184 +6019,316 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25.55</v>
+        <v>158.4</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>441770</v>
+        <v>5305104</v>
       </c>
       <c r="I19" t="n">
-        <v>26.84245556363932</v>
+        <v>58.88081084235238</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>57.38993532342748</v>
+        <v>57.31227694172289</v>
       </c>
       <c r="K19" t="n">
-        <v>59.69165473547896</v>
+        <v>66.43923316434918</v>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.8536764705882298</v>
+        <v>13.86532352941188</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.7766990291262109</v>
+        <v>-2.300622956886443</v>
       </c>
       <c r="N19" t="n">
-        <v>20.40888888888889</v>
+        <v>125.8144444444445</v>
       </c>
       <c r="O19" t="n">
-        <v>29.19055555555556</v>
+        <v>187.9644444444445</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIPL</t>
+          <t>INIL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24.43</v>
+        <v>212.76</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>7494723</v>
+        <v>1094158</v>
       </c>
       <c r="I20" t="n">
-        <v>21.41545058035097</v>
+        <v>45.18365101546745</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>68.35174371739222</v>
+        <v>64.74785426384507</v>
       </c>
       <c r="K20" t="n">
-        <v>59.4906937240937</v>
+        <v>70.68997228129695</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.958941176470578</v>
+        <v>18.72626470588261</v>
       </c>
       <c r="M20" t="n">
-        <v>5.666089965397918</v>
+        <v>-2.300592368094788</v>
       </c>
       <c r="N20" t="n">
-        <v>18.55666666666666</v>
+        <v>162.2638888888889</v>
       </c>
       <c r="O20" t="n">
-        <v>25.34</v>
+        <v>219.1155555555556</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-BIPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAZEW</t>
+          <t>LPL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>914.91</v>
+        <v>25.32</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
       </c>
       <c r="G21" t="n">
+        <v>12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>514292</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25.53321479488029</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>54.48698797847746</v>
+      </c>
+      <c r="K21" t="n">
+        <v>54.73457238592672</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>0.6018235294117602</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.07892659826361316</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20.40888888888889</v>
+      </c>
+      <c r="O21" t="n">
+        <v>29.19055555555556</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n">
+        <v>45483.81409944977</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BIPL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1110713</v>
+      </c>
+      <c r="I22" t="n">
+        <v>28.07645628925059</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>64.61014530611683</v>
+      </c>
+      <c r="K22" t="n">
+        <v>70.7378735992385</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>2.024617647058811</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-2.147971360381858</v>
+      </c>
+      <c r="N22" t="n">
+        <v>18.55666666666666</v>
+      </c>
+      <c r="O22" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-BIPL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n">
+        <v>45483.81409944977</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SAZEW</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>STRONG_BUY</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1134.42</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" t="n">
         <v>17</v>
       </c>
-      <c r="H21" t="n">
-        <v>2393128</v>
-      </c>
-      <c r="I21" t="n">
-        <v>40.13004560983328</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>73.28009079010508</v>
-      </c>
-      <c r="K21" t="n">
-        <v>64.22940186491485</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>59.55776470588251</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7.66813768755516</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="H23" t="n">
+        <v>3094488</v>
+      </c>
+      <c r="I23" t="n">
+        <v>47.62913771462846</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>86.47512910795623</v>
+      </c>
+      <c r="K23" t="n">
+        <v>84.97628066349709</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>156.6078235294119</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.715555230485116</v>
+      </c>
+      <c r="N23" t="n">
         <v>690.2177777777778</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O23" t="n">
         <v>933.4094444444444</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASAZEW</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/PSX-SAZEW/financials-overview/</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/PSX-SAZEW/technicals/</t>
         </is>
@@ -6224,7 +6356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6329,11 +6461,11 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NRSL</t>
+          <t>KOHC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6342,64 +6474,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>277.67</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>358817</v>
+        <v>586102</v>
       </c>
       <c r="I2" t="n">
-        <v>27.2210353274634</v>
+        <v>45.96840354445689</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>62.5078693564665</v>
+        <v>75.96599585177277</v>
       </c>
       <c r="K2" t="n">
-        <v>61.42791023814851</v>
+        <v>79.14158399414431</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>0.620176470588266</v>
+        <v>43.25955882352952</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5025125628140775</v>
+        <v>-0.8321428571428514</v>
       </c>
       <c r="N2" t="n">
-        <v>16.52944444444445</v>
+        <v>194.6172222222222</v>
       </c>
       <c r="O2" t="n">
-        <v>21.69944444444444</v>
+        <v>282.6172222222222</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ANRSL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHC</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-NRSL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KOHC/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-NRSL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KOHC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KOHC</t>
+          <t>CPHL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6408,64 +6540,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>279.1</v>
+        <v>31.95</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>908274</v>
+        <v>1697677</v>
       </c>
       <c r="I3" t="n">
-        <v>41.32332811533374</v>
+        <v>24.98440791809918</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>78.87711623057453</v>
+        <v>61.21963527856168</v>
       </c>
       <c r="K3" t="n">
-        <v>80.11543011784794</v>
+        <v>64.70382229713717</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>38.28150000000002</v>
+        <v>2.844176470588174</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3783552255853805</v>
+        <v>-1.510480887792844</v>
       </c>
       <c r="N3" t="n">
-        <v>194.6172222222222</v>
+        <v>26.43444444444445</v>
       </c>
       <c r="O3" t="n">
-        <v>282.6172222222222</v>
+        <v>30.44944444444444</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPHL</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-CPHL/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-CPHL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CPHL</t>
+          <t>PABC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6474,64 +6606,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32.38</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>4386470</v>
+        <v>1029315</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26420101437821</v>
+        <v>20.31190401707754</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>66.01589769476091</v>
+        <v>62.74527517100422</v>
       </c>
       <c r="K4" t="n">
-        <v>64.98614094342874</v>
+        <v>61.44243158837864</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>2.157323529411695</v>
+        <v>2.090647058823606</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8722741433021841</v>
+        <v>0.769128762763557</v>
       </c>
       <c r="N4" t="n">
-        <v>26.43444444444445</v>
+        <v>67.55555555555556</v>
       </c>
       <c r="O4" t="n">
-        <v>30.44944444444444</v>
+        <v>78.55555555555556</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPHL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APABC</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PABC/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PABC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PABC</t>
+          <t>PAEL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6540,64 +6672,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.41</v>
+        <v>25.49</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>311224</v>
+        <v>5599157</v>
       </c>
       <c r="I5" t="n">
-        <v>14.68616172932446</v>
+        <v>16.97528834220062</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>53.68319145497356</v>
+        <v>51.00091281209864</v>
       </c>
       <c r="K5" t="n">
-        <v>50.21899280010499</v>
+        <v>56.60698881510402</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>0.8478529411765408</v>
+        <v>0.9227941176470438</v>
       </c>
       <c r="M5" t="n">
-        <v>1.685156579132149</v>
+        <v>-2.337164750957866</v>
       </c>
       <c r="N5" t="n">
-        <v>67.55555555555556</v>
+        <v>22.30833333333334</v>
       </c>
       <c r="O5" t="n">
-        <v>78.55555555555556</v>
+        <v>27.27666666666667</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APABC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APAEL</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PAEL/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PAEL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PAEL</t>
+          <t>PIOC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6606,64 +6738,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26.17</v>
+        <v>178.75</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>2827878</v>
+        <v>118668</v>
       </c>
       <c r="I6" t="n">
-        <v>15.42721621761943</v>
+        <v>26.97168692097832</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>57.56493294203431</v>
+        <v>66.43928143411412</v>
       </c>
       <c r="K6" t="n">
-        <v>60.86614891489521</v>
+        <v>70.81171884051835</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>0.4645588235294014</v>
+        <v>14.27126470588234</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.319758672699841</v>
+        <v>-1.237637438532521</v>
       </c>
       <c r="N6" t="n">
-        <v>22.30833333333334</v>
+        <v>135.0205555555556</v>
       </c>
       <c r="O6" t="n">
-        <v>27.27666666666667</v>
+        <v>188.9938888888889</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APAEL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PIOC</t>
+          <t>OLPM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6672,64 +6804,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>177.24</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>89186</v>
+        <v>66527</v>
       </c>
       <c r="I7" t="n">
-        <v>25.20479659699038</v>
+        <v>20.59248510920501</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>67.64193728035914</v>
+        <v>55.06311559956592</v>
       </c>
       <c r="K7" t="n">
-        <v>67.54884934819131</v>
+        <v>55.06311559956592</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>11.48167647058824</v>
+        <v>0.4313823529411671</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06210128154463594</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>135.0205555555556</v>
+        <v>12.53222222222222</v>
       </c>
       <c r="O7" t="n">
-        <v>188.9938888888889</v>
+        <v>14.86055555555556</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOLPM</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OLPM/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OLPM/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FEROZ</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6738,64 +6870,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>246.44</v>
+        <v>116.06</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>38513</v>
+        <v>168359</v>
       </c>
       <c r="I8" t="n">
-        <v>17.55398787028813</v>
+        <v>37.321931890146</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>54.90578655590475</v>
+        <v>53.20552127078303</v>
       </c>
       <c r="K8" t="n">
-        <v>56.80370629550401</v>
+        <v>56.54715548848657</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>5.927794117647096</v>
+        <v>2.703323529411662</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.5488297013720798</v>
+        <v>-0.8796652147920412</v>
       </c>
       <c r="N8" t="n">
-        <v>214.9372222222222</v>
+        <v>96.84166666666668</v>
       </c>
       <c r="O8" t="n">
-        <v>271.7705555555555</v>
+        <v>133.875</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFEROZ</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATGL</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FEROZ/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-TGL/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FEROZ/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-TGL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LUCK</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6804,64 +6936,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>919.0700000000001</v>
+        <v>120.82</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>124806</v>
+        <v>2447648</v>
       </c>
       <c r="I9" t="n">
-        <v>20.69847704734548</v>
+        <v>17.79431331633835</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>56.3704687858403</v>
+        <v>51.44602482716887</v>
       </c>
       <c r="K9" t="n">
-        <v>59.50904610761791</v>
+        <v>57.89757356806936</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>7.735470588234989</v>
+        <v>3.2974705882352</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.7623119864381831</v>
+        <v>-2.10662777507698</v>
       </c>
       <c r="N9" t="n">
-        <v>838.4505555555555</v>
+        <v>104.405</v>
       </c>
       <c r="O9" t="n">
-        <v>1003.450555555556</v>
+        <v>128.99</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALUCK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LUCK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LUCK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>OGDC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6870,64 +7002,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>116.73</v>
+        <v>133.13</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>206320</v>
+        <v>3920835</v>
       </c>
       <c r="I10" t="n">
-        <v>36.10296286200732</v>
+        <v>16.83098798182668</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>55.78323058831502</v>
+        <v>50.63045725658272</v>
       </c>
       <c r="K10" t="n">
-        <v>56.07302062761704</v>
+        <v>52.88804817439503</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>3.342588235294016</v>
+        <v>1.973558823529515</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.08559445347940967</v>
+        <v>-0.797317436661694</v>
       </c>
       <c r="N10" t="n">
-        <v>96.84166666666668</v>
+        <v>112.6672222222222</v>
       </c>
       <c r="O10" t="n">
-        <v>133.875</v>
+        <v>149.4988888888889</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATGL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>FHAM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6936,64 +7068,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>122.3</v>
+        <v>16.4</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2425734</v>
+        <v>15906</v>
       </c>
       <c r="I11" t="n">
-        <v>17.28944354118344</v>
+        <v>24.59580430098427</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>56.10748857830011</v>
+        <v>56.9578228376124</v>
       </c>
       <c r="K11" t="n">
-        <v>58.45946638662381</v>
+        <v>60.08914027669686</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>3.054764705882249</v>
+        <v>0.4724705882352929</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.7788414733084601</v>
+        <v>-0.6060606060606146</v>
       </c>
       <c r="N11" t="n">
-        <v>104.405</v>
+        <v>14.98944444444445</v>
       </c>
       <c r="O11" t="n">
-        <v>128.99</v>
+        <v>16.95111111111111</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFHAM</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FHAM/financials-overview/</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FHAM/technicals/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OGDC</t>
+          <t>PHDL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7002,64 +7134,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>132.95</v>
+        <v>679.55</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>5330385</v>
+        <v>999980</v>
       </c>
       <c r="I12" t="n">
-        <v>19.45499916890654</v>
+        <v>43.50505576760017</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>50.5809785892452</v>
+        <v>81.64171160372202</v>
       </c>
       <c r="K12" t="n">
-        <v>55.0510247546388</v>
+        <v>88.13494446260752</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>3.131352941176573</v>
+        <v>147.250852941176</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.715088341834865</v>
+        <v>-2.397161898196032</v>
       </c>
       <c r="N12" t="n">
-        <v>112.6672222222222</v>
+        <v>359.2011111111112</v>
       </c>
       <c r="O12" t="n">
-        <v>149.4988888888889</v>
+        <v>714.6844444444445</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FHAM</t>
+          <t>EFERT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7068,64 +7200,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16.7</v>
+        <v>167.68</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>6116</v>
+        <v>343917</v>
       </c>
       <c r="I13" t="n">
-        <v>21.81644543880937</v>
+        <v>34.45297992055669</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>67.34266840603418</v>
+        <v>59.08768870734961</v>
       </c>
       <c r="K13" t="n">
-        <v>65.43710452006023</v>
+        <v>62.12765718104404</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3163529411764756</v>
+        <v>6.197911764705822</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6630500301386343</v>
+        <v>-0.5869449220371025</v>
       </c>
       <c r="N13" t="n">
-        <v>14.98944444444445</v>
+        <v>148.2594444444445</v>
       </c>
       <c r="O13" t="n">
-        <v>16.95111111111111</v>
+        <v>180.0127777777778</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFHAM</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FHAM/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FHAM/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHDL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7134,64 +7266,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>606.9400000000001</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>10522</v>
+        <v>550115</v>
       </c>
       <c r="I14" t="n">
-        <v>37.26736855759031</v>
+        <v>27.80052063545756</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>80.95731699409272</v>
+        <v>56.58005880182097</v>
       </c>
       <c r="K14" t="n">
-        <v>80.71882059985671</v>
+        <v>60.33427835050772</v>
       </c>
       <c r="L14" s="8" t="n">
-        <v>130.5452647058821</v>
+        <v>3.150882352941139</v>
       </c>
       <c r="M14" t="n">
-        <v>0.333928453349219</v>
+        <v>-1.490029128388974</v>
       </c>
       <c r="N14" t="n">
-        <v>359.2011111111112</v>
+        <v>73.03666666666668</v>
       </c>
       <c r="O14" t="n">
-        <v>714.6844444444445</v>
+        <v>95.11000000000003</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EFERT</t>
+          <t>FABL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7200,64 +7332,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>168.21</v>
+        <v>55.09</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>454529</v>
+        <v>2522929</v>
       </c>
       <c r="I15" t="n">
-        <v>34.67554974444499</v>
+        <v>54.57212869177462</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>62.2693189609876</v>
+        <v>69.36352074681317</v>
       </c>
       <c r="K15" t="n">
-        <v>64.328713528344</v>
+        <v>72.17193666552606</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>8.737558823529383</v>
+        <v>9.898764705882357</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.4026289300728157</v>
+        <v>-1.148394042705892</v>
       </c>
       <c r="N15" t="n">
-        <v>148.2594444444445</v>
+        <v>39.06888888888889</v>
       </c>
       <c r="O15" t="n">
-        <v>180.0127777777778</v>
+        <v>59.12555555555556</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AIRLINK</t>
+          <t>HUBC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7266,64 +7398,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>89.62</v>
+        <v>158.4</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>3174977</v>
+        <v>5305104</v>
       </c>
       <c r="I16" t="n">
-        <v>33.52616834150986</v>
+        <v>58.88081084235238</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>65.90461972421701</v>
+        <v>57.31227694172289</v>
       </c>
       <c r="K16" t="n">
-        <v>70.80083856666994</v>
+        <v>66.43923316434918</v>
       </c>
       <c r="L16" s="8" t="n">
-        <v>9.330705882352973</v>
+        <v>13.86532352941188</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.656973554263131</v>
+        <v>-2.300622956886443</v>
       </c>
       <c r="N16" t="n">
-        <v>64.42222222222223</v>
+        <v>125.8144444444445</v>
       </c>
       <c r="O16" t="n">
-        <v>103.3438888888889</v>
+        <v>187.9644444444445</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAIRLINK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEBL</t>
+          <t>INIL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7332,64 +7464,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>240.1</v>
+        <v>212.76</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>3371691</v>
+        <v>1094158</v>
       </c>
       <c r="I17" t="n">
-        <v>29.40209889287268</v>
+        <v>45.18365101546745</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>54.14600052963536</v>
+        <v>64.74785426384507</v>
       </c>
       <c r="K17" t="n">
-        <v>56.50159344253959</v>
+        <v>70.68997228129695</v>
       </c>
       <c r="L17" s="8" t="n">
-        <v>4.008411764705727</v>
+        <v>18.72626470588261</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.785123966942151</v>
+        <v>-2.300592368094788</v>
       </c>
       <c r="N17" t="n">
-        <v>200.1077777777778</v>
+        <v>162.2638888888889</v>
       </c>
       <c r="O17" t="n">
-        <v>281.4894444444444</v>
+        <v>219.1155555555556</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>LPL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7398,64 +7530,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>88.23</v>
+        <v>25.32</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>1267291</v>
+        <v>514292</v>
       </c>
       <c r="I18" t="n">
-        <v>27.78680423279017</v>
+        <v>25.53321479488029</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>59.06694046369357</v>
+        <v>54.48698797847746</v>
       </c>
       <c r="K18" t="n">
-        <v>56.57724992205137</v>
+        <v>54.73457238592672</v>
       </c>
       <c r="L18" s="8" t="n">
-        <v>2.305676470588224</v>
+        <v>0.6018235294117602</v>
       </c>
       <c r="M18" t="n">
-        <v>1.495456114114802</v>
+        <v>-0.07892659826361316</v>
       </c>
       <c r="N18" t="n">
-        <v>73.03666666666668</v>
+        <v>20.40888888888889</v>
       </c>
       <c r="O18" t="n">
-        <v>95.11000000000003</v>
+        <v>29.19055555555556</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FATIMA</t>
+          <t>BIPL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7464,64 +7596,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53.47</v>
+        <v>24.6</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>504825</v>
+        <v>1110713</v>
       </c>
       <c r="I19" t="n">
-        <v>29.91513572684819</v>
+        <v>28.07645628925059</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>65.92275402777936</v>
+        <v>64.61014530611683</v>
       </c>
       <c r="K19" t="n">
-        <v>65.34134638561386</v>
+        <v>70.7378735992385</v>
       </c>
       <c r="L19" s="8" t="n">
-        <v>2.644705882352994</v>
+        <v>2.024617647058811</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3001313074470017</v>
+        <v>-2.147971360381858</v>
       </c>
       <c r="N19" t="n">
-        <v>45.13</v>
+        <v>18.55666666666666</v>
       </c>
       <c r="O19" t="n">
-        <v>56.13</v>
+        <v>25.34</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFATIMA</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FATIMA/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FATIMA/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-BIPL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="n">
-        <v>45479.69627827071</v>
+        <v>45483.81409944977</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FABL</t>
+          <t>HALEON</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7530,450 +7662,54 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57.19</v>
+        <v>309.95</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>9181268</v>
+        <v>20569</v>
       </c>
       <c r="I20" t="n">
-        <v>53.95082987169141</v>
+        <v>19.26912944610719</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>78.47793654067831</v>
+        <v>65.30205081560976</v>
       </c>
       <c r="K20" t="n">
-        <v>77.6660701319083</v>
+        <v>64.83398111909142</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v>10.70908823529412</v>
+        <v>27.61770588235282</v>
       </c>
       <c r="M20" t="n">
-        <v>1.167521669909776</v>
+        <v>0.3334196555742499</v>
       </c>
       <c r="N20" t="n">
-        <v>39.06888888888889</v>
+        <v>237.8538888888889</v>
       </c>
       <c r="O20" t="n">
-        <v>59.12555555555556</v>
+        <v>329.5388888888889</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHALEON</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-HALEON/financials-overview/</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HUBC</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>163.75</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2720120</v>
-      </c>
-      <c r="I21" t="n">
-        <v>60.83413571005218</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>72.15644881163787</v>
-      </c>
-      <c r="K21" t="n">
-        <v>76.4086234047726</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>17.59658823529423</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-0.8777239709443031</v>
-      </c>
-      <c r="N21" t="n">
-        <v>125.8144444444445</v>
-      </c>
-      <c r="O21" t="n">
-        <v>187.9644444444445</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INIL</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>14</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1279243</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40.42938419220756</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>65.26789235490779</v>
-      </c>
-      <c r="K22" t="n">
-        <v>68.83282114864073</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v>15.3867941176473</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-1.410784452965957</v>
-      </c>
-      <c r="N22" t="n">
-        <v>162.2638888888889</v>
-      </c>
-      <c r="O22" t="n">
-        <v>219.1155555555556</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>LPL</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12</v>
-      </c>
-      <c r="H23" t="n">
-        <v>441770</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.84245556363932</v>
-      </c>
-      <c r="J23" s="8" t="n">
-        <v>57.38993532342748</v>
-      </c>
-      <c r="K23" t="n">
-        <v>59.69165473547896</v>
-      </c>
-      <c r="L23" s="8" t="n">
-        <v>0.8536764705882298</v>
-      </c>
-      <c r="M23" t="n">
-        <v>-0.7766990291262109</v>
-      </c>
-      <c r="N23" t="n">
-        <v>20.40888888888889</v>
-      </c>
-      <c r="O23" t="n">
-        <v>29.19055555555556</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HALEON</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>302.11</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-      <c r="G24" t="n">
-        <v>14</v>
-      </c>
-      <c r="H24" t="n">
-        <v>22681</v>
-      </c>
-      <c r="I24" t="n">
-        <v>21.12786450606814</v>
-      </c>
-      <c r="J24" s="8" t="n">
-        <v>61.90356220174922</v>
-      </c>
-      <c r="K24" t="n">
-        <v>71.48609180421218</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>28.90955882352927</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-3.759039215061645</v>
-      </c>
-      <c r="N24" t="n">
-        <v>237.8538888888889</v>
-      </c>
-      <c r="O24" t="n">
-        <v>329.5388888888889</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHALEON</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HALEON/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
           <t>https://www.tradingview.com/symbols/PSX-HALEON/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DYNO</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>231.08</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" t="n">
-        <v>15</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14527</v>
-      </c>
-      <c r="I25" t="n">
-        <v>20.92388443299374</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>61.50948681509392</v>
-      </c>
-      <c r="K25" t="n">
-        <v>60.16601048250197</v>
-      </c>
-      <c r="L25" s="8" t="n">
-        <v>15.16326470588231</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.7630924868094012</v>
-      </c>
-      <c r="N25" t="n">
-        <v>184.2577777777778</v>
-      </c>
-      <c r="O25" t="n">
-        <v>257.5911111111111</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ADYNO</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-DYNO/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-DYNO/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ADAMS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>46.99</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" t="n">
-        <v>15</v>
-      </c>
-      <c r="H26" t="n">
-        <v>12553</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.30682941659746</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>65.33711332928188</v>
-      </c>
-      <c r="K26" t="n">
-        <v>60.72702574840098</v>
-      </c>
-      <c r="L26" s="8" t="n">
-        <v>3.372382352941244</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.502202643171814</v>
-      </c>
-      <c r="N26" t="n">
-        <v>36.06444444444444</v>
-      </c>
-      <c r="O26" t="n">
-        <v>48.64111111111111</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AADAMS</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-ADAMS/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-ADAMS/technicals/</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8099,72 +7835,6 @@
       <c r="R1" s="5" t="inlineStr">
         <is>
           <t>Technicals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SGF</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>68.06</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>150136</v>
-      </c>
-      <c r="I2" t="n">
-        <v>25.27008308756814</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>28.35686641109956</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30.98201356601359</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <v>-4.764235294117682</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-1.860129776496023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>65.24388888888889</v>
-      </c>
-      <c r="O2" t="n">
-        <v>89.88388888888888</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASGF</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SGF/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SGF/technicals/</t>
         </is>
       </c>
     </row>
@@ -8190,7 +7860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8290,72 +7960,6 @@
       <c r="R1" s="5" t="inlineStr">
         <is>
           <t>Technicals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n">
-        <v>45479.69627827071</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SGF</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>68.06</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>150136</v>
-      </c>
-      <c r="I2" t="n">
-        <v>25.27008308756814</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>28.35686641109956</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30.98201356601359</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <v>-4.764235294117682</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-1.860129776496023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>65.24388888888889</v>
-      </c>
-      <c r="O2" t="n">
-        <v>89.88388888888888</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASGF</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SGF/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SGF/technicals/</t>
         </is>
       </c>
     </row>

--- a/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4884,77 +4884,77 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NRSL</t>
+          <t>KOHC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20.23</v>
+        <v>277.67</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>224183</v>
+        <v>586102</v>
       </c>
       <c r="I2" t="n">
-        <v>30.73140543580916</v>
+        <v>45.96840354445689</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>64.31171952233328</v>
+        <v>75.96599585177277</v>
       </c>
       <c r="K2" t="n">
-        <v>59.77654959241123</v>
+        <v>79.14158399414431</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>0.8938235294117938</v>
+        <v>43.25955882352952</v>
       </c>
       <c r="M2" t="n">
-        <v>1.914357682619642</v>
+        <v>-0.8321428571428514</v>
       </c>
       <c r="N2" t="n">
-        <v>16.52944444444445</v>
+        <v>194.6172222222222</v>
       </c>
       <c r="O2" t="n">
-        <v>21.69944444444444</v>
+        <v>282.6172222222222</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ANRSL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHC</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-NRSL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KOHC/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-NRSL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KOHC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KOHC</t>
+          <t>CPHL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4963,64 +4963,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>277.67</v>
+        <v>31.95</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>586102</v>
+        <v>1697677</v>
       </c>
       <c r="I3" t="n">
-        <v>45.96840354445689</v>
+        <v>24.98440791809918</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>75.96599585177277</v>
+        <v>61.21963527856168</v>
       </c>
       <c r="K3" t="n">
-        <v>79.14158399414431</v>
+        <v>64.70382229713717</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>43.25955882352952</v>
+        <v>2.844176470588174</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.8321428571428514</v>
+        <v>-1.510480887792844</v>
       </c>
       <c r="N3" t="n">
-        <v>194.6172222222222</v>
+        <v>26.43444444444445</v>
       </c>
       <c r="O3" t="n">
-        <v>282.6172222222222</v>
+        <v>30.44944444444444</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPHL</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-CPHL/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-CPHL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CPHL</t>
+          <t>PABC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5029,64 +5029,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31.95</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>1697677</v>
+        <v>1029315</v>
       </c>
       <c r="I4" t="n">
-        <v>24.98440791809918</v>
+        <v>20.31190401707754</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>61.21963527856168</v>
+        <v>62.74527517100422</v>
       </c>
       <c r="K4" t="n">
-        <v>64.70382229713717</v>
+        <v>61.44243158837864</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>2.844176470588174</v>
+        <v>2.090647058823606</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.510480887792844</v>
+        <v>0.769128762763557</v>
       </c>
       <c r="N4" t="n">
-        <v>26.43444444444445</v>
+        <v>67.55555555555556</v>
       </c>
       <c r="O4" t="n">
-        <v>30.44944444444444</v>
+        <v>78.55555555555556</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPHL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APABC</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PABC/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PABC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PABC</t>
+          <t>PAEL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5095,64 +5095,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75.98999999999999</v>
+        <v>25.49</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1029315</v>
+        <v>5599157</v>
       </c>
       <c r="I5" t="n">
-        <v>20.31190401707754</v>
+        <v>16.97528834220062</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>62.74527517100422</v>
+        <v>51.00091281209864</v>
       </c>
       <c r="K5" t="n">
-        <v>61.44243158837864</v>
+        <v>56.60698881510402</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>2.090647058823606</v>
+        <v>0.9227941176470438</v>
       </c>
       <c r="M5" t="n">
-        <v>0.769128762763557</v>
+        <v>-2.337164750957866</v>
       </c>
       <c r="N5" t="n">
-        <v>67.55555555555556</v>
+        <v>22.30833333333334</v>
       </c>
       <c r="O5" t="n">
-        <v>78.55555555555556</v>
+        <v>27.27666666666667</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APABC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APAEL</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PAEL/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PAEL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PAEL</t>
+          <t>PIOC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5161,64 +5161,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25.49</v>
+        <v>178.75</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>5599157</v>
+        <v>118668</v>
       </c>
       <c r="I6" t="n">
-        <v>16.97528834220062</v>
+        <v>26.97168692097832</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>51.00091281209864</v>
+        <v>66.43928143411412</v>
       </c>
       <c r="K6" t="n">
-        <v>56.60698881510402</v>
+        <v>70.81171884051835</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>0.9227941176470438</v>
+        <v>14.27126470588234</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.337164750957866</v>
+        <v>-1.237637438532521</v>
       </c>
       <c r="N6" t="n">
-        <v>22.30833333333334</v>
+        <v>135.0205555555556</v>
       </c>
       <c r="O6" t="n">
-        <v>27.27666666666667</v>
+        <v>188.9938888888889</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APAEL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PIOC</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5227,64 +5227,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>178.75</v>
+        <v>116.06</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>118668</v>
+        <v>168359</v>
       </c>
       <c r="I7" t="n">
-        <v>26.97168692097832</v>
+        <v>37.321931890146</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>66.43928143411412</v>
+        <v>53.20552127078303</v>
       </c>
       <c r="K7" t="n">
-        <v>70.81171884051835</v>
+        <v>56.54715548848657</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>14.27126470588234</v>
+        <v>2.703323529411662</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.237637438532521</v>
+        <v>-0.8796652147920412</v>
       </c>
       <c r="N7" t="n">
-        <v>135.0205555555556</v>
+        <v>96.84166666666668</v>
       </c>
       <c r="O7" t="n">
-        <v>188.9938888888889</v>
+        <v>133.875</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATGL</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-TGL/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-TGL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5293,130 +5293,130 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>116.06</v>
+        <v>120.82</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>168359</v>
+        <v>2447648</v>
       </c>
       <c r="I8" t="n">
-        <v>37.321931890146</v>
+        <v>17.79431331633835</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>53.20552127078303</v>
+        <v>51.44602482716887</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54715548848657</v>
+        <v>57.89757356806936</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>2.703323529411662</v>
+        <v>3.2974705882352</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.8796652147920412</v>
+        <v>-2.10662777507698</v>
       </c>
       <c r="N8" t="n">
-        <v>96.84166666666668</v>
+        <v>104.405</v>
       </c>
       <c r="O8" t="n">
-        <v>133.875</v>
+        <v>128.99</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATGL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BERG</t>
+          <t>OGDC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>78.13</v>
+        <v>133.13</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>243272</v>
+        <v>3920835</v>
       </c>
       <c r="I9" t="n">
-        <v>21.21899254831918</v>
+        <v>16.83098798182668</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>59.61951472937514</v>
+        <v>50.63045725658272</v>
       </c>
       <c r="K9" t="n">
-        <v>52.72079572331086</v>
+        <v>52.88804817439503</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2789999999999822</v>
+        <v>1.973558823529515</v>
       </c>
       <c r="M9" t="n">
-        <v>3.16915357190016</v>
+        <v>-0.797317436661694</v>
       </c>
       <c r="N9" t="n">
-        <v>63.93444444444444</v>
+        <v>112.6672222222222</v>
       </c>
       <c r="O9" t="n">
-        <v>82.83611111111111</v>
+        <v>149.4988888888889</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABERG</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-BERG/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-BERG/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>PHDL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5425,64 +5425,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>120.82</v>
+        <v>679.55</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2447648</v>
+        <v>999980</v>
       </c>
       <c r="I10" t="n">
-        <v>17.79431331633835</v>
+        <v>43.50505576760017</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>51.44602482716887</v>
+        <v>81.64171160372202</v>
       </c>
       <c r="K10" t="n">
-        <v>57.89757356806936</v>
+        <v>88.13494446260752</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>3.2974705882352</v>
+        <v>147.250852941176</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.10662777507698</v>
+        <v>-2.397161898196032</v>
       </c>
       <c r="N10" t="n">
-        <v>104.405</v>
+        <v>359.2011111111112</v>
       </c>
       <c r="O10" t="n">
-        <v>128.99</v>
+        <v>714.6844444444445</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OGDC</t>
+          <t>EFERT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5491,130 +5491,130 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>133.13</v>
+        <v>167.68</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>3920835</v>
+        <v>343917</v>
       </c>
       <c r="I11" t="n">
-        <v>16.83098798182668</v>
+        <v>34.45297992055669</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>50.63045725658272</v>
+        <v>59.08768870734961</v>
       </c>
       <c r="K11" t="n">
-        <v>52.88804817439503</v>
+        <v>62.12765718104404</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>1.973558823529515</v>
+        <v>6.197911764705822</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.797317436661694</v>
+        <v>-0.5869449220371025</v>
       </c>
       <c r="N11" t="n">
-        <v>112.6672222222222</v>
+        <v>148.2594444444445</v>
       </c>
       <c r="O11" t="n">
-        <v>149.4988888888889</v>
+        <v>180.0127777777778</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATLH</t>
+          <t>MEBL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>665.92</v>
+        <v>237.99</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>227283</v>
+        <v>569043</v>
       </c>
       <c r="I12" t="n">
-        <v>37.20957533611482</v>
+        <v>28.3289958800762</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>85.53275775253466</v>
+        <v>51.42893932756226</v>
       </c>
       <c r="K12" t="n">
-        <v>82.90426397979073</v>
+        <v>52.03850215953036</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>63.90150000000062</v>
+        <v>2.089764705882203</v>
       </c>
       <c r="M12" t="n">
-        <v>5.089399845345369</v>
+        <v>-0.1887267237040717</v>
       </c>
       <c r="N12" t="n">
-        <v>418.4155555555555</v>
+        <v>200.1077777777778</v>
       </c>
       <c r="O12" t="n">
-        <v>555.9155555555554</v>
+        <v>281.4894444444444</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AATLH</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ATLH/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ATLH/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHDL</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5623,64 +5623,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>679.55</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>999980</v>
+        <v>550115</v>
       </c>
       <c r="I13" t="n">
-        <v>43.50505576760017</v>
+        <v>27.80052063545756</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>81.64171160372202</v>
+        <v>56.58005880182097</v>
       </c>
       <c r="K13" t="n">
-        <v>88.13494446260752</v>
+        <v>60.33427835050772</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>147.250852941176</v>
+        <v>3.150882352941139</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.397161898196032</v>
+        <v>-1.490029128388974</v>
       </c>
       <c r="N13" t="n">
-        <v>359.2011111111112</v>
+        <v>73.03666666666668</v>
       </c>
       <c r="O13" t="n">
-        <v>714.6844444444445</v>
+        <v>95.11000000000003</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EFERT</t>
+          <t>FABL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5689,196 +5689,196 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>167.68</v>
+        <v>55.09</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>343917</v>
+        <v>2522929</v>
       </c>
       <c r="I14" t="n">
-        <v>34.45297992055669</v>
+        <v>54.57212869177462</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>59.08768870734961</v>
+        <v>69.36352074681317</v>
       </c>
       <c r="K14" t="n">
-        <v>62.12765718104404</v>
+        <v>72.17193666552606</v>
       </c>
       <c r="L14" s="8" t="n">
-        <v>6.197911764705822</v>
+        <v>9.898764705882357</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.5869449220371025</v>
+        <v>-1.148394042705892</v>
       </c>
       <c r="N14" t="n">
-        <v>148.2594444444445</v>
+        <v>39.06888888888889</v>
       </c>
       <c r="O14" t="n">
-        <v>180.0127777777778</v>
+        <v>59.12555555555556</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AIRLINK</t>
+          <t>HUBC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>95.02</v>
+        <v>158.4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>7374844</v>
+        <v>5305104</v>
       </c>
       <c r="I15" t="n">
-        <v>37.21791669539879</v>
+        <v>58.88081084235238</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>72.01405378178835</v>
+        <v>57.31227694172289</v>
       </c>
       <c r="K15" t="n">
-        <v>74.16751254660768</v>
+        <v>66.43923316434918</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>10.21114705882356</v>
+        <v>13.86532352941188</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.7209278027374336</v>
+        <v>-2.300622956886443</v>
       </c>
       <c r="N15" t="n">
-        <v>64.42222222222223</v>
+        <v>125.8144444444445</v>
       </c>
       <c r="O15" t="n">
-        <v>103.3438888888889</v>
+        <v>187.9644444444445</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAIRLINK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEBL</t>
+          <t>INIL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>237.99</v>
+        <v>212.76</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>569043</v>
+        <v>1094158</v>
       </c>
       <c r="I16" t="n">
-        <v>28.3289958800762</v>
+        <v>45.18365101546745</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>51.42893932756226</v>
+        <v>64.74785426384507</v>
       </c>
       <c r="K16" t="n">
-        <v>52.03850215953036</v>
+        <v>70.68997228129695</v>
       </c>
       <c r="L16" s="8" t="n">
-        <v>2.089764705882203</v>
+        <v>18.72626470588261</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.1887267237040717</v>
+        <v>-2.300592368094788</v>
       </c>
       <c r="N16" t="n">
-        <v>200.1077777777778</v>
+        <v>162.2638888888889</v>
       </c>
       <c r="O16" t="n">
-        <v>281.4894444444444</v>
+        <v>219.1155555555556</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>LPL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5887,64 +5887,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>87.93000000000001</v>
+        <v>25.32</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>550115</v>
+        <v>514292</v>
       </c>
       <c r="I17" t="n">
-        <v>27.80052063545756</v>
+        <v>25.53321479488029</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>56.58005880182097</v>
+        <v>54.48698797847746</v>
       </c>
       <c r="K17" t="n">
-        <v>60.33427835050772</v>
+        <v>54.73457238592672</v>
       </c>
       <c r="L17" s="8" t="n">
-        <v>3.150882352941139</v>
+        <v>0.6018235294117602</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.490029128388974</v>
+        <v>-0.07892659826361316</v>
       </c>
       <c r="N17" t="n">
-        <v>73.03666666666668</v>
+        <v>20.40888888888889</v>
       </c>
       <c r="O17" t="n">
-        <v>95.11000000000003</v>
+        <v>29.19055555555556</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FABL</t>
+          <t>BIPL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5953,384 +5953,54 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55.09</v>
+        <v>24.6</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
         <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>2522929</v>
+        <v>1110713</v>
       </c>
       <c r="I18" t="n">
-        <v>54.57212869177462</v>
+        <v>28.07645628925059</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>69.36352074681317</v>
+        <v>64.61014530611683</v>
       </c>
       <c r="K18" t="n">
-        <v>72.17193666552606</v>
+        <v>70.7378735992385</v>
       </c>
       <c r="L18" s="8" t="n">
-        <v>9.898764705882357</v>
+        <v>2.024617647058811</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.148394042705892</v>
+        <v>-2.147971360381858</v>
       </c>
       <c r="N18" t="n">
-        <v>39.06888888888889</v>
+        <v>18.55666666666666</v>
       </c>
       <c r="O18" t="n">
-        <v>59.12555555555556</v>
+        <v>25.34</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HUBC</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5305104</v>
-      </c>
-      <c r="I19" t="n">
-        <v>58.88081084235238</v>
-      </c>
-      <c r="J19" s="8" t="n">
-        <v>57.31227694172289</v>
-      </c>
-      <c r="K19" t="n">
-        <v>66.43923316434918</v>
-      </c>
-      <c r="L19" s="8" t="n">
-        <v>13.86532352941188</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-2.300622956886443</v>
-      </c>
-      <c r="N19" t="n">
-        <v>125.8144444444445</v>
-      </c>
-      <c r="O19" t="n">
-        <v>187.9644444444445</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INIL</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>212.76</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1094158</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45.18365101546745</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>64.74785426384507</v>
-      </c>
-      <c r="K20" t="n">
-        <v>70.68997228129695</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v>18.72626470588261</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-2.300592368094788</v>
-      </c>
-      <c r="N20" t="n">
-        <v>162.2638888888889</v>
-      </c>
-      <c r="O20" t="n">
-        <v>219.1155555555556</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LPL</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12</v>
-      </c>
-      <c r="H21" t="n">
-        <v>514292</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25.53321479488029</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>54.48698797847746</v>
-      </c>
-      <c r="K21" t="n">
-        <v>54.73457238592672</v>
-      </c>
-      <c r="L21" s="8" t="n">
-        <v>0.6018235294117602</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-0.07892659826361316</v>
-      </c>
-      <c r="N21" t="n">
-        <v>20.40888888888889</v>
-      </c>
-      <c r="O21" t="n">
-        <v>29.19055555555556</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BIPL</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" t="n">
-        <v>14</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1110713</v>
-      </c>
-      <c r="I22" t="n">
-        <v>28.07645628925059</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>64.61014530611683</v>
-      </c>
-      <c r="K22" t="n">
-        <v>70.7378735992385</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v>2.024617647058811</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-2.147971360381858</v>
-      </c>
-      <c r="N22" t="n">
-        <v>18.55666666666666</v>
-      </c>
-      <c r="O22" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
           <t>https://www.tradingview.com/symbols/PSX-BIPL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SAZEW</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>STRONG_BUY</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1134.42</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>17</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3094488</v>
-      </c>
-      <c r="I23" t="n">
-        <v>47.62913771462846</v>
-      </c>
-      <c r="J23" s="8" t="n">
-        <v>86.47512910795623</v>
-      </c>
-      <c r="K23" t="n">
-        <v>84.97628066349709</v>
-      </c>
-      <c r="L23" s="8" t="n">
-        <v>156.6078235294119</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3.715555230485116</v>
-      </c>
-      <c r="N23" t="n">
-        <v>690.2177777777778</v>
-      </c>
-      <c r="O23" t="n">
-        <v>933.4094444444444</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASAZEW</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SAZEW/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SAZEW/technicals/</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,1255 +6131,199 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KOHC</t>
+          <t>SITC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>277.67</v>
+        <v>312.41</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>586102</v>
+        <v>265</v>
       </c>
       <c r="I2" t="n">
-        <v>45.96840354445689</v>
+        <v>22.9393221422809</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>75.96599585177277</v>
+        <v>50.10627042764323</v>
       </c>
       <c r="K2" t="n">
-        <v>79.14158399414431</v>
+        <v>51.63959218797292</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>43.25955882352952</v>
+        <v>7.1487647058824</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8321428571428514</v>
+        <v>-0.8222222222222143</v>
       </c>
       <c r="N2" t="n">
-        <v>194.6172222222222</v>
+        <v>251.2394444444444</v>
       </c>
       <c r="O2" t="n">
-        <v>282.6172222222222</v>
+        <v>403.4061111111111</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASITC</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-SITC/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-SITC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CPHL</t>
+          <t>LUCK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31.95</v>
+        <v>910.45</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1697677</v>
+        <v>70321</v>
       </c>
       <c r="I3" t="n">
-        <v>24.98440791809918</v>
+        <v>20.81187897231441</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>61.21963527856168</v>
+        <v>51.5434482072546</v>
       </c>
       <c r="K3" t="n">
-        <v>64.70382229713717</v>
+        <v>57.36016186382696</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>2.844176470588174</v>
+        <v>16.70129411764685</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.510480887792844</v>
+        <v>-1.453651989435852</v>
       </c>
       <c r="N3" t="n">
-        <v>26.43444444444445</v>
+        <v>838.4505555555555</v>
       </c>
       <c r="O3" t="n">
-        <v>30.44944444444444</v>
+        <v>1003.450555555556</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPHL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALUCK</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LUCK/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LUCK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.81409944977</v>
+        <v>45483.83657231266</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PABC</t>
+          <t>MEBL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75.98999999999999</v>
+        <v>237.99</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>1029315</v>
+        <v>569043</v>
       </c>
       <c r="I4" t="n">
-        <v>20.31190401707754</v>
+        <v>28.3289958800762</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>62.74527517100422</v>
+        <v>51.42893932756226</v>
       </c>
       <c r="K4" t="n">
-        <v>61.44243158837864</v>
+        <v>52.03850215953036</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>2.090647058823606</v>
+        <v>2.089764705882203</v>
       </c>
       <c r="M4" t="n">
-        <v>0.769128762763557</v>
+        <v>-0.1887267237040717</v>
       </c>
       <c r="N4" t="n">
-        <v>67.55555555555556</v>
+        <v>200.1077777777778</v>
       </c>
       <c r="O4" t="n">
-        <v>78.55555555555556</v>
+        <v>281.4894444444444</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APABC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PAEL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5599157</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16.97528834220062</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>51.00091281209864</v>
-      </c>
-      <c r="K5" t="n">
-        <v>56.60698881510402</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>0.9227941176470438</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-2.337164750957866</v>
-      </c>
-      <c r="N5" t="n">
-        <v>22.30833333333334</v>
-      </c>
-      <c r="O5" t="n">
-        <v>27.27666666666667</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APAEL</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PIOC</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>178.75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>118668</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.97168692097832</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>66.43928143411412</v>
-      </c>
-      <c r="K6" t="n">
-        <v>70.81171884051835</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>14.27126470588234</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-1.237637438532521</v>
-      </c>
-      <c r="N6" t="n">
-        <v>135.0205555555556</v>
-      </c>
-      <c r="O6" t="n">
-        <v>188.9938888888889</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OLPM</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>66527</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20.59248510920501</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>55.06311559956592</v>
-      </c>
-      <c r="K7" t="n">
-        <v>55.06311559956592</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>0.4313823529411671</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12.53222222222222</v>
-      </c>
-      <c r="O7" t="n">
-        <v>14.86055555555556</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOLPM</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-OLPM/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-OLPM/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TGL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>116.06</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>168359</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37.321931890146</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>53.20552127078303</v>
-      </c>
-      <c r="K8" t="n">
-        <v>56.54715548848657</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>2.703323529411662</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-0.8796652147920412</v>
-      </c>
-      <c r="N8" t="n">
-        <v>96.84166666666668</v>
-      </c>
-      <c r="O8" t="n">
-        <v>133.875</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATGL</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PPL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>120.82</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2447648</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17.79431331633835</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>51.44602482716887</v>
-      </c>
-      <c r="K9" t="n">
-        <v>57.89757356806936</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>3.2974705882352</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-2.10662777507698</v>
-      </c>
-      <c r="N9" t="n">
-        <v>104.405</v>
-      </c>
-      <c r="O9" t="n">
-        <v>128.99</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OGDC</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>133.13</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3920835</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.83098798182668</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>50.63045725658272</v>
-      </c>
-      <c r="K10" t="n">
-        <v>52.88804817439503</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>1.973558823529515</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.797317436661694</v>
-      </c>
-      <c r="N10" t="n">
-        <v>112.6672222222222</v>
-      </c>
-      <c r="O10" t="n">
-        <v>149.4988888888889</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FHAM</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15906</v>
-      </c>
-      <c r="I11" t="n">
-        <v>24.59580430098427</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>56.9578228376124</v>
-      </c>
-      <c r="K11" t="n">
-        <v>60.08914027669686</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>0.4724705882352929</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-0.6060606060606146</v>
-      </c>
-      <c r="N11" t="n">
-        <v>14.98944444444445</v>
-      </c>
-      <c r="O11" t="n">
-        <v>16.95111111111111</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFHAM</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-FHAM/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-FHAM/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PHDL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>679.55</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>999980</v>
-      </c>
-      <c r="I12" t="n">
-        <v>43.50505576760017</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>81.64171160372202</v>
-      </c>
-      <c r="K12" t="n">
-        <v>88.13494446260752</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>147.250852941176</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-2.397161898196032</v>
-      </c>
-      <c r="N12" t="n">
-        <v>359.2011111111112</v>
-      </c>
-      <c r="O12" t="n">
-        <v>714.6844444444445</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>EFERT</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>167.68</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13</v>
-      </c>
-      <c r="H13" t="n">
-        <v>343917</v>
-      </c>
-      <c r="I13" t="n">
-        <v>34.45297992055669</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <v>59.08768870734961</v>
-      </c>
-      <c r="K13" t="n">
-        <v>62.12765718104404</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>6.197911764705822</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-0.5869449220371025</v>
-      </c>
-      <c r="N13" t="n">
-        <v>148.2594444444445</v>
-      </c>
-      <c r="O13" t="n">
-        <v>180.0127777777778</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ISL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>87.93000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-      <c r="H14" t="n">
-        <v>550115</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27.80052063545756</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>56.58005880182097</v>
-      </c>
-      <c r="K14" t="n">
-        <v>60.33427835050772</v>
-      </c>
-      <c r="L14" s="8" t="n">
-        <v>3.150882352941139</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-1.490029128388974</v>
-      </c>
-      <c r="N14" t="n">
-        <v>73.03666666666668</v>
-      </c>
-      <c r="O14" t="n">
-        <v>95.11000000000003</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>FABL</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>55.09</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2522929</v>
-      </c>
-      <c r="I15" t="n">
-        <v>54.57212869177462</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>69.36352074681317</v>
-      </c>
-      <c r="K15" t="n">
-        <v>72.17193666552606</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v>9.898764705882357</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-1.148394042705892</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39.06888888888889</v>
-      </c>
-      <c r="O15" t="n">
-        <v>59.12555555555556</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HUBC</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5305104</v>
-      </c>
-      <c r="I16" t="n">
-        <v>58.88081084235238</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>57.31227694172289</v>
-      </c>
-      <c r="K16" t="n">
-        <v>66.43923316434918</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>13.86532352941188</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-2.300622956886443</v>
-      </c>
-      <c r="N16" t="n">
-        <v>125.8144444444445</v>
-      </c>
-      <c r="O16" t="n">
-        <v>187.9644444444445</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INIL</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>212.76</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1094158</v>
-      </c>
-      <c r="I17" t="n">
-        <v>45.18365101546745</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>64.74785426384507</v>
-      </c>
-      <c r="K17" t="n">
-        <v>70.68997228129695</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>18.72626470588261</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-2.300592368094788</v>
-      </c>
-      <c r="N17" t="n">
-        <v>162.2638888888889</v>
-      </c>
-      <c r="O17" t="n">
-        <v>219.1155555555556</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LPL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12</v>
-      </c>
-      <c r="H18" t="n">
-        <v>514292</v>
-      </c>
-      <c r="I18" t="n">
-        <v>25.53321479488029</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v>54.48698797847746</v>
-      </c>
-      <c r="K18" t="n">
-        <v>54.73457238592672</v>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>0.6018235294117602</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-0.07892659826361316</v>
-      </c>
-      <c r="N18" t="n">
-        <v>20.40888888888889</v>
-      </c>
-      <c r="O18" t="n">
-        <v>29.19055555555556</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BIPL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1110713</v>
-      </c>
-      <c r="I19" t="n">
-        <v>28.07645628925059</v>
-      </c>
-      <c r="J19" s="8" t="n">
-        <v>64.61014530611683</v>
-      </c>
-      <c r="K19" t="n">
-        <v>70.7378735992385</v>
-      </c>
-      <c r="L19" s="8" t="n">
-        <v>2.024617647058811</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-2.147971360381858</v>
-      </c>
-      <c r="N19" t="n">
-        <v>18.55666666666666</v>
-      </c>
-      <c r="O19" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-BIPL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="n">
-        <v>45483.81409944977</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HALEON</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>309.95</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14</v>
-      </c>
-      <c r="H20" t="n">
-        <v>20569</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19.26912944610719</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>65.30205081560976</v>
-      </c>
-      <c r="K20" t="n">
-        <v>64.83398111909142</v>
-      </c>
-      <c r="L20" s="8" t="n">
-        <v>27.61770588235282</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.3334196555742499</v>
-      </c>
-      <c r="N20" t="n">
-        <v>237.8538888888889</v>
-      </c>
-      <c r="O20" t="n">
-        <v>329.5388888888889</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHALEON</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HALEON/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HALEON/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
         </is>
       </c>
     </row>
@@ -7735,7 +6349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7835,6 +6449,534 @@
       <c r="R1" s="5" t="inlineStr">
         <is>
           <t>Technicals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COLG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1189.71</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5679</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45.39593336067106</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>30.08438758838442</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28.61709904124322</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>-59.5661764705867</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1894800666969835</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1061.721666666667</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1362.296666666666</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACOLG</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-COLG/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-COLG/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MARI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2670.93</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11593</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.02204428480296</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>47.09431240523677</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.07712887498585</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>-13.04997058823756</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00411858530337771</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2412.076666666667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2941.91</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMARI</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-MARI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-MARI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>611.15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>172411</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26.87638166927452</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>37.44034964211425</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.06625156846526</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>-7.686529411765491</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.888786487216573</v>
+      </c>
+      <c r="N4" t="n">
+        <v>582.9072222222222</v>
+      </c>
+      <c r="O4" t="n">
+        <v>694.8138888888889</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMTL</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-MTL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-MTL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SGF</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>118390</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22.57557286226506</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>32.97182474853152</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36.79022118626042</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>-6.402500000000046</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.289639381797359</v>
+      </c>
+      <c r="N5" t="n">
+        <v>65.24388888888889</v>
+      </c>
+      <c r="O5" t="n">
+        <v>89.88388888888888</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASGF</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-SGF/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-SGF/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AGTL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>349.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7270</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.99819040264111</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>45.66638905540498</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46.14819282235061</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>-2.385676470588749</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.08571673476385364</v>
+      </c>
+      <c r="N6" t="n">
+        <v>324.2377777777778</v>
+      </c>
+      <c r="O6" t="n">
+        <v>373.2427777777778</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAGTL</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-AGTL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-AGTL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRSM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.55703789568202</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>36.16835577410773</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36.16835577410773</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>-6.553999999999753</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>47.07333333333332</v>
+      </c>
+      <c r="O7" t="n">
+        <v>60.87833333333333</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFRSM</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FRSM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FRSM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>THALL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>430.02</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3531</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24.80034541338028</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>43.66474251117698</v>
+      </c>
+      <c r="K8" t="n">
+        <v>47.97199637955811</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>-8.931411764705558</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.908105667193497</v>
+      </c>
+      <c r="N8" t="n">
+        <v>371.305</v>
+      </c>
+      <c r="O8" t="n">
+        <v>554.6199999999999</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATHALL</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-THALL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-THALL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WTL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20107488</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.14047160946565</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>41.27865559757308</v>
+      </c>
+      <c r="K9" t="n">
+        <v>38.72897597043073</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>-0.05591176470588288</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8064516129032264</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.113333333333333</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.443333333333333</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AWTL</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-WTL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-WTL/technicals/</t>
         </is>
       </c>
     </row>
@@ -7860,7 +7002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7960,6 +7102,402 @@
       <c r="R1" s="5" t="inlineStr">
         <is>
           <t>Technicals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MACTER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>STRONG_SELL</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.31021067164274</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>44.02442756124596</v>
+      </c>
+      <c r="K2" t="n">
+        <v>43.91788806198672</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>1.558970588235255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04444444444445139</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80.09111111111112</v>
+      </c>
+      <c r="O2" t="n">
+        <v>106.4361111111111</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMACTER</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-MACTER/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-MACTER/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ICL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8749</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.20108551771042</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>44.08503228640882</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46.31294756481805</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0.07426470588237066</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.8374830239927512</v>
+      </c>
+      <c r="N3" t="n">
+        <v>38.25444444444445</v>
+      </c>
+      <c r="O3" t="n">
+        <v>53.65444444444444</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AICL</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-ICL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-ICL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CPPL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21857</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.91398732271113</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>46.32608790503614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.57385194845528</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>0.02867647058825185</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.4117993108664551</v>
+      </c>
+      <c r="N4" t="n">
+        <v>108.5983333333334</v>
+      </c>
+      <c r="O4" t="n">
+        <v>128.16</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPPL</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-CPPL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-CPPL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FATIMA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>234766</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25.02223926367896</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>48.4905882592903</v>
+      </c>
+      <c r="K5" t="n">
+        <v>56.299536361525</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>2.017558823529448</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.770296267795302</v>
+      </c>
+      <c r="N5" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFATIMA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FATIMA/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FATIMA/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PPP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>74.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12088</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.93252690177482</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>49.7569378194056</v>
+      </c>
+      <c r="K6" t="n">
+        <v>54.75730307633658</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>1.918558823529395</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.82733050847457</v>
+      </c>
+      <c r="N6" t="n">
+        <v>68.18388888888889</v>
+      </c>
+      <c r="O6" t="n">
+        <v>81.43888888888888</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPP</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-PPP/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-PPP/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
+        <v>45483.83657231266</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SURC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>130.06</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>243</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.74515278582335</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>43.95518810887903</v>
+      </c>
+      <c r="K7" t="n">
+        <v>48.87341950916313</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>1.909911764705896</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-2.364687335785606</v>
+      </c>
+      <c r="N7" t="n">
+        <v>120.1666666666667</v>
+      </c>
+      <c r="O7" t="n">
+        <v>153.1666666666667</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASURC</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-SURC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-SURC/technicals/</t>
         </is>
       </c>
     </row>

--- a/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
+++ b/D-Advance_Technical_Analysis_KMI100_STRONG_BUY.xlsx
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -676,44 +676,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90.04000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>616</v>
+        <v>2520</v>
       </c>
       <c r="I2" t="n">
-        <v>10.31021067164274</v>
+        <v>10.75914774278964</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>44.02442756124596</v>
+        <v>52.49157216708976</v>
       </c>
       <c r="K2" t="n">
-        <v>43.91788806198672</v>
+        <v>45.12476081624353</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>1.558970588235255</v>
+        <v>-0.09885294117653132</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04444444444445139</v>
+        <v>4.174067495559509</v>
       </c>
       <c r="N2" t="n">
-        <v>80.09111111111112</v>
+        <v>87.06033000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>106.4361111111111</v>
+        <v>99.73467000000001</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -742,44 +742,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>125.28</v>
+        <v>129.54</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>45198</v>
+        <v>40664</v>
       </c>
       <c r="I3" t="n">
-        <v>32.76872583667819</v>
+        <v>39.71162544771683</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>30.37775913319594</v>
+        <v>49.3196086578565</v>
       </c>
       <c r="K3" t="n">
-        <v>40.04736740137073</v>
+        <v>35.61451934080308</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>-13.99835294117668</v>
+        <v>-16.54867647058842</v>
       </c>
       <c r="M3" t="n">
-        <v>-9.49938597124901</v>
+        <v>9.919389053882051</v>
       </c>
       <c r="N3" t="n">
-        <v>93.12555555555555</v>
+        <v>115.10078</v>
       </c>
       <c r="O3" t="n">
-        <v>183.7288888888889</v>
+        <v>158.68922</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -808,44 +808,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43.81</v>
+        <v>45.08</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>8749</v>
+        <v>66283</v>
       </c>
       <c r="I4" t="n">
-        <v>43.20108551771042</v>
+        <v>29.48743298635461</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>44.08503228640882</v>
+        <v>50.72105359956613</v>
       </c>
       <c r="K4" t="n">
-        <v>46.31294756481805</v>
+        <v>54.90494944064777</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.07426470588237066</v>
+        <v>0.3610588235294401</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.8374830239927512</v>
+        <v>-1.248630887185105</v>
       </c>
       <c r="N4" t="n">
-        <v>38.25444444444445</v>
+        <v>42.46560000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>53.65444444444444</v>
+        <v>49.87440000000001</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -874,44 +874,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.859999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5016478</v>
+        <v>771049</v>
       </c>
       <c r="I5" t="n">
-        <v>17.02841560676567</v>
+        <v>17.36128273961036</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>48.34544104365271</v>
+        <v>29.33921626363467</v>
       </c>
       <c r="K5" t="n">
-        <v>44.12636989881826</v>
+        <v>32.07106889542652</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>-0.2012352941177369</v>
+        <v>-0.6492647058824392</v>
       </c>
       <c r="M5" t="n">
-        <v>1.336073997944491</v>
+        <v>-1.674107142857147</v>
       </c>
       <c r="N5" t="n">
-        <v>8.707222222222223</v>
+        <v>9.259789999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>11.10888888888889</v>
+        <v>10.41521</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -940,44 +940,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20.23</v>
+        <v>24.15</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>224183</v>
+        <v>79898</v>
       </c>
       <c r="I6" t="n">
-        <v>30.73140543580916</v>
+        <v>52.22233639312612</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>64.31171952233328</v>
+        <v>57.98015324855569</v>
       </c>
       <c r="K6" t="n">
-        <v>59.77654959241123</v>
+        <v>65.87379644329562</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>0.8938235294117938</v>
+        <v>5.333794117647081</v>
       </c>
       <c r="M6" t="n">
-        <v>1.914357682619642</v>
+        <v>-5.368338557993734</v>
       </c>
       <c r="N6" t="n">
-        <v>16.52944444444445</v>
+        <v>18.00638</v>
       </c>
       <c r="O6" t="n">
-        <v>21.69944444444444</v>
+        <v>20.49362</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1006,44 +1006,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>277.67</v>
+        <v>255.5</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>586102</v>
+        <v>10559</v>
       </c>
       <c r="I7" t="n">
-        <v>45.96840354445689</v>
+        <v>26.95404042844035</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>75.96599585177277</v>
+        <v>46.50874035451348</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14158399414431</v>
+        <v>47.78635445830488</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>43.25955882352952</v>
+        <v>6.430382352941365</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.8321428571428514</v>
+        <v>-0.5139786620979648</v>
       </c>
       <c r="N7" t="n">
-        <v>194.6172222222222</v>
+        <v>219.597</v>
       </c>
       <c r="O7" t="n">
-        <v>282.6172222222222</v>
+        <v>261.933</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1076,40 +1076,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31.95</v>
+        <v>30.25</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1697677</v>
+        <v>2817770</v>
       </c>
       <c r="I8" t="n">
-        <v>24.98440791809918</v>
+        <v>19.88071374402631</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>61.21963527856168</v>
+        <v>51.60865532975167</v>
       </c>
       <c r="K8" t="n">
-        <v>64.70382229713717</v>
+        <v>51.41281736413153</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>2.844176470588174</v>
+        <v>-0.2396470588235964</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.510480887792844</v>
+        <v>0.09927200529451072</v>
       </c>
       <c r="N8" t="n">
-        <v>26.43444444444445</v>
+        <v>27.48671</v>
       </c>
       <c r="O8" t="n">
-        <v>30.44944444444444</v>
+        <v>29.41829</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1142,40 +1142,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1189.71</v>
+        <v>1180.5</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>5679</v>
+        <v>44499</v>
       </c>
       <c r="I9" t="n">
-        <v>45.39593336067106</v>
+        <v>49.97183880391036</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>30.08438758838442</v>
+        <v>30.87704652683239</v>
       </c>
       <c r="K9" t="n">
-        <v>28.61709904124322</v>
+        <v>31.08285557006569</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>-59.5661764705867</v>
+        <v>-19.57805882352773</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1894800666969835</v>
+        <v>-0.03217939164014202</v>
       </c>
       <c r="N9" t="n">
-        <v>1061.721666666667</v>
+        <v>1141.14555</v>
       </c>
       <c r="O9" t="n">
-        <v>1362.296666666666</v>
+        <v>1285.74945</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1204,44 +1204,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>98.01000000000001</v>
+        <v>105.96</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>9976</v>
+        <v>21315</v>
       </c>
       <c r="I10" t="n">
-        <v>12.53222608281006</v>
+        <v>29.68435472835746</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>37.69939387654627</v>
+        <v>50.73424284190936</v>
       </c>
       <c r="K10" t="n">
-        <v>40.66640686111315</v>
+        <v>52.36232612695182</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>-4.51161764705877</v>
+        <v>3.940823529411801</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.099899091826427</v>
+        <v>-0.9812167087188218</v>
       </c>
       <c r="N10" t="n">
-        <v>94.97222222222221</v>
+        <v>98.72199999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>109.6388888888889</v>
+        <v>105.778</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1270,44 +1270,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>118.5</v>
+        <v>115.1</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>21857</v>
+        <v>2233</v>
       </c>
       <c r="I11" t="n">
-        <v>14.91398732271113</v>
+        <v>21.77126437525768</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>46.32608790503614</v>
+        <v>40.74444461805281</v>
       </c>
       <c r="K11" t="n">
-        <v>47.57385194845528</v>
+        <v>43.4445178690936</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02867647058825185</v>
+        <v>-2.630176470588239</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.4117993108664551</v>
+        <v>-0.91253443526171</v>
       </c>
       <c r="N11" t="n">
-        <v>108.5983333333334</v>
+        <v>113.61203</v>
       </c>
       <c r="O11" t="n">
-        <v>128.16</v>
+        <v>123.02297</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1336,44 +1336,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>312.41</v>
+        <v>310</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="I12" t="n">
-        <v>22.9393221422809</v>
+        <v>17.90477738067311</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>50.10627042764323</v>
+        <v>49.71785312466608</v>
       </c>
       <c r="K12" t="n">
-        <v>51.63959218797292</v>
+        <v>44.13582653957415</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>7.1487647058824</v>
+        <v>-11.60229411764692</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.8222222222222143</v>
+        <v>2.649006622516556</v>
       </c>
       <c r="N12" t="n">
-        <v>251.2394444444444</v>
+        <v>293.812</v>
       </c>
       <c r="O12" t="n">
-        <v>403.4061111111111</v>
+        <v>367.018</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1406,40 +1406,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75.98999999999999</v>
+        <v>76.19</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
         <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>1029315</v>
+        <v>194190</v>
       </c>
       <c r="I13" t="n">
-        <v>20.31190401707754</v>
+        <v>30.30140631222456</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>62.74527517100422</v>
+        <v>58.7336573588659</v>
       </c>
       <c r="K13" t="n">
-        <v>61.44243158837864</v>
+        <v>55.54902761095347</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>2.090647058823606</v>
+        <v>2.110441176470658</v>
       </c>
       <c r="M13" t="n">
-        <v>0.769128762763557</v>
+        <v>1.329964090969544</v>
       </c>
       <c r="N13" t="n">
-        <v>67.55555555555556</v>
+        <v>70.554</v>
       </c>
       <c r="O13" t="n">
-        <v>78.55555555555556</v>
+        <v>75.846</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1472,40 +1472,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25.49</v>
+        <v>26.18</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>5599157</v>
+        <v>5056160</v>
       </c>
       <c r="I14" t="n">
-        <v>16.97528834220062</v>
+        <v>19.51593367963017</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>51.00091281209864</v>
+        <v>51.41623050656448</v>
       </c>
       <c r="K14" t="n">
-        <v>56.60698881510402</v>
+        <v>54.53473216561273</v>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.9227941176470438</v>
+        <v>0.5512941176470427</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.337164750957866</v>
+        <v>-1.800450112528134</v>
       </c>
       <c r="N14" t="n">
-        <v>22.30833333333334</v>
+        <v>23.58239</v>
       </c>
       <c r="O14" t="n">
-        <v>27.27666666666667</v>
+        <v>25.97261</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1534,44 +1534,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>178.75</v>
+        <v>173.82</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>118668</v>
+        <v>145792</v>
       </c>
       <c r="I15" t="n">
-        <v>26.97168692097832</v>
+        <v>15.52917106766364</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>66.43928143411412</v>
+        <v>51.98581450305678</v>
       </c>
       <c r="K15" t="n">
-        <v>70.81171884051835</v>
+        <v>58.24346095793823</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>14.27126470588234</v>
+        <v>4.800411764705814</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.237637438532521</v>
+        <v>-2.144907954737377</v>
       </c>
       <c r="N15" t="n">
-        <v>135.0205555555556</v>
+        <v>150.23196</v>
       </c>
       <c r="O15" t="n">
-        <v>188.9938888888889</v>
+        <v>176.19804</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1604,40 +1604,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>92.05</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>16.00982630511794</v>
+        <v>19.31644470581593</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>73.84670241497483</v>
+        <v>68.9349738379927</v>
       </c>
       <c r="K16" t="n">
-        <v>73.84670241497484</v>
+        <v>68.9349738379927</v>
       </c>
       <c r="L16" s="8" t="n">
-        <v>11.91858823529405</v>
+        <v>15.74773529411758</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>60.57388888888888</v>
+        <v>66.8412</v>
       </c>
       <c r="O16" t="n">
-        <v>82.20722222222223</v>
+        <v>77.24879999999999</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1670,40 +1670,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2670.93</v>
+        <v>2658.89</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>11593</v>
+        <v>19712</v>
       </c>
       <c r="I17" t="n">
-        <v>16.02204428480296</v>
+        <v>18.45995574879156</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>47.09431240523677</v>
+        <v>46.08935038156399</v>
       </c>
       <c r="K17" t="n">
-        <v>47.07712887498585</v>
+        <v>45.5100984200667</v>
       </c>
       <c r="L17" s="8" t="n">
-        <v>-13.04997058823756</v>
+        <v>1.672029411762651</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00411858530337771</v>
+        <v>0.1140873389410491</v>
       </c>
       <c r="N17" t="n">
-        <v>2412.076666666667</v>
+        <v>2555.971</v>
       </c>
       <c r="O17" t="n">
-        <v>2941.91</v>
+        <v>2810.869000000001</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1732,44 +1732,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>255.02</v>
+        <v>239.05</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>44489</v>
+        <v>54771</v>
       </c>
       <c r="I18" t="n">
-        <v>14.7509210204534</v>
+        <v>15.27684323752017</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>63.55298266266505</v>
+        <v>42.16605656736457</v>
       </c>
       <c r="K18" t="n">
-        <v>61.22588421011068</v>
+        <v>45.16471517802739</v>
       </c>
       <c r="L18" s="8" t="n">
-        <v>9.375794117647104</v>
+        <v>-2.04202941176473</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9580364212193253</v>
+        <v>-1.337240496925164</v>
       </c>
       <c r="N18" t="n">
-        <v>214.9372222222222</v>
+        <v>230.784</v>
       </c>
       <c r="O18" t="n">
-        <v>271.7705555555555</v>
+        <v>258.126</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1802,40 +1802,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>14.06</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>66527</v>
+        <v>1164</v>
       </c>
       <c r="I19" t="n">
-        <v>20.59248510920501</v>
+        <v>28.14358604385334</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>55.06311559956592</v>
+        <v>51.63467206038906</v>
       </c>
       <c r="K19" t="n">
-        <v>55.06311559956592</v>
+        <v>53.73103264135231</v>
       </c>
       <c r="L19" s="8" t="n">
-        <v>0.4313823529411671</v>
+        <v>0.1769999999999889</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.6360424028268541</v>
       </c>
       <c r="N19" t="n">
-        <v>12.53222222222222</v>
+        <v>13.12243</v>
       </c>
       <c r="O19" t="n">
-        <v>14.86055555555556</v>
+        <v>14.24257</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1864,44 +1864,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>910.45</v>
+        <v>895.34</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>70321</v>
+        <v>48696</v>
       </c>
       <c r="I20" t="n">
-        <v>20.81187897231441</v>
+        <v>13.30548205400278</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>51.5434482072546</v>
+        <v>43.66919431829104</v>
       </c>
       <c r="K20" t="n">
-        <v>57.36016186382696</v>
+        <v>46.90927479436844</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v>16.70129411764685</v>
+        <v>-10.27835294117676</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.453651989435852</v>
+        <v>-0.8098377001052396</v>
       </c>
       <c r="N20" t="n">
-        <v>838.4505555555555</v>
+        <v>878.675</v>
       </c>
       <c r="O20" t="n">
-        <v>1003.450555555556</v>
+        <v>958.0550000000001</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1930,44 +1930,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>116.06</v>
+        <v>116.13</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
         <v>10</v>
       </c>
-      <c r="G21" t="n">
-        <v>11</v>
-      </c>
       <c r="H21" t="n">
-        <v>168359</v>
+        <v>82646</v>
       </c>
       <c r="I21" t="n">
-        <v>37.321931890146</v>
+        <v>24.38061647448842</v>
       </c>
       <c r="J21" s="8" t="n">
-        <v>53.20552127078303</v>
+        <v>49.94927157977676</v>
       </c>
       <c r="K21" t="n">
-        <v>56.54715548848657</v>
+        <v>51.85898656771979</v>
       </c>
       <c r="L21" s="8" t="n">
-        <v>2.703323529411662</v>
+        <v>0.5248823529410629</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.8796652147920412</v>
+        <v>-0.5651168764449103</v>
       </c>
       <c r="N21" t="n">
-        <v>96.84166666666668</v>
+        <v>106.6668</v>
       </c>
       <c r="O21" t="n">
-        <v>133.875</v>
+        <v>124.4832</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78.13</v>
+        <v>87.3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" t="n">
-        <v>243272</v>
+        <v>142833</v>
       </c>
       <c r="I22" t="n">
-        <v>21.21899254831918</v>
+        <v>32.79892774177031</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>59.61951472937514</v>
+        <v>61.48900408508876</v>
       </c>
       <c r="K22" t="n">
-        <v>52.72079572331086</v>
+        <v>64.10757774316107</v>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2789999999999822</v>
+        <v>8.429323529411732</v>
       </c>
       <c r="M22" t="n">
-        <v>3.16915357190016</v>
+        <v>-1.422764227642282</v>
       </c>
       <c r="N22" t="n">
-        <v>63.93444444444444</v>
+        <v>68.59578999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>82.83611111111111</v>
+        <v>77.68921</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2062,44 +2062,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>120.82</v>
+        <v>113.4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>2447648</v>
+        <v>2010746</v>
       </c>
       <c r="I23" t="n">
-        <v>17.79431331633835</v>
+        <v>18.15415904147476</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>51.44602482716887</v>
+        <v>39.34784409718056</v>
       </c>
       <c r="K23" t="n">
-        <v>57.89757356806936</v>
+        <v>40.53387346989155</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v>3.2974705882352</v>
+        <v>-3.647411764705978</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.10662777507698</v>
+        <v>-0.5612065941774821</v>
       </c>
       <c r="N23" t="n">
-        <v>104.405</v>
+        <v>110.85869</v>
       </c>
       <c r="O23" t="n">
-        <v>128.99</v>
+        <v>122.68631</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2128,44 +2128,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>133.13</v>
+        <v>131.66</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>3920835</v>
+        <v>3516742</v>
       </c>
       <c r="I24" t="n">
-        <v>16.83098798182668</v>
+        <v>12.66913952621908</v>
       </c>
       <c r="J24" s="8" t="n">
-        <v>50.63045725658272</v>
+        <v>48.72385363146403</v>
       </c>
       <c r="K24" t="n">
-        <v>52.88804817439503</v>
+        <v>50.64025468344099</v>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.973558823529515</v>
+        <v>0.02041176470601158</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.797317436661694</v>
+        <v>-0.7762453839776933</v>
       </c>
       <c r="N24" t="n">
-        <v>112.6672222222222</v>
+        <v>123.00281</v>
       </c>
       <c r="O24" t="n">
-        <v>149.4988888888889</v>
+        <v>140.72219</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2194,44 +2194,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>611.15</v>
+        <v>633.8</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H25" t="n">
-        <v>172411</v>
+        <v>111449</v>
       </c>
       <c r="I25" t="n">
-        <v>26.87638166927452</v>
+        <v>17.25470036694927</v>
       </c>
       <c r="J25" s="8" t="n">
-        <v>37.44034964211425</v>
+        <v>55.13171235060787</v>
       </c>
       <c r="K25" t="n">
-        <v>47.06625156846526</v>
+        <v>51.22527367276994</v>
       </c>
       <c r="L25" s="8" t="n">
-        <v>-7.686529411765491</v>
+        <v>-11.05444117647153</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.888786487216573</v>
+        <v>1.110331184991373</v>
       </c>
       <c r="N25" t="n">
-        <v>582.9072222222222</v>
+        <v>611.43636</v>
       </c>
       <c r="O25" t="n">
-        <v>694.8138888888889</v>
+        <v>665.27364</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2260,44 +2260,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>121.77</v>
+        <v>196.17</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
         <v>16</v>
       </c>
       <c r="H26" t="n">
-        <v>10983</v>
+        <v>74495</v>
       </c>
       <c r="I26" t="n">
-        <v>13.29597082712348</v>
+        <v>45.1249764689811</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>83.98278735582539</v>
+        <v>84.29959569142754</v>
       </c>
       <c r="K26" t="n">
-        <v>77.64620276819375</v>
+        <v>83.67321400131195</v>
       </c>
       <c r="L26" s="8" t="n">
-        <v>7.654588235294412</v>
+        <v>58.90329411764725</v>
       </c>
       <c r="M26" t="n">
-        <v>9.495548961424335</v>
+        <v>1.71099704464146</v>
       </c>
       <c r="N26" t="n">
-        <v>84.15111111111112</v>
+        <v>88.93265000000002</v>
       </c>
       <c r="O26" t="n">
-        <v>104.0427777777778</v>
+        <v>98.50235000000001</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2326,44 +2326,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>665.92</v>
+        <v>639.71</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>227283</v>
+        <v>112273</v>
       </c>
       <c r="I27" t="n">
-        <v>37.20957533611482</v>
+        <v>36.42953654158451</v>
       </c>
       <c r="J27" s="8" t="n">
-        <v>85.53275775253466</v>
+        <v>66.55354325742826</v>
       </c>
       <c r="K27" t="n">
-        <v>82.90426397979073</v>
+        <v>64.42006101985206</v>
       </c>
       <c r="L27" s="8" t="n">
-        <v>63.90150000000062</v>
+        <v>64.44435294117716</v>
       </c>
       <c r="M27" t="n">
-        <v>5.089399845345369</v>
+        <v>1.541269841269847</v>
       </c>
       <c r="N27" t="n">
-        <v>418.4155555555555</v>
+        <v>453.995</v>
       </c>
       <c r="O27" t="n">
-        <v>555.9155555555554</v>
+        <v>520.145</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2392,44 +2392,44 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27.92</v>
+        <v>27.69</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>231923</v>
+        <v>118691</v>
       </c>
       <c r="I28" t="n">
-        <v>14.11124628344195</v>
+        <v>25.19217611536643</v>
       </c>
       <c r="J28" s="8" t="n">
-        <v>46.49553733187583</v>
+        <v>48.5707547196514</v>
       </c>
       <c r="K28" t="n">
-        <v>50.10278007230873</v>
+        <v>46.06689325834755</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v>-0.1164705882351704</v>
+        <v>-0.4924411764704679</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.5343783398646191</v>
+        <v>0.3988397389412726</v>
       </c>
       <c r="N28" t="n">
-        <v>26.79222222222223</v>
+        <v>27.42243000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>29.12055555555557</v>
+        <v>28.54257000000001</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2462,40 +2462,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>15906</v>
+        <v>10856</v>
       </c>
       <c r="I29" t="n">
-        <v>24.59580430098427</v>
+        <v>31.12641627044724</v>
       </c>
       <c r="J29" s="8" t="n">
-        <v>56.9578228376124</v>
+        <v>57.44474755034506</v>
       </c>
       <c r="K29" t="n">
-        <v>60.08914027669686</v>
+        <v>62.25318462515906</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v>0.4724705882352929</v>
+        <v>0.490117647058824</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.6060606060606146</v>
+        <v>-0.8215962441314587</v>
       </c>
       <c r="N29" t="n">
-        <v>14.98944444444445</v>
+        <v>15.50563</v>
       </c>
       <c r="O29" t="n">
-        <v>16.95111111111111</v>
+        <v>16.44937</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2524,44 +2524,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>679.55</v>
+        <v>10.86</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>999980</v>
+        <v>503</v>
       </c>
       <c r="I30" t="n">
-        <v>43.50505576760017</v>
+        <v>50.23546877459856</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>81.64171160372202</v>
+        <v>20.56918884515248</v>
       </c>
       <c r="K30" t="n">
-        <v>88.13494446260752</v>
+        <v>20.38739786453706</v>
       </c>
       <c r="L30" s="8" t="n">
-        <v>147.250852941176</v>
+        <v>-353.6096470588236</v>
       </c>
       <c r="M30" t="n">
-        <v>-2.397161898196032</v>
+        <v>10.1419878296146</v>
       </c>
       <c r="N30" t="n">
-        <v>359.2011111111112</v>
+        <v>462.1451000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>714.6844444444445</v>
+        <v>633.1649</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2590,44 +2590,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>167.68</v>
+        <v>167.66</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>343917</v>
+        <v>1625018</v>
       </c>
       <c r="I31" t="n">
-        <v>34.45297992055669</v>
+        <v>26.17942218479147</v>
       </c>
       <c r="J31" s="8" t="n">
-        <v>59.08768870734961</v>
+        <v>49.99442924961887</v>
       </c>
       <c r="K31" t="n">
-        <v>62.12765718104404</v>
+        <v>60.51723385228831</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v>6.197911764705822</v>
+        <v>3.830147058823513</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.5869449220371025</v>
+        <v>-1.964682493275648</v>
       </c>
       <c r="N31" t="n">
-        <v>148.2594444444445</v>
+        <v>156.87688</v>
       </c>
       <c r="O31" t="n">
-        <v>180.0127777777778</v>
+        <v>172.15312</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2656,44 +2656,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>68.28</v>
+        <v>72.63</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>9</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>118390</v>
+        <v>81887</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57557286226506</v>
+        <v>17.95542276723301</v>
       </c>
       <c r="J32" s="8" t="n">
-        <v>32.97182474853152</v>
+        <v>47.35344425633433</v>
       </c>
       <c r="K32" t="n">
-        <v>36.79022118626042</v>
+        <v>45.82651798698507</v>
       </c>
       <c r="L32" s="8" t="n">
-        <v>-6.402500000000046</v>
+        <v>-0.9037352941176664</v>
       </c>
       <c r="M32" t="n">
-        <v>-2.289639381797359</v>
+        <v>0.5955678670360007</v>
       </c>
       <c r="N32" t="n">
-        <v>65.24388888888889</v>
+        <v>71.01796</v>
       </c>
       <c r="O32" t="n">
-        <v>89.88388888888888</v>
+        <v>82.87204</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2722,44 +2722,44 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>95.02</v>
+        <v>106.92</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>7374844</v>
+        <v>3554095</v>
       </c>
       <c r="I33" t="n">
-        <v>37.21791669539879</v>
+        <v>42.53037025091889</v>
       </c>
       <c r="J33" s="8" t="n">
-        <v>72.01405378178835</v>
+        <v>62.96361349710689</v>
       </c>
       <c r="K33" t="n">
-        <v>74.16751254660768</v>
+        <v>68.43547378646616</v>
       </c>
       <c r="L33" s="8" t="n">
-        <v>10.21114705882356</v>
+        <v>15.69547058823528</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.7209278027374336</v>
+        <v>-2.605210420841683</v>
       </c>
       <c r="N33" t="n">
-        <v>64.42222222222223</v>
+        <v>75.42007000000001</v>
       </c>
       <c r="O33" t="n">
-        <v>103.3438888888889</v>
+        <v>94.14493</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2788,44 +2788,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>237.99</v>
+        <v>238.1</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" t="n">
         <v>10</v>
       </c>
-      <c r="G34" t="n">
-        <v>8</v>
-      </c>
       <c r="H34" t="n">
-        <v>569043</v>
+        <v>348340</v>
       </c>
       <c r="I34" t="n">
-        <v>28.3289958800762</v>
+        <v>15.23689262007087</v>
       </c>
       <c r="J34" s="8" t="n">
-        <v>51.42893932756226</v>
+        <v>50.42796133310085</v>
       </c>
       <c r="K34" t="n">
-        <v>52.03850215953036</v>
+        <v>49.80266545886575</v>
       </c>
       <c r="L34" s="8" t="n">
-        <v>2.089764705882203</v>
+        <v>0.8733823529410358</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.1887267237040717</v>
+        <v>0.1767081790642828</v>
       </c>
       <c r="N34" t="n">
-        <v>200.1077777777778</v>
+        <v>220.96651</v>
       </c>
       <c r="O34" t="n">
-        <v>281.4894444444444</v>
+        <v>260.11849</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2854,44 +2854,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>78.27</v>
+        <v>74.97</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>3265</v>
+        <v>10031</v>
       </c>
       <c r="I35" t="n">
-        <v>21.72301699836359</v>
+        <v>21.82889822531124</v>
       </c>
       <c r="J35" s="8" t="n">
-        <v>35.4153989510756</v>
+        <v>38.42424579375189</v>
       </c>
       <c r="K35" t="n">
-        <v>38.68158105313027</v>
+        <v>30.53534813288714</v>
       </c>
       <c r="L35" s="8" t="n">
-        <v>-5.146323529411973</v>
+        <v>-4.508352941176724</v>
       </c>
       <c r="M35" t="n">
-        <v>-2.089066800100077</v>
+        <v>3.535423284076789</v>
       </c>
       <c r="N35" t="n">
-        <v>69.45444444444446</v>
+        <v>77.05485</v>
       </c>
       <c r="O35" t="n">
-        <v>99.97944444444443</v>
+        <v>91.74015</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2920,44 +2920,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16.47</v>
+        <v>16.25</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>2415</v>
+        <v>3965</v>
       </c>
       <c r="I36" t="n">
-        <v>12.33829702709834</v>
+        <v>12.61491276749712</v>
       </c>
       <c r="J36" s="8" t="n">
-        <v>53.52924551049797</v>
+        <v>47.00794575092543</v>
       </c>
       <c r="K36" t="n">
-        <v>45.27999751403829</v>
+        <v>51.35394726738601</v>
       </c>
       <c r="L36" s="8" t="n">
-        <v>-0.4084117647058871</v>
+        <v>1.131970588235287</v>
       </c>
       <c r="M36" t="n">
-        <v>9.43521594684384</v>
+        <v>-4.411764705882353</v>
       </c>
       <c r="N36" t="n">
-        <v>11.18055555555556</v>
+        <v>13.24275</v>
       </c>
       <c r="O36" t="n">
-        <v>19.88888888888889</v>
+        <v>17.43225</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>349.69</v>
+        <v>339.84</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3002,28 +3002,28 @@
         <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>7270</v>
+        <v>12041</v>
       </c>
       <c r="I37" t="n">
-        <v>14.99819040264111</v>
+        <v>26.22367431797999</v>
       </c>
       <c r="J37" s="8" t="n">
-        <v>45.66638905540498</v>
+        <v>39.17642142355439</v>
       </c>
       <c r="K37" t="n">
-        <v>46.14819282235061</v>
+        <v>35.11606345027897</v>
       </c>
       <c r="L37" s="8" t="n">
-        <v>-2.385676470588749</v>
+        <v>-7.449617647059426</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.08571673476385364</v>
+        <v>0.6664889362836577</v>
       </c>
       <c r="N37" t="n">
-        <v>324.2377777777778</v>
+        <v>336.9995700000001</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2427777777778</v>
+        <v>360.5754300000001</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3052,44 +3052,44 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>87.93000000000001</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>550115</v>
+        <v>649296</v>
       </c>
       <c r="I38" t="n">
-        <v>27.80052063545756</v>
+        <v>23.93120663120732</v>
       </c>
       <c r="J38" s="8" t="n">
-        <v>56.58005880182097</v>
+        <v>44.81774583005926</v>
       </c>
       <c r="K38" t="n">
-        <v>60.33427835050772</v>
+        <v>46.58915974755566</v>
       </c>
       <c r="L38" s="8" t="n">
-        <v>3.150882352941139</v>
+        <v>-1.842147058823556</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.490029128388974</v>
+        <v>-0.8342271481349099</v>
       </c>
       <c r="N38" t="n">
-        <v>73.03666666666668</v>
+        <v>78.85036000000002</v>
       </c>
       <c r="O38" t="n">
-        <v>95.11000000000003</v>
+        <v>89.46964000000003</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3118,44 +3118,44 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50.54</v>
+        <v>52.02</v>
       </c>
       <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="n">
         <v>10</v>
       </c>
-      <c r="F39" t="n">
-        <v>9</v>
-      </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>234766</v>
+        <v>402128</v>
       </c>
       <c r="I39" t="n">
-        <v>25.02223926367896</v>
+        <v>17.85322832259262</v>
       </c>
       <c r="J39" s="8" t="n">
-        <v>48.4905882592903</v>
+        <v>51.20721036659812</v>
       </c>
       <c r="K39" t="n">
-        <v>56.299536361525</v>
+        <v>53.64332715193659</v>
       </c>
       <c r="L39" s="8" t="n">
-        <v>2.017558823529448</v>
+        <v>1.169852941176508</v>
       </c>
       <c r="M39" t="n">
-        <v>-2.770296267795302</v>
+        <v>-0.9142857142857083</v>
       </c>
       <c r="N39" t="n">
-        <v>45.13</v>
+        <v>48.164</v>
       </c>
       <c r="O39" t="n">
-        <v>56.13</v>
+        <v>53.456</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3184,44 +3184,44 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>55.09</v>
+        <v>49.96</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>2522929</v>
+        <v>2587604</v>
       </c>
       <c r="I40" t="n">
-        <v>54.57212869177462</v>
+        <v>30.36026608047404</v>
       </c>
       <c r="J40" s="8" t="n">
-        <v>69.36352074681317</v>
+        <v>48.56257157229658</v>
       </c>
       <c r="K40" t="n">
-        <v>72.17193666552606</v>
+        <v>52.63123081353652</v>
       </c>
       <c r="L40" s="8" t="n">
-        <v>9.898764705882357</v>
+        <v>1.223676470588245</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.148394042705892</v>
+        <v>-2.65003897116134</v>
       </c>
       <c r="N40" t="n">
-        <v>39.06888888888889</v>
+        <v>44.88046</v>
       </c>
       <c r="O40" t="n">
-        <v>59.12555555555556</v>
+        <v>54.52954</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3250,44 +3250,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>158.4</v>
+        <v>147.6</v>
       </c>
       <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
         <v>6</v>
-      </c>
-      <c r="F41" t="n">
-        <v>10</v>
       </c>
       <c r="G41" t="n">
         <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>5305104</v>
+        <v>3239833</v>
       </c>
       <c r="I41" t="n">
-        <v>58.88081084235238</v>
+        <v>40.87858078314396</v>
       </c>
       <c r="J41" s="8" t="n">
-        <v>57.31227694172289</v>
+        <v>40.23516205970336</v>
       </c>
       <c r="K41" t="n">
-        <v>66.43923316434918</v>
+        <v>38.50864880587774</v>
       </c>
       <c r="L41" s="8" t="n">
-        <v>13.86532352941188</v>
+        <v>-5.962088235293976</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.300622956886443</v>
+        <v>0.6340764982614078</v>
       </c>
       <c r="N41" t="n">
-        <v>125.8144444444445</v>
+        <v>143.0651</v>
       </c>
       <c r="O41" t="n">
-        <v>187.9644444444445</v>
+        <v>172.9649</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3316,44 +3316,44 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>65.09999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H42" t="n">
-        <v>3263</v>
+        <v>27399</v>
       </c>
       <c r="I42" t="n">
-        <v>32.42199464985684</v>
+        <v>29.45376996152569</v>
       </c>
       <c r="J42" s="8" t="n">
-        <v>51.63949036724788</v>
+        <v>65.89769968149241</v>
       </c>
       <c r="K42" t="n">
-        <v>46.47156607623579</v>
+        <v>51.59064414841671</v>
       </c>
       <c r="L42" s="8" t="n">
-        <v>-1.342441176470601</v>
+        <v>0.8572058823529147</v>
       </c>
       <c r="M42" t="n">
-        <v>1.718749999999991</v>
+        <v>4.745031582190723</v>
       </c>
       <c r="N42" t="n">
-        <v>58.085</v>
+        <v>60.70265</v>
       </c>
       <c r="O42" t="n">
-        <v>68.81</v>
+        <v>65.86235000000001</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3386,40 +3386,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50.51</v>
+        <v>49.96</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>20017</v>
       </c>
       <c r="I43" t="n">
-        <v>22.55703789568202</v>
+        <v>16.87168620642464</v>
       </c>
       <c r="J43" s="8" t="n">
-        <v>36.16835577410773</v>
+        <v>43.08807226645385</v>
       </c>
       <c r="K43" t="n">
-        <v>36.16835577410773</v>
+        <v>43.08807226645385</v>
       </c>
       <c r="L43" s="8" t="n">
-        <v>-6.553999999999753</v>
+        <v>-6.660617647058579</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>47.07333333333332</v>
+        <v>50.38676999999998</v>
       </c>
       <c r="O43" t="n">
-        <v>60.87833333333333</v>
+        <v>57.02822999999999</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3448,44 +3448,44 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>STRONG_BUY</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>38.04</v>
+        <v>41.58</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H44" t="n">
-        <v>2327639</v>
+        <v>150381</v>
       </c>
       <c r="I44" t="n">
-        <v>18.47217707758277</v>
+        <v>22.68498458540672</v>
       </c>
       <c r="J44" s="8" t="n">
-        <v>51.48890610247088</v>
+        <v>58.08369521831841</v>
       </c>
       <c r="K44" t="n">
-        <v>34.87122253078255</v>
+        <v>60.13491771634347</v>
       </c>
       <c r="L44" s="8" t="n">
-        <v>-1.513529411764708</v>
+        <v>2.267558823529406</v>
       </c>
       <c r="M44" t="n">
-        <v>4.649243466299856</v>
+        <v>-1.000000000000004</v>
       </c>
       <c r="N44" t="n">
-        <v>34.94722222222223</v>
+        <v>36.5565</v>
       </c>
       <c r="O44" t="n">
-        <v>41.36388888888889</v>
+        <v>39.6435</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3514,44 +3514,44 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>212.76</v>
+        <v>177.89</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
         <v>9</v>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>1094158</v>
+        <v>846797</v>
       </c>
       <c r="I45" t="n">
-        <v>45.18365101546745</v>
+        <v>32.41884801514656</v>
       </c>
       <c r="J45" s="8" t="n">
-        <v>64.74785426384507</v>
+        <v>38.3073949647181</v>
       </c>
       <c r="K45" t="n">
-        <v>70.68997228129695</v>
+        <v>39.36196910633929</v>
       </c>
       <c r="L45" s="8" t="n">
-        <v>18.72626470588261</v>
+        <v>-12.76041176470559</v>
       </c>
       <c r="M45" t="n">
-        <v>-2.300592368094788</v>
+        <v>-1.02375785901074</v>
       </c>
       <c r="N45" t="n">
-        <v>162.2638888888889</v>
+        <v>177.92709</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1155555555556</v>
+        <v>205.27791</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3580,44 +3580,44 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>430.02</v>
+        <v>440</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>3531</v>
+        <v>3391</v>
       </c>
       <c r="I46" t="n">
-        <v>24.80034541338028</v>
+        <v>15.42840298626317</v>
       </c>
       <c r="J46" s="8" t="n">
-        <v>43.66474251117698</v>
+        <v>47.61533159691428</v>
       </c>
       <c r="K46" t="n">
-        <v>47.97199637955811</v>
+        <v>48.04119901983287</v>
       </c>
       <c r="L46" s="8" t="n">
-        <v>-8.931411764705558</v>
+        <v>2.171176470588534</v>
       </c>
       <c r="M46" t="n">
-        <v>-2.908105667193497</v>
+        <v>-0.28328611898017</v>
       </c>
       <c r="N46" t="n">
-        <v>371.305</v>
+        <v>422.5719099999999</v>
       </c>
       <c r="O46" t="n">
-        <v>554.6199999999999</v>
+        <v>510.7630899999999</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>294.97</v>
+        <v>294.1</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -3662,28 +3662,28 @@
         <v>13</v>
       </c>
       <c r="H47" t="n">
-        <v>806911</v>
+        <v>1256001</v>
       </c>
       <c r="I47" t="n">
-        <v>19.53040739516161</v>
+        <v>17.55145496707713</v>
       </c>
       <c r="J47" s="8" t="n">
-        <v>54.68474858228961</v>
+        <v>50.89942233814983</v>
       </c>
       <c r="K47" t="n">
-        <v>52.05729873081059</v>
+        <v>58.67221368826645</v>
       </c>
       <c r="L47" s="8" t="n">
-        <v>-12.23649999999986</v>
+        <v>-3.221029411764448</v>
       </c>
       <c r="M47" t="n">
-        <v>1.110615980529945</v>
+        <v>-4.701727098927446</v>
       </c>
       <c r="N47" t="n">
-        <v>250.3466666666667</v>
+        <v>270.37315</v>
       </c>
       <c r="O47" t="n">
-        <v>333.4883333333333</v>
+        <v>310.37185</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3712,44 +3712,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>223.66</v>
+        <v>215</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H48" t="n">
-        <v>8053</v>
+        <v>601</v>
       </c>
       <c r="I48" t="n">
-        <v>37.21462405968684</v>
+        <v>32.94409657788459</v>
       </c>
       <c r="J48" s="8" t="n">
-        <v>73.71286351800468</v>
+        <v>57.71912775139337</v>
       </c>
       <c r="K48" t="n">
-        <v>63.72679446614029</v>
+        <v>57.71912775139337</v>
       </c>
       <c r="L48" s="8" t="n">
-        <v>15.06461764705904</v>
+        <v>10.71638235294142</v>
       </c>
       <c r="M48" t="n">
-        <v>7.590917837213778</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>169.24</v>
+        <v>186.04491</v>
       </c>
       <c r="O48" t="n">
-        <v>227.8883333333333</v>
+        <v>214.26009</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3778,44 +3778,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25.32</v>
+        <v>23</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="n">
         <v>9</v>
       </c>
-      <c r="G49" t="n">
-        <v>12</v>
-      </c>
       <c r="H49" t="n">
-        <v>514292</v>
+        <v>365003</v>
       </c>
       <c r="I49" t="n">
-        <v>25.53321479488029</v>
+        <v>28.09604548659029</v>
       </c>
       <c r="J49" s="8" t="n">
-        <v>54.48698797847746</v>
+        <v>31.62143309533901</v>
       </c>
       <c r="K49" t="n">
-        <v>54.73457238592672</v>
+        <v>31.12330950530202</v>
       </c>
       <c r="L49" s="8" t="n">
-        <v>0.6018235294117602</v>
+        <v>-1.409029411764713</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.07892659826361316</v>
+        <v>0.130605137135399</v>
       </c>
       <c r="N49" t="n">
-        <v>20.40888888888889</v>
+        <v>22.80011</v>
       </c>
       <c r="O49" t="n">
-        <v>29.19055555555556</v>
+        <v>27.02489</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3844,44 +3844,44 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>24.6</v>
+        <v>22.41</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>1110713</v>
+        <v>686200</v>
       </c>
       <c r="I50" t="n">
-        <v>28.07645628925059</v>
+        <v>24.0784504077107</v>
       </c>
       <c r="J50" s="8" t="n">
-        <v>64.61014530611683</v>
+        <v>45.87805151855873</v>
       </c>
       <c r="K50" t="n">
-        <v>70.7378735992385</v>
+        <v>41.3888951640358</v>
       </c>
       <c r="L50" s="8" t="n">
-        <v>2.024617647058811</v>
+        <v>-0.5030882352941255</v>
       </c>
       <c r="M50" t="n">
-        <v>-2.147971360381858</v>
+        <v>1.956323930846222</v>
       </c>
       <c r="N50" t="n">
-        <v>18.55666666666666</v>
+        <v>20.3733</v>
       </c>
       <c r="O50" t="n">
-        <v>25.34</v>
+        <v>23.6367</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3910,44 +3910,44 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NEUTRAL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>74.14</v>
+        <v>93.75</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H51" t="n">
-        <v>12088</v>
+        <v>575</v>
       </c>
       <c r="I51" t="n">
-        <v>12.93252690177482</v>
+        <v>21.26614847949495</v>
       </c>
       <c r="J51" s="8" t="n">
-        <v>49.7569378194056</v>
+        <v>61.63333077116327</v>
       </c>
       <c r="K51" t="n">
-        <v>54.75730307633658</v>
+        <v>67.47107777173095</v>
       </c>
       <c r="L51" s="8" t="n">
-        <v>1.918558823529395</v>
+        <v>11.66029411764704</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.82733050847457</v>
+        <v>-3.300670448684892</v>
       </c>
       <c r="N51" t="n">
-        <v>68.18388888888889</v>
+        <v>71.95907</v>
       </c>
       <c r="O51" t="n">
-        <v>81.43888888888888</v>
+        <v>78.33592999999999</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3980,40 +3980,40 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>309.95</v>
+        <v>290.09</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="n">
         <v>10</v>
       </c>
-      <c r="G52" t="n">
-        <v>14</v>
-      </c>
       <c r="H52" t="n">
-        <v>20569</v>
+        <v>13063</v>
       </c>
       <c r="I52" t="n">
-        <v>19.26912944610719</v>
+        <v>16.42227433990906</v>
       </c>
       <c r="J52" s="8" t="n">
-        <v>65.30205081560976</v>
+        <v>49.59417362770759</v>
       </c>
       <c r="K52" t="n">
-        <v>64.83398111909142</v>
+        <v>43.70948762758975</v>
       </c>
       <c r="L52" s="8" t="n">
-        <v>27.61770588235282</v>
+        <v>-2.110352941176586</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3334196555742499</v>
+        <v>2.342564826248011</v>
       </c>
       <c r="N52" t="n">
-        <v>237.8538888888889</v>
+        <v>264.12809</v>
       </c>
       <c r="O52" t="n">
-        <v>329.5388888888889</v>
+        <v>308.23691</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4042,44 +4042,44 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21.41</v>
+        <v>19.04</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>1210</v>
+        <v>8017</v>
       </c>
       <c r="I53" t="n">
-        <v>35.23178294594154</v>
+        <v>28.57143224429563</v>
       </c>
       <c r="J53" s="8" t="n">
-        <v>56.19272900872645</v>
+        <v>42.79620159314909</v>
       </c>
       <c r="K53" t="n">
-        <v>52.33576090093192</v>
+        <v>49.68905431316688</v>
       </c>
       <c r="L53" s="8" t="n">
-        <v>0.8957941176470641</v>
+        <v>-0.3987647058823462</v>
       </c>
       <c r="M53" t="n">
-        <v>3.429951690821261</v>
+        <v>-5.461767626613711</v>
       </c>
       <c r="N53" t="n">
-        <v>18.54444444444444</v>
+        <v>19.5798</v>
       </c>
       <c r="O53" t="n">
-        <v>22.57777777777777</v>
+        <v>21.5202</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4108,44 +4108,44 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>248.9</v>
+        <v>239.56</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H54" t="n">
-        <v>75285</v>
+        <v>31204</v>
       </c>
       <c r="I54" t="n">
-        <v>24.16820387471022</v>
+        <v>15.91447600301721</v>
       </c>
       <c r="J54" s="8" t="n">
-        <v>72.80503369869618</v>
+        <v>54.35929218409284</v>
       </c>
       <c r="K54" t="n">
-        <v>65.48525047014263</v>
+        <v>55.00790634445078</v>
       </c>
       <c r="L54" s="8" t="n">
-        <v>16.99705882352933</v>
+        <v>7.550588235294015</v>
       </c>
       <c r="M54" t="n">
-        <v>5.274288372879921</v>
+        <v>-0.3037995755129176</v>
       </c>
       <c r="N54" t="n">
-        <v>184.2577777777778</v>
+        <v>204.12</v>
       </c>
       <c r="O54" t="n">
-        <v>257.5911111111111</v>
+        <v>239.4</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4174,44 +4174,44 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1134.42</v>
+        <v>1111.93</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H55" t="n">
-        <v>3094488</v>
+        <v>735918</v>
       </c>
       <c r="I55" t="n">
-        <v>47.62913771462846</v>
+        <v>52.21382220070061</v>
       </c>
       <c r="J55" s="8" t="n">
-        <v>86.47512910795623</v>
+        <v>64.38957688607456</v>
       </c>
       <c r="K55" t="n">
-        <v>84.97628066349709</v>
+        <v>70.79050405464437</v>
       </c>
       <c r="L55" s="8" t="n">
-        <v>156.6078235294119</v>
+        <v>152.3861470588236</v>
       </c>
       <c r="M55" t="n">
-        <v>3.715555230485116</v>
+        <v>-3.10907015449498</v>
       </c>
       <c r="N55" t="n">
-        <v>690.2177777777778</v>
+        <v>757.0688499999999</v>
       </c>
       <c r="O55" t="n">
-        <v>933.4094444444444</v>
+        <v>874.0661499999999</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4240,44 +4240,44 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>STRONG_BUY</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>820.38</v>
+        <v>943.17</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H56" t="n">
-        <v>42391</v>
+        <v>28105</v>
       </c>
       <c r="I56" t="n">
-        <v>55.30570143575707</v>
+        <v>58.46170904002071</v>
       </c>
       <c r="J56" s="8" t="n">
-        <v>87.39602976146601</v>
+        <v>63.44444074866042</v>
       </c>
       <c r="K56" t="n">
-        <v>83.84149446254513</v>
+        <v>66.53832202781939</v>
       </c>
       <c r="L56" s="8" t="n">
-        <v>139.7482941176477</v>
+        <v>222.9443529411772</v>
       </c>
       <c r="M56" t="n">
-        <v>9.499339304066945</v>
+        <v>-2.473399580183858</v>
       </c>
       <c r="N56" t="n">
-        <v>443.6761111111111</v>
+        <v>513.106</v>
       </c>
       <c r="O56" t="n">
-        <v>698.5094444444444</v>
+        <v>635.704</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
         <v>13</v>
       </c>
       <c r="H57" t="n">
-        <v>770</v>
+        <v>2000</v>
       </c>
       <c r="I57" t="n">
-        <v>21.01730263903267</v>
+        <v>19.9614220960542</v>
       </c>
       <c r="J57" s="8" t="n">
-        <v>54.58289771910588</v>
+        <v>52.89469253931763</v>
       </c>
       <c r="K57" t="n">
-        <v>58.12892733473154</v>
+        <v>45.70675689479399</v>
       </c>
       <c r="L57" s="8" t="n">
-        <v>0.1075588235294038</v>
+        <v>-0.01073529411765417</v>
       </c>
       <c r="M57" t="n">
-        <v>-4.885057471264366</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="N57" t="n">
-        <v>2.464444444444445</v>
+        <v>2.6636</v>
       </c>
       <c r="O57" t="n">
-        <v>3.197777777777777</v>
+        <v>3.0164</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4376,40 +4376,40 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>502.32</v>
+        <v>528.89</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H58" t="n">
-        <v>324</v>
+        <v>717</v>
       </c>
       <c r="I58" t="n">
-        <v>18.47912477634082</v>
+        <v>15.29304004362465</v>
       </c>
       <c r="J58" s="8" t="n">
-        <v>52.0444676701776</v>
+        <v>54.60039898631123</v>
       </c>
       <c r="K58" t="n">
-        <v>60.41080559325339</v>
+        <v>48.78896039022761</v>
       </c>
       <c r="L58" s="8" t="n">
-        <v>9.91626470588227</v>
+        <v>28.60958823529421</v>
       </c>
       <c r="M58" t="n">
-        <v>-2.751050277815418</v>
+        <v>2.846864365580941</v>
       </c>
       <c r="N58" t="n">
-        <v>421.3244444444445</v>
+        <v>461.9619100000001</v>
       </c>
       <c r="O58" t="n">
-        <v>577.1394444444445</v>
+        <v>536.92309</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4438,44 +4438,44 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>STRONG_SELL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>130.06</v>
+        <v>113.97</v>
       </c>
       <c r="E59" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>243</v>
+        <v>1406</v>
       </c>
       <c r="I59" t="n">
-        <v>13.74515278582335</v>
+        <v>25.49676600363911</v>
       </c>
       <c r="J59" s="8" t="n">
-        <v>43.95518810887903</v>
+        <v>20.9785936969641</v>
       </c>
       <c r="K59" t="n">
-        <v>48.87341950916313</v>
+        <v>27.05074730844558</v>
       </c>
       <c r="L59" s="8" t="n">
-        <v>1.909911764705896</v>
+        <v>-7.717647058823616</v>
       </c>
       <c r="M59" t="n">
-        <v>-2.364687335785606</v>
+        <v>-5.040826528911846</v>
       </c>
       <c r="N59" t="n">
-        <v>120.1666666666667</v>
+        <v>128.062</v>
       </c>
       <c r="O59" t="n">
-        <v>153.1666666666667</v>
+        <v>143.938</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4508,40 +4508,40 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>47.06</v>
+        <v>45.8</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="n">
         <v>10</v>
       </c>
-      <c r="G60" t="n">
-        <v>14</v>
-      </c>
       <c r="H60" t="n">
-        <v>2213</v>
+        <v>6481</v>
       </c>
       <c r="I60" t="n">
-        <v>15.16510843919488</v>
+        <v>13.90741990329546</v>
       </c>
       <c r="J60" s="8" t="n">
-        <v>63.14481731418156</v>
+        <v>49.08297743527256</v>
       </c>
       <c r="K60" t="n">
-        <v>63.1156453776501</v>
+        <v>46.03546323098229</v>
       </c>
       <c r="L60" s="8" t="n">
-        <v>4.473441176470658</v>
+        <v>1.631294117647116</v>
       </c>
       <c r="M60" t="n">
-        <v>0.02125398512222129</v>
+        <v>2.118171683389065</v>
       </c>
       <c r="N60" t="n">
-        <v>36.06444444444444</v>
+        <v>39.29974</v>
       </c>
       <c r="O60" t="n">
-        <v>48.64111111111111</v>
+        <v>45.35026</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>35.99</v>
+        <v>51.16</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
@@ -4586,28 +4586,28 @@
         <v>14</v>
       </c>
       <c r="H61" t="n">
-        <v>96057</v>
+        <v>500285</v>
       </c>
       <c r="I61" t="n">
-        <v>17.87467285322772</v>
+        <v>38.74262984964243</v>
       </c>
       <c r="J61" s="8" t="n">
-        <v>55.02225401474146</v>
+        <v>73.20597273987224</v>
       </c>
       <c r="K61" t="n">
-        <v>57.73205116956275</v>
+        <v>75.17137257278337</v>
       </c>
       <c r="L61" s="8" t="n">
-        <v>-0.2206764705882449</v>
+        <v>12.71841176470588</v>
       </c>
       <c r="M61" t="n">
-        <v>-1.424267324020805</v>
+        <v>-1.044487427466163</v>
       </c>
       <c r="N61" t="n">
-        <v>29.44166666666667</v>
+        <v>32.16827000000001</v>
       </c>
       <c r="O61" t="n">
-        <v>40.49666666666666</v>
+        <v>37.48672999999999</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4640,40 +4640,40 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="E62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>20107488</v>
+        <v>9356734</v>
       </c>
       <c r="I62" t="n">
-        <v>14.14047160946565</v>
+        <v>26.69738970055813</v>
       </c>
       <c r="J62" s="8" t="n">
-        <v>41.27865559757308</v>
+        <v>32.40759406379492</v>
       </c>
       <c r="K62" t="n">
-        <v>38.72897597043073</v>
+        <v>28.76225936517564</v>
       </c>
       <c r="L62" s="8" t="n">
-        <v>-0.05591176470588288</v>
+        <v>-0.08123529411764752</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8064516129032264</v>
+        <v>0.8695652173913052</v>
       </c>
       <c r="N62" t="n">
-        <v>1.113333333333333</v>
+        <v>1.19562</v>
       </c>
       <c r="O62" t="n">
-        <v>1.443333333333333</v>
+        <v>1.35438</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4706,40 +4706,40 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7.3</v>
+        <v>6.92</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>689006</v>
+        <v>1142412</v>
       </c>
       <c r="I63" t="n">
-        <v>13.2892166124399</v>
+        <v>21.14174200102667</v>
       </c>
       <c r="J63" s="8" t="n">
-        <v>41.08611992772749</v>
+        <v>38.42613880036049</v>
       </c>
       <c r="K63" t="n">
-        <v>43.39935313816192</v>
+        <v>42.71639203895089</v>
       </c>
       <c r="L63" s="8" t="n">
-        <v>-0.3140000000000072</v>
+        <v>-0.4135294117647135</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.484480431848857</v>
+        <v>-2.672292545710273</v>
       </c>
       <c r="N63" t="n">
-        <v>6.54111111111111</v>
+        <v>7.085519999999999</v>
       </c>
       <c r="O63" t="n">
-        <v>8.887777777777776</v>
+        <v>8.214479999999998</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4884,11 +4884,11 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KOHC</t>
+          <t>PABC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4897,64 +4897,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>277.67</v>
+        <v>76.19</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>586102</v>
+        <v>194190</v>
       </c>
       <c r="I2" t="n">
-        <v>45.96840354445689</v>
+        <v>30.30140631222456</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>75.96599585177277</v>
+        <v>58.7336573588659</v>
       </c>
       <c r="K2" t="n">
-        <v>79.14158399414431</v>
+        <v>55.54902761095347</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>43.25955882352952</v>
+        <v>2.110441176470658</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8321428571428514</v>
+        <v>1.329964090969544</v>
       </c>
       <c r="N2" t="n">
-        <v>194.6172222222222</v>
+        <v>70.554</v>
       </c>
       <c r="O2" t="n">
-        <v>282.6172222222222</v>
+        <v>75.846</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APABC</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PABC/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-KOHC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PABC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CPHL</t>
+          <t>PAEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4963,130 +4963,130 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31.95</v>
+        <v>26.18</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>1697677</v>
+        <v>5056160</v>
       </c>
       <c r="I3" t="n">
-        <v>24.98440791809918</v>
+        <v>19.51593367963017</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>61.21963527856168</v>
+        <v>51.41623050656448</v>
       </c>
       <c r="K3" t="n">
-        <v>64.70382229713717</v>
+        <v>54.53473216561273</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>2.844176470588174</v>
+        <v>0.5512941176470427</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.510480887792844</v>
+        <v>-1.800450112528134</v>
       </c>
       <c r="N3" t="n">
-        <v>26.43444444444445</v>
+        <v>23.58239</v>
       </c>
       <c r="O3" t="n">
-        <v>30.44944444444444</v>
+        <v>25.97261</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPHL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APAEL</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PAEL/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPHL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PAEL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PABC</t>
+          <t>PIOC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75.98999999999999</v>
+        <v>173.82</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>1029315</v>
+        <v>145792</v>
       </c>
       <c r="I4" t="n">
-        <v>20.31190401707754</v>
+        <v>15.52917106766364</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>62.74527517100422</v>
+        <v>51.98581450305678</v>
       </c>
       <c r="K4" t="n">
-        <v>61.44243158837864</v>
+        <v>58.24346095793823</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>2.090647058823606</v>
+        <v>4.800411764705814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.769128762763557</v>
+        <v>-2.144907954737377</v>
       </c>
       <c r="N4" t="n">
-        <v>67.55555555555556</v>
+        <v>150.23196</v>
       </c>
       <c r="O4" t="n">
-        <v>78.55555555555556</v>
+        <v>176.19804</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APABC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PABC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PAEL</t>
+          <t>ATLH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5095,64 +5095,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25.49</v>
+        <v>639.71</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>5599157</v>
+        <v>112273</v>
       </c>
       <c r="I5" t="n">
-        <v>16.97528834220062</v>
+        <v>36.42953654158451</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>51.00091281209864</v>
+        <v>66.55354325742826</v>
       </c>
       <c r="K5" t="n">
-        <v>56.60698881510402</v>
+        <v>64.42006101985206</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>0.9227941176470438</v>
+        <v>64.44435294117716</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.337164750957866</v>
+        <v>1.541269841269847</v>
       </c>
       <c r="N5" t="n">
-        <v>22.30833333333334</v>
+        <v>453.995</v>
       </c>
       <c r="O5" t="n">
-        <v>27.27666666666667</v>
+        <v>520.145</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APAEL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AATLH</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ATLH/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PAEL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ATLH/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PIOC</t>
+          <t>AIRLINK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5161,64 +5161,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>178.75</v>
+        <v>106.92</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>118668</v>
+        <v>3554095</v>
       </c>
       <c r="I6" t="n">
-        <v>26.97168692097832</v>
+        <v>42.53037025091889</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>66.43928143411412</v>
+        <v>62.96361349710689</v>
       </c>
       <c r="K6" t="n">
-        <v>70.81171884051835</v>
+        <v>68.43547378646616</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>14.27126470588234</v>
+        <v>15.69547058823528</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.237637438532521</v>
+        <v>-2.605210420841683</v>
       </c>
       <c r="N6" t="n">
-        <v>135.0205555555556</v>
+        <v>75.42007000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>188.9938888888889</v>
+        <v>94.14493</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAIRLINK</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-AIRLINK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>MEBL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5227,130 +5227,130 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>116.06</v>
+        <v>238.1</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
       <c r="H7" t="n">
-        <v>168359</v>
+        <v>348340</v>
       </c>
       <c r="I7" t="n">
-        <v>37.321931890146</v>
+        <v>15.23689262007087</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>53.20552127078303</v>
+        <v>50.42796133310085</v>
       </c>
       <c r="K7" t="n">
-        <v>56.54715548848657</v>
+        <v>49.80266545886575</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.703323529411662</v>
+        <v>0.8733823529410358</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.8796652147920412</v>
+        <v>0.1767081790642828</v>
       </c>
       <c r="N7" t="n">
-        <v>96.84166666666668</v>
+        <v>220.96651</v>
       </c>
       <c r="O7" t="n">
-        <v>133.875</v>
+        <v>260.11849</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATGL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-TGL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>FATIMA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>120.82</v>
+        <v>52.02</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>2447648</v>
+        <v>402128</v>
       </c>
       <c r="I8" t="n">
-        <v>17.79431331633835</v>
+        <v>17.85322832259262</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>51.44602482716887</v>
+        <v>51.20721036659812</v>
       </c>
       <c r="K8" t="n">
-        <v>57.89757356806936</v>
+        <v>53.64332715193659</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>3.2974705882352</v>
+        <v>1.169852941176508</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.10662777507698</v>
+        <v>-0.9142857142857083</v>
       </c>
       <c r="N8" t="n">
-        <v>104.405</v>
+        <v>48.164</v>
       </c>
       <c r="O8" t="n">
-        <v>128.99</v>
+        <v>53.456</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFATIMA</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FATIMA/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FATIMA/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OGDC</t>
+          <t>SAZEW</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5359,64 +5359,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>133.13</v>
+        <v>1111.93</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>3920835</v>
+        <v>735918</v>
       </c>
       <c r="I9" t="n">
-        <v>16.83098798182668</v>
+        <v>52.21382220070061</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>50.63045725658272</v>
+        <v>64.38957688607456</v>
       </c>
       <c r="K9" t="n">
-        <v>52.88804817439503</v>
+        <v>70.79050405464437</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>1.973558823529515</v>
+        <v>152.3861470588236</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.797317436661694</v>
+        <v>-3.10907015449498</v>
       </c>
       <c r="N9" t="n">
-        <v>112.6672222222222</v>
+        <v>757.0688499999999</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4988888888889</v>
+        <v>874.0661499999999</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASAZEW</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-SAZEW/financials-overview/</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-SAZEW/technicals/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHDL</t>
+          <t>THCCL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5425,582 +5425,54 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>679.55</v>
+        <v>51.16</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>999980</v>
+        <v>500285</v>
       </c>
       <c r="I10" t="n">
-        <v>43.50505576760017</v>
+        <v>38.74262984964243</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>81.64171160372202</v>
+        <v>73.20597273987224</v>
       </c>
       <c r="K10" t="n">
-        <v>88.13494446260752</v>
+        <v>75.17137257278337</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>147.250852941176</v>
+        <v>12.71841176470588</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.397161898196032</v>
+        <v>-1.044487427466163</v>
       </c>
       <c r="N10" t="n">
-        <v>359.2011111111112</v>
+        <v>32.16827000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>714.6844444444445</v>
+        <v>37.48672999999999</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATHCCL</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-THCCL/financials-overview/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EFERT</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>167.68</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13</v>
-      </c>
-      <c r="H11" t="n">
-        <v>343917</v>
-      </c>
-      <c r="I11" t="n">
-        <v>34.45297992055669</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>59.08768870734961</v>
-      </c>
-      <c r="K11" t="n">
-        <v>62.12765718104404</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>6.197911764705822</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-0.5869449220371025</v>
-      </c>
-      <c r="N11" t="n">
-        <v>148.2594444444445</v>
-      </c>
-      <c r="O11" t="n">
-        <v>180.0127777777778</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MEBL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>237.99</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>569043</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.3289958800762</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>51.42893932756226</v>
-      </c>
-      <c r="K12" t="n">
-        <v>52.03850215953036</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>2.089764705882203</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.1887267237040717</v>
-      </c>
-      <c r="N12" t="n">
-        <v>200.1077777777778</v>
-      </c>
-      <c r="O12" t="n">
-        <v>281.4894444444444</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ISL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>87.93000000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>550115</v>
-      </c>
-      <c r="I13" t="n">
-        <v>27.80052063545756</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <v>56.58005880182097</v>
-      </c>
-      <c r="K13" t="n">
-        <v>60.33427835050772</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>3.150882352941139</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-1.490029128388974</v>
-      </c>
-      <c r="N13" t="n">
-        <v>73.03666666666668</v>
-      </c>
-      <c r="O13" t="n">
-        <v>95.11000000000003</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FABL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>55.09</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2522929</v>
-      </c>
-      <c r="I14" t="n">
-        <v>54.57212869177462</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>69.36352074681317</v>
-      </c>
-      <c r="K14" t="n">
-        <v>72.17193666552606</v>
-      </c>
-      <c r="L14" s="8" t="n">
-        <v>9.898764705882357</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-1.148394042705892</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39.06888888888889</v>
-      </c>
-      <c r="O14" t="n">
-        <v>59.12555555555556</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HUBC</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5305104</v>
-      </c>
-      <c r="I15" t="n">
-        <v>58.88081084235238</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>57.31227694172289</v>
-      </c>
-      <c r="K15" t="n">
-        <v>66.43923316434918</v>
-      </c>
-      <c r="L15" s="8" t="n">
-        <v>13.86532352941188</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-2.300622956886443</v>
-      </c>
-      <c r="N15" t="n">
-        <v>125.8144444444445</v>
-      </c>
-      <c r="O15" t="n">
-        <v>187.9644444444445</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AHUBC</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-HUBC/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INIL</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>212.76</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1094158</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45.18365101546745</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>64.74785426384507</v>
-      </c>
-      <c r="K16" t="n">
-        <v>70.68997228129695</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>18.72626470588261</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-2.300592368094788</v>
-      </c>
-      <c r="N16" t="n">
-        <v>162.2638888888889</v>
-      </c>
-      <c r="O16" t="n">
-        <v>219.1155555555556</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LPL</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12</v>
-      </c>
-      <c r="H17" t="n">
-        <v>514292</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25.53321479488029</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>54.48698797847746</v>
-      </c>
-      <c r="K17" t="n">
-        <v>54.73457238592672</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>0.6018235294117602</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-0.07892659826361316</v>
-      </c>
-      <c r="N17" t="n">
-        <v>20.40888888888889</v>
-      </c>
-      <c r="O17" t="n">
-        <v>29.19055555555556</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALPL</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-LPL/technicals/</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n">
-        <v>45483.83657231266</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BIPL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1110713</v>
-      </c>
-      <c r="I18" t="n">
-        <v>28.07645628925059</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v>64.61014530611683</v>
-      </c>
-      <c r="K18" t="n">
-        <v>70.7378735992385</v>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>2.024617647058811</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-2.147971360381858</v>
-      </c>
-      <c r="N18" t="n">
-        <v>18.55666666666666</v>
-      </c>
-      <c r="O18" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-BIPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-THCCL/technicals/</t>
         </is>
       </c>
     </row>
@@ -6131,11 +5603,11 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SITC</t>
+          <t>ICL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6144,64 +5616,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>312.41</v>
+        <v>45.08</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>265</v>
+        <v>66283</v>
       </c>
       <c r="I2" t="n">
-        <v>22.9393221422809</v>
+        <v>29.48743298635461</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>50.10627042764323</v>
+        <v>50.72105359956613</v>
       </c>
       <c r="K2" t="n">
-        <v>51.63959218797292</v>
+        <v>54.90494944064777</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>7.1487647058824</v>
+        <v>0.3610588235294401</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8222222222222143</v>
+        <v>-1.248630887185105</v>
       </c>
       <c r="N2" t="n">
-        <v>251.2394444444444</v>
+        <v>42.46560000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>403.4061111111111</v>
+        <v>49.87440000000001</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASITC</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AICL</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-SITC/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ICL/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-SITC/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-ICL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LUCK</t>
+          <t>PIOC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6210,64 +5682,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>910.45</v>
+        <v>173.82</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>70321</v>
+        <v>145792</v>
       </c>
       <c r="I3" t="n">
-        <v>20.81187897231441</v>
+        <v>15.52917106766364</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>51.5434482072546</v>
+        <v>51.98581450305678</v>
       </c>
       <c r="K3" t="n">
-        <v>57.36016186382696</v>
+        <v>58.24346095793823</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>16.70129411764685</v>
+        <v>4.800411764705814</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.453651989435852</v>
+        <v>-2.144907954737377</v>
       </c>
       <c r="N3" t="n">
-        <v>838.4505555555555</v>
+        <v>150.23196</v>
       </c>
       <c r="O3" t="n">
-        <v>1003.450555555556</v>
+        <v>176.19804</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALUCK</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APIOC</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LUCK/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-LUCK/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PIOC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEBL</t>
+          <t>FATIMA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6276,7 +5748,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>237.99</v>
+        <v>52.02</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -6288,42 +5760,42 @@
         <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>569043</v>
+        <v>402128</v>
       </c>
       <c r="I4" t="n">
-        <v>28.3289958800762</v>
+        <v>17.85322832259262</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>51.42893932756226</v>
+        <v>51.20721036659812</v>
       </c>
       <c r="K4" t="n">
-        <v>52.03850215953036</v>
+        <v>53.64332715193659</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>2.089764705882203</v>
+        <v>1.169852941176508</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1887267237040717</v>
+        <v>-0.9142857142857083</v>
       </c>
       <c r="N4" t="n">
-        <v>200.1077777777778</v>
+        <v>48.164</v>
       </c>
       <c r="O4" t="n">
-        <v>281.4894444444444</v>
+        <v>53.456</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMEBL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFATIMA</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FATIMA/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MEBL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FATIMA/technicals/</t>
         </is>
       </c>
     </row>
@@ -6349,7 +5821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6454,7 +5926,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -6467,40 +5939,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1189.71</v>
+        <v>1180.5</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>5679</v>
+        <v>44499</v>
       </c>
       <c r="I2" t="n">
-        <v>45.39593336067106</v>
+        <v>49.97183880391036</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>30.08438758838442</v>
+        <v>30.87704652683239</v>
       </c>
       <c r="K2" t="n">
-        <v>28.61709904124322</v>
+        <v>31.08285557006569</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>-59.5661764705867</v>
+        <v>-19.57805882352773</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1894800666969835</v>
+        <v>-0.03217939164014202</v>
       </c>
       <c r="N2" t="n">
-        <v>1061.721666666667</v>
+        <v>1141.14555</v>
       </c>
       <c r="O2" t="n">
-        <v>1362.296666666666</v>
+        <v>1285.74945</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -6520,11 +5992,11 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MARI</t>
+          <t>FEROZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6533,64 +6005,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2670.93</v>
+        <v>239.05</v>
       </c>
       <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>11593</v>
+        <v>54771</v>
       </c>
       <c r="I3" t="n">
-        <v>16.02204428480296</v>
+        <v>15.27684323752017</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>47.09431240523677</v>
+        <v>42.16605656736457</v>
       </c>
       <c r="K3" t="n">
-        <v>47.07712887498585</v>
+        <v>45.16471517802739</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>-13.04997058823756</v>
+        <v>-2.04202941176473</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00411858530337771</v>
+        <v>-1.337240496925164</v>
       </c>
       <c r="N3" t="n">
-        <v>2412.076666666667</v>
+        <v>230.784</v>
       </c>
       <c r="O3" t="n">
-        <v>2941.91</v>
+        <v>258.126</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMARI</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFEROZ</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MARI/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FEROZ/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MARI/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-FEROZ/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MTL</t>
+          <t>LUCK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6599,64 +6071,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>611.15</v>
+        <v>895.34</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>172411</v>
+        <v>48696</v>
       </c>
       <c r="I4" t="n">
-        <v>26.87638166927452</v>
+        <v>13.30548205400278</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>37.44034964211425</v>
+        <v>43.66919431829104</v>
       </c>
       <c r="K4" t="n">
-        <v>47.06625156846526</v>
+        <v>46.90927479436844</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>-7.686529411765491</v>
+        <v>-10.27835294117676</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.888786487216573</v>
+        <v>-0.8098377001052396</v>
       </c>
       <c r="N4" t="n">
-        <v>582.9072222222222</v>
+        <v>878.675</v>
       </c>
       <c r="O4" t="n">
-        <v>694.8138888888889</v>
+        <v>958.0550000000001</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMTL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ALUCK</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MTL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LUCK/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MTL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-LUCK/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SGF</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6665,64 +6137,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68.28</v>
+        <v>113.4</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>118390</v>
+        <v>2010746</v>
       </c>
       <c r="I5" t="n">
-        <v>22.57557286226506</v>
+        <v>18.15415904147476</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>32.97182474853152</v>
+        <v>39.34784409718056</v>
       </c>
       <c r="K5" t="n">
-        <v>36.79022118626042</v>
+        <v>40.53387346989155</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>-6.402500000000046</v>
+        <v>-3.647411764705978</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.289639381797359</v>
+        <v>-0.5612065941774821</v>
       </c>
       <c r="N5" t="n">
-        <v>65.24388888888889</v>
+        <v>110.85869</v>
       </c>
       <c r="O5" t="n">
-        <v>89.88388888888888</v>
+        <v>122.68631</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASGF</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPL</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-SGF/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-SGF/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PPL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AGTL</t>
+          <t>EPQL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6731,64 +6203,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>349.69</v>
+        <v>27.69</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>7270</v>
+        <v>118691</v>
       </c>
       <c r="I6" t="n">
-        <v>14.99819040264111</v>
+        <v>25.19217611536643</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>45.66638905540498</v>
+        <v>48.5707547196514</v>
       </c>
       <c r="K6" t="n">
-        <v>46.14819282235061</v>
+        <v>46.06689325834755</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>-2.385676470588749</v>
+        <v>-0.4924411764704679</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.08571673476385364</v>
+        <v>0.3988397389412726</v>
       </c>
       <c r="N6" t="n">
-        <v>324.2377777777778</v>
+        <v>27.42243000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>373.2427777777778</v>
+        <v>28.54257000000001</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAGTL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEPQL</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AGTL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EPQL/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-AGTL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EPQL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRSM</t>
+          <t>PHDL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6797,64 +6269,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50.51</v>
+        <v>10.86</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>503</v>
       </c>
       <c r="I7" t="n">
-        <v>22.55703789568202</v>
+        <v>50.23546877459856</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>36.16835577410773</v>
+        <v>20.56918884515248</v>
       </c>
       <c r="K7" t="n">
-        <v>36.16835577410773</v>
+        <v>20.38739786453706</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>-6.553999999999753</v>
+        <v>-353.6096470588236</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>10.1419878296146</v>
       </c>
       <c r="N7" t="n">
-        <v>47.07333333333332</v>
+        <v>462.1451000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>60.87833333333333</v>
+        <v>633.1649</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFRSM</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APHDL</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FRSM/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/financials-overview/</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FRSM/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-PHDL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>THALL</t>
+          <t>KTML</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6863,64 +6335,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>430.02</v>
+        <v>74.97</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3531</v>
+        <v>10031</v>
       </c>
       <c r="I8" t="n">
-        <v>24.80034541338028</v>
+        <v>21.82889822531124</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>43.66474251117698</v>
+        <v>38.42424579375189</v>
       </c>
       <c r="K8" t="n">
-        <v>47.97199637955811</v>
+        <v>30.53534813288714</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>-8.931411764705558</v>
+        <v>-4.508352941176724</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.908105667193497</v>
+        <v>3.535423284076789</v>
       </c>
       <c r="N8" t="n">
-        <v>371.305</v>
+        <v>77.05485</v>
       </c>
       <c r="O8" t="n">
-        <v>554.6199999999999</v>
+        <v>91.74015</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATHALL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKTML</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-THALL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KTML/financials-overview/</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-THALL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KTML/technicals/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WTL</t>
+          <t>AGTL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6929,52 +6401,448 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.25</v>
+        <v>339.84</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>20107488</v>
+        <v>12041</v>
       </c>
       <c r="I9" t="n">
-        <v>14.14047160946565</v>
+        <v>26.22367431797999</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>41.27865559757308</v>
+        <v>39.17642142355439</v>
       </c>
       <c r="K9" t="n">
-        <v>38.72897597043073</v>
+        <v>35.11606345027897</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>-0.05591176470588288</v>
+        <v>-7.449617647059426</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8064516129032264</v>
+        <v>0.6664889362836577</v>
       </c>
       <c r="N9" t="n">
-        <v>1.113333333333333</v>
+        <v>336.9995700000001</v>
       </c>
       <c r="O9" t="n">
-        <v>1.443333333333333</v>
+        <v>360.5754300000001</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AAGTL</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-AGTL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-AGTL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ISL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>83.20999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>649296</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23.93120663120732</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>44.81774583005926</v>
+      </c>
+      <c r="K10" t="n">
+        <v>46.58915974755566</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>-1.842147058823556</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.8342271481349099</v>
+      </c>
+      <c r="N10" t="n">
+        <v>78.85036000000002</v>
+      </c>
+      <c r="O10" t="n">
+        <v>89.46964000000003</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AISL</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-ISL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FRSM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20017</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.87168620642464</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>43.08807226645385</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.08807226645385</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>-6.660617647058579</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>50.38676999999998</v>
+      </c>
+      <c r="O11" t="n">
+        <v>57.02822999999999</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFRSM</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FRSM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FRSM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INIL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>177.89</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>846797</v>
+      </c>
+      <c r="I12" t="n">
+        <v>32.41884801514656</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>38.3073949647181</v>
+      </c>
+      <c r="K12" t="n">
+        <v>39.36196910633929</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>-12.76041176470559</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.02375785901074</v>
+      </c>
+      <c r="N12" t="n">
+        <v>177.92709</v>
+      </c>
+      <c r="O12" t="n">
+        <v>205.27791</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AINIL</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-INIL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BIPL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>686200</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24.0784504077107</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>45.87805151855873</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.3888951640358</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>-0.5030882352941255</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.956323930846222</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20.3733</v>
+      </c>
+      <c r="O13" t="n">
+        <v>23.6367</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ABIPL</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-BIPL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-BIPL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>JSML</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8017</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28.57143224429563</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>42.79620159314909</v>
+      </c>
+      <c r="K14" t="n">
+        <v>49.68905431316688</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>-0.3987647058823462</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-5.461767626613711</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19.5798</v>
+      </c>
+      <c r="O14" t="n">
+        <v>21.5202</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AJSML</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-JSML/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-JSML/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WTL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9356734</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26.69738970055813</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>32.40759406379492</v>
+      </c>
+      <c r="K15" t="n">
+        <v>28.76225936517564</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>-0.08123529411764752</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8695652173913052</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.19562</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.35438</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AWTL</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/PSX-WTL/financials-overview/</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/PSX-WTL/technicals/</t>
         </is>
@@ -7002,7 +6870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7107,77 +6975,77 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MACTER</t>
+          <t>KOHC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STRONG_SELL</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90.04000000000001</v>
+        <v>255.5</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
       <c r="H2" t="n">
-        <v>616</v>
+        <v>10559</v>
       </c>
       <c r="I2" t="n">
-        <v>10.31021067164274</v>
+        <v>26.95404042844035</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>44.02442756124596</v>
+        <v>46.50874035451348</v>
       </c>
       <c r="K2" t="n">
-        <v>43.91788806198672</v>
+        <v>47.78635445830488</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>1.558970588235255</v>
+        <v>6.430382352941365</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04444444444445139</v>
+        <v>-0.5139786620979648</v>
       </c>
       <c r="N2" t="n">
-        <v>80.09111111111112</v>
+        <v>219.597</v>
       </c>
       <c r="O2" t="n">
-        <v>106.4361111111111</v>
+        <v>261.933</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMACTER</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHC</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MACTER/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KOHC/financials-overview/</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-MACTER/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-KOHC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ICL</t>
+          <t>MARI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7186,130 +7054,130 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43.81</v>
+        <v>2658.89</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>8749</v>
+        <v>19712</v>
       </c>
       <c r="I3" t="n">
-        <v>43.20108551771042</v>
+        <v>18.45995574879156</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>44.08503228640882</v>
+        <v>46.08935038156399</v>
       </c>
       <c r="K3" t="n">
-        <v>46.31294756481805</v>
+        <v>45.5100984200667</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>0.07426470588237066</v>
+        <v>1.672029411762651</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.8374830239927512</v>
+        <v>0.1140873389410491</v>
       </c>
       <c r="N3" t="n">
-        <v>38.25444444444445</v>
+        <v>2555.971</v>
       </c>
       <c r="O3" t="n">
-        <v>53.65444444444444</v>
+        <v>2810.869000000001</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AICL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AMARI</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ICL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MARI/financials-overview/</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-ICL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-MARI/technicals/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CPPL</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NEUTRAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>118.5</v>
+        <v>116.13</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>21857</v>
+        <v>82646</v>
       </c>
       <c r="I4" t="n">
-        <v>14.91398732271113</v>
+        <v>24.38061647448842</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>46.32608790503614</v>
+        <v>49.94927157977676</v>
       </c>
       <c r="K4" t="n">
-        <v>47.57385194845528</v>
+        <v>51.85898656771979</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.02867647058825185</v>
+        <v>0.5248823529410629</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4117993108664551</v>
+        <v>-0.5651168764449103</v>
       </c>
       <c r="N4" t="n">
-        <v>108.5983333333334</v>
+        <v>106.6668</v>
       </c>
       <c r="O4" t="n">
-        <v>128.16</v>
+        <v>124.4832</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ACPPL</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATGL</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPPL/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-TGL/financials-overview/</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-CPPL/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-TGL/technicals/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FATIMA</t>
+          <t>OGDC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7318,64 +7186,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50.54</v>
+        <v>131.66</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>234766</v>
+        <v>3516742</v>
       </c>
       <c r="I5" t="n">
-        <v>25.02223926367896</v>
+        <v>12.66913952621908</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>48.4905882592903</v>
+        <v>48.72385363146403</v>
       </c>
       <c r="K5" t="n">
-        <v>56.299536361525</v>
+        <v>50.64025468344099</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>2.017558823529448</v>
+        <v>0.02041176470601158</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.770296267795302</v>
+        <v>-0.7762453839776933</v>
       </c>
       <c r="N5" t="n">
-        <v>45.13</v>
+        <v>123.00281</v>
       </c>
       <c r="O5" t="n">
-        <v>56.13</v>
+        <v>140.72219</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFATIMA</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AOGDC</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FATIMA/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/financials-overview/</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-FATIMA/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-OGDC/technicals/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PPP</t>
+          <t>EFERT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7384,64 +7252,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74.14</v>
+        <v>167.66</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>12088</v>
+        <v>1625018</v>
       </c>
       <c r="I6" t="n">
-        <v>12.93252690177482</v>
+        <v>26.17942218479147</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>49.7569378194056</v>
+        <v>49.99442924961887</v>
       </c>
       <c r="K6" t="n">
-        <v>54.75730307633658</v>
+        <v>60.51723385228831</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>1.918558823529395</v>
+        <v>3.830147058823513</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.82733050847457</v>
+        <v>-1.964682493275648</v>
       </c>
       <c r="N6" t="n">
-        <v>68.18388888888889</v>
+        <v>156.87688</v>
       </c>
       <c r="O6" t="n">
-        <v>81.43888888888888</v>
+        <v>172.15312</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3APPP</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AEFERT</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPP/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/financials-overview/</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/PSX-PPP/technicals/</t>
+          <t>https://www.tradingview.com/symbols/PSX-EFERT/technicals/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>45483.83657231266</v>
+        <v>45503.84441865538</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SURC</t>
+          <t>KOHTM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7450,54 +7318,186 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>130.06</v>
+        <v>16.25</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3965</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.61491276749712</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>47.00794575092543</v>
+      </c>
+      <c r="K7" t="n">
+        <v>51.35394726738601</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>1.131970588235287</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-4.411764705882353</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13.24275</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17.43225</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AKOHTM</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-KOHTM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-KOHTM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FABL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2587604</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30.36026608047404</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>48.56257157229658</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52.63123081353652</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>1.223676470588245</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.65003897116134</v>
+      </c>
+      <c r="N8" t="n">
+        <v>44.88046</v>
+      </c>
+      <c r="O8" t="n">
+        <v>54.52954</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3AFABL</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-FABL/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
+        <v>45503.84441865538</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>THALL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>440</v>
+      </c>
+      <c r="E9" t="n">
         <v>9</v>
       </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>243</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13.74515278582335</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>43.95518810887903</v>
-      </c>
-      <c r="K7" t="n">
-        <v>48.87341950916313</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>1.909911764705896</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-2.364687335785606</v>
-      </c>
-      <c r="N7" t="n">
-        <v>120.1666666666667</v>
-      </c>
-      <c r="O7" t="n">
-        <v>153.1666666666667</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ASURC</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SURC/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/PSX-SURC/technicals/</t>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3391</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.42840298626317</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>47.61533159691428</v>
+      </c>
+      <c r="K9" t="n">
+        <v>48.04119901983287</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>2.171176470588534</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.28328611898017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>422.5719099999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>510.7630899999999</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=PSX%3ATHALL</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-THALL/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/PSX-THALL/technicals/</t>
         </is>
       </c>
     </row>
